--- a/output.xlsx
+++ b/output.xlsx
@@ -523,43 +523,45 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.6565208812244236</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>0.1383481847879011</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.651897920628797</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>0.003472043956385698</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>11.45</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.7379912663755459</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>4.875196506550219</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>5.078947368421052</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
-      </c>
-      <c r="O2" t="n">
-        <v>0</v>
+        <v>1.85589519650655</v>
+      </c>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>5.078947368421052</v>
       </c>
     </row>
     <row r="3">
@@ -575,43 +577,45 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>0.6638820430636406</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.1230509585235268</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.6872654601882373</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>0.001879121722165077</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>13.51612903225806</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>0.8114558472553699</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>5.731033951805374</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.619186046511628</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
-      </c>
-      <c r="O3" t="n">
-        <v>0</v>
+        <v>2.021479713603819</v>
+      </c>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>5.619186046511628</v>
       </c>
     </row>
     <row r="4">
@@ -627,43 +631,45 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.6532153892655705</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>0.1764097712002695</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.5747251534930927</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.00228019000127978</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>0.7912087912087912</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>5.916483516483517</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>5.085014409221902</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="M4" t="n">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
+        <v>1.978021978021978</v>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>5.085014409221902</v>
       </c>
     </row>
     <row r="5">
@@ -679,43 +685,45 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>0.7428176701068878</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>0.1105402931571007</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>0.7409296655407825</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>0.08533679632639884</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5.772727272727272</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N5" t="n">
-        <v>0</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0</v>
+        <v>2.5</v>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>5.772727272727272</v>
       </c>
     </row>
     <row r="6">
@@ -731,43 +739,45 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>0.6309540563821793</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>0.2012009849958122</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>0.5164348975519821</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>0.0006667240331023932</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>10.96491228070176</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>0.796</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>4.704364912280702</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>5.051435406698564</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>995</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>1250</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>0</v>
+        <v>1.9944</v>
+      </c>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>5.051435406698564</v>
       </c>
     </row>
     <row r="7">
@@ -783,43 +793,45 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>0.6029674586127786</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>0.2110596852486624</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>0.4814441267058882</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>0.001070680872354062</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>12.2741935483871</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>0.7792378449408672</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>5.221372557331186</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>5.077530509691313</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>593</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>761</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>0</v>
+        <v>1.921156373193167</v>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>5.077530509691313</v>
       </c>
     </row>
     <row r="8">
@@ -835,43 +847,45 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>0.6405961215496063</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.12405114620924</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>0.675534670386793</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>0.7646482677588463</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="9">
@@ -887,43 +901,45 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>0.6295648440718651</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>0.1441031567580802</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>0.6274816335443761</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>0.001355935202854545</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>12.97727272727273</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>0.8038528896672504</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>5.512450246775991</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>5.357512953367876</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>459</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
+        <v>1.987740805604203</v>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>5.357512953367876</v>
       </c>
     </row>
     <row r="10">
@@ -939,43 +955,45 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>0.6476945747123208</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>0.1885681788729461</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>0.5490226966748614</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>0.0007133192108903467</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>13.49425287356322</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>0.8509369676320273</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>5.738075936478098</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>5.762881177707676</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="M10" t="n">
-        <v>0</v>
+        <v>1174</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
+        <v>2.091993185689949</v>
+      </c>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>5.762881177707676</v>
       </c>
     </row>
     <row r="11">
@@ -991,43 +1009,45 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>0.6615852619210879</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>0.14617517637865</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>0.6380739497316422</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>0.001812122058968022</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>9.911111111111111</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.742152466367713</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>4.26130543099153</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>4.902412280701754</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
-      </c>
-      <c r="O11" t="n">
-        <v>0</v>
+        <v>1.903587443946188</v>
+      </c>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>4.902412280701754</v>
       </c>
     </row>
     <row r="12">
@@ -1043,43 +1063,45 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>0.6615852619210879</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>0.14617517637865</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>0.6380739497316422</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
+        <v>0.001812122058968022</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>9.911111111111111</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.742152466367713</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>4.26130543099153</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>4.902412280701754</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
+        <v>1.903587443946188</v>
+      </c>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>4.902412280701754</v>
       </c>
     </row>
     <row r="13">
@@ -1095,43 +1117,45 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>0.6217385792431045</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>0.1804376940213223</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>0.5501305661936303</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>0.0007730657105528651</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>10.28712871287129</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>0.8671799807507219</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>4.461723477448803</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>5.155308298562819</v>
       </c>
       <c r="L13" t="n">
-        <v>0</v>
+        <v>901</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>1039</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
+        <v>2.11934552454283</v>
+      </c>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>5.155308298562819</v>
       </c>
     </row>
     <row r="14">
@@ -1147,43 +1171,45 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>0.6362310363738625</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>0.1627362822010009</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>0.5926344446538379</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>0.01079785565641707</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>14.8</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.6621621621621622</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>6.184864864864865</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>4.966101694915254</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
+        <v>1.648648648648649</v>
+      </c>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>4.966101694915254</v>
       </c>
     </row>
     <row r="15">
@@ -1199,43 +1225,45 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>0</v>
+        <v>0.7003619174162546</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>0.1514157528678576</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>0.6444721850280073</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>0.007606157770393859</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>5.894736842105263</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>0.7767857142857143</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>2.668609022556391</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>4.952380952380953</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>112</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
+        <v>1.946428571428571</v>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>4.952380952380953</v>
       </c>
     </row>
     <row r="16">
@@ -1251,43 +1279,45 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>0.6594441426651818</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>0.1434698920430882</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>0.6426280164894643</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.01544165451362058</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>5.04950495049505</v>
       </c>
       <c r="L16" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M16" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
+        <v>1.884615384615385</v>
+      </c>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P16" t="n">
-        <v>0</v>
+        <v>5.04950495049505</v>
       </c>
     </row>
     <row r="17">
@@ -1303,43 +1333,45 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.6405961215496063</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>0.12405114620924</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.675534670386793</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>0.7646482677588463</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="18">
@@ -1355,43 +1387,45 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>0.6713819632642581</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>0.1571513319342229</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>0.6206527400207165</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>0.0005739829150750215</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>14.17647058823529</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>0.9391424619640387</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>6.046245220079733</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>6.215864759427828</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>1358</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>1446</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
+        <v>2.235131396957123</v>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>6.215864759427828</v>
       </c>
     </row>
     <row r="19">
@@ -1407,43 +1441,45 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>0.6263332888484001</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.1642266903072596</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>0.5845317259731051</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>0.07905699791556597</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>4.32</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>5.588235294117647</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
-      </c>
-      <c r="O19" t="n">
-        <v>0</v>
+        <v>2.2</v>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>5.588235294117647</v>
       </c>
     </row>
     <row r="20">
@@ -1459,43 +1495,45 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>0.6405961215496063</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>0.12405114620924</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>0.675534670386793</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.7646482677588463</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="21">
@@ -1511,43 +1549,45 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>0</v>
+        <v>0.6645317588533673</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>0.170699682840634</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>0.5912527792806651</v>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>0.00224624581100538</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>7.591836734693878</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>0.760752688172043</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>3.341035769146369</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>5.297971918876755</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
+        <v>1.895161290322581</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>5.297971918876755</v>
       </c>
     </row>
     <row r="22">
@@ -1563,43 +1603,45 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>0.6645317588533673</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>0.170699682840634</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>0.5912527792806651</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>0.00224624581100538</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>7.591836734693878</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>0.760752688172043</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>3.341035769146369</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>5.297971918876755</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
+        <v>1.895161290322581</v>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>5.297971918876755</v>
       </c>
     </row>
     <row r="23">
@@ -1615,43 +1657,45 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>0.6511462458542415</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>0.1795312564908749</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>0.5677483965912559</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>0.001969430100343878</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>10.55</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>0.7772511848341233</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>4.53090047393365</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>5.422058823529412</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>328</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
+        <v>1.938388625592417</v>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>5.422058823529412</v>
       </c>
     </row>
     <row r="24">
@@ -1667,43 +1711,45 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>0.6435082852840424</v>
       </c>
       <c r="E24" t="n">
-        <v>0</v>
+        <v>0.1838501686959163</v>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>0.5555741187334438</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.001652414079800317</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>12.525</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>0.7664670658682635</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>5.316586826347306</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>5.221692491060787</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>384</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>501</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
+        <v>1.908183632734531</v>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>5.221692491060787</v>
       </c>
     </row>
     <row r="25">
@@ -1719,43 +1765,45 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>0.6759488036235174</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>0.1408638539206651</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>0.655089954316197</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>0.003154716824494913</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>11.77272727272727</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>0.7915057915057915</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>5.025693225693226</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>5.800524934383202</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
+        <v>1.907335907335907</v>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>5.800524934383202</v>
       </c>
     </row>
     <row r="26">
@@ -1823,43 +1871,45 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>0</v>
+        <v>0.6405961215496063</v>
       </c>
       <c r="E27" t="n">
-        <v>0</v>
+        <v>0.12405114620924</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>0.675534670386793</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>0.7646482677588463</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="28">
@@ -1875,43 +1925,45 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>0.6258416540092893</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>0.149081156814866</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>0.6152371119520706</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>0.0008927408640093847</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>9.988505747126437</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>0.7698504027617952</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>4.303342459955293</v>
       </c>
       <c r="K28" t="n">
-        <v>0</v>
+        <v>5.119818285065304</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>669</v>
       </c>
       <c r="M28" t="n">
-        <v>0</v>
+        <v>869</v>
       </c>
       <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
+        <v>1.925201380897583</v>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>5.119818285065304</v>
       </c>
     </row>
     <row r="29">
@@ -1927,43 +1979,45 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>0.6405961215496063</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>0.12405114620924</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>0.675534670386793</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.7646482677588463</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="30">
@@ -1979,43 +2033,45 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>0</v>
+        <v>0.6581104302659948</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>0.141548681984398</v>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>0.6459784425978764</v>
       </c>
       <c r="G30" t="n">
-        <v>0</v>
+        <v>0.001688044540612643</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>11.5609756097561</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>0.8860759493670886</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>4.978820623649274</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>5.525672371638142</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
+        <v>2.139240506329114</v>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>5.525672371638142</v>
       </c>
     </row>
     <row r="31">
@@ -2031,43 +2087,45 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>0.6581104302659948</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>0.141548681984398</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>0.6459784425978764</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.001688044540612643</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>11.5609756097561</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>0.8860759493670886</v>
       </c>
       <c r="J31" t="n">
-        <v>0</v>
+        <v>4.978820623649274</v>
       </c>
       <c r="K31" t="n">
-        <v>0</v>
+        <v>5.525672371638142</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>420</v>
       </c>
       <c r="M31" t="n">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
+        <v>2.139240506329114</v>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>5.525672371638142</v>
       </c>
     </row>
     <row r="32">
@@ -2083,43 +2141,45 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>0.6611136708940778</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>0.1416719189978072</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>0.6470501728261171</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>0.01543918442099779</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>5.04950495049505</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
+        <v>1.903846153846154</v>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>5.04950495049505</v>
       </c>
     </row>
     <row r="33">
@@ -2135,43 +2195,45 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>0</v>
+        <v>0.6475835683799925</v>
       </c>
       <c r="E33" t="n">
-        <v>0</v>
+        <v>0.1678014415138889</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>0.58841275769045</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.001102871634991732</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>11.04477611940299</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>0.7486486486486487</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>4.717369907220654</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>4.91174426685198</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>554</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
+        <v>1.917567567567568</v>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>4.91174426685198</v>
       </c>
     </row>
     <row r="34">
@@ -2187,43 +2249,45 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>0.6601162467684064</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>0.1427701324490564</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>0.6443588166360026</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.0154411226772589</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>0.75</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2.9</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>5.04950495049505</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>39</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
-      </c>
-      <c r="O34" t="n">
-        <v>0</v>
+        <v>1.884615384615385</v>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>5.04950495049505</v>
       </c>
     </row>
     <row r="35">
@@ -2239,43 +2303,45 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>0.6731386440806091</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>0.1622991471667774</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>0.6114642379163753</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.001745129000516464</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>12.28205128205128</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>0.7828810020876826</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>5.225972913655586</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>4.94816414686825</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
+        <v>1.977035490605428</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>4.94816414686825</v>
       </c>
     </row>
     <row r="36">
@@ -2291,43 +2357,45 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>0.6731386440806091</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>0.1622991471667774</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>0.6114642379163753</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>0.001745129000516464</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>12.28205128205128</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>0.7828810020876826</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>5.225972913655586</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>4.94816414686825</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>479</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
-      </c>
-      <c r="O36" t="n">
-        <v>0</v>
+        <v>1.977035490605428</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>4.94816414686825</v>
       </c>
     </row>
     <row r="37">
@@ -2343,43 +2411,45 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>0.6328541561961174</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>0.1388048519293079</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>0.6402440335997669</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>0.01641927676862607</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>4.272727272727272</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>0.7659574468085106</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>2.015473887814313</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>5.868421052631579</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
-      </c>
-      <c r="O37" t="n">
-        <v>0</v>
+        <v>2.212765957446809</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>5.868421052631579</v>
       </c>
     </row>
     <row r="38">
@@ -2395,43 +2465,45 @@
         </is>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>0.6819290667772293</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>0.159252870362252</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>0.6213602723975828</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>0.0009723417287984772</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>10.69135802469136</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>0.8106235565819861</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>4.600792632509338</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>5.160869565217391</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
+        <v>2.008083140877598</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>5.160869565217391</v>
       </c>
     </row>
     <row r="39">
@@ -2447,43 +2519,45 @@
         </is>
       </c>
       <c r="D39" t="n">
-        <v>0</v>
+        <v>0.610736753572436</v>
       </c>
       <c r="E39" t="n">
-        <v>0</v>
+        <v>0.133898232899168</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>0.6403664533246295</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>0.002474870386948851</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>9.40625</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>0.7906976744186046</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>4.078779069767442</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>5.336776859504132</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>301</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
+        <v>2.019933554817276</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>5.336776859504132</v>
       </c>
     </row>
     <row r="40">
@@ -2551,43 +2625,45 @@
         </is>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>0.6405961215496063</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>0.12405114620924</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>0.675534670386793</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>0.7646482677588463</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.5333333333333333</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
       </c>
     </row>
     <row r="42">
@@ -2603,43 +2679,45 @@
         </is>
       </c>
       <c r="D42" t="n">
-        <v>0</v>
+        <v>0.6591658540070057</v>
       </c>
       <c r="E42" t="n">
-        <v>0</v>
+        <v>0.1895531909540296</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>0.5533203414724611</v>
       </c>
       <c r="G42" t="n">
-        <v>0</v>
+        <v>0.001223938105131175</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>11.01587301587302</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>0.7939481268011528</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>4.723928457069667</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>5.159677419354839</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>551</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
-      </c>
-      <c r="O42" t="n">
-        <v>0</v>
+        <v>1.988472622478386</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>5.159677419354839</v>
       </c>
     </row>
     <row r="43">
@@ -2655,43 +2733,45 @@
         </is>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>0.6599079359949163</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>0.1532017805086103</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>0.623171705258825</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>0.0004475182408036939</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>12.22147651006711</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>0.7764964305326744</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>5.199189176239916</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>5.461148648648648</v>
       </c>
       <c r="L43" t="n">
-        <v>0</v>
+        <v>1414</v>
       </c>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>1821</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
-      </c>
-      <c r="O43" t="n">
-        <v>0</v>
+        <v>1.913234486545854</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>5.461148648648648</v>
       </c>
     </row>
     <row r="44">
@@ -2707,43 +2787,45 @@
         </is>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>0.6476945747123208</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>0.1885681788729461</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>0.5490226966748614</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>0.0007133192108903467</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>13.49425287356322</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.8509369676320273</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>5.738075936478098</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>5.762881177707676</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>1174</v>
       </c>
       <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
+        <v>2.091993185689949</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>5.762881177707676</v>
       </c>
     </row>
     <row r="45">
@@ -2759,43 +2841,45 @@
         </is>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>0.6411368970293552</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>0.156171092094155</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>0.6082550392807661</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>0.001994269972808776</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>14.81481481481481</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>0.8875</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>6.280925925925926</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>6.099846390168971</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
+        <v>2.2375</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>6.099846390168971</v>
       </c>
     </row>
     <row r="46">
@@ -2811,43 +2895,45 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>0.6655702186482293</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>0.1370427742866533</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>0.6585094580165229</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>0.01543586524874774</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="J46" t="n">
-        <v>0</v>
+        <v>2.892307692307693</v>
       </c>
       <c r="K46" t="n">
-        <v>0</v>
+        <v>5.04950495049505</v>
       </c>
       <c r="L46" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N46" t="n">
-        <v>0</v>
-      </c>
-      <c r="O46" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>5.04950495049505</v>
       </c>
     </row>
     <row r="47">
@@ -2863,43 +2949,45 @@
         </is>
       </c>
       <c r="D47" t="n">
-        <v>0</v>
+        <v>0.6638820430636406</v>
       </c>
       <c r="E47" t="n">
-        <v>0</v>
+        <v>0.1230509585235268</v>
       </c>
       <c r="F47" t="n">
-        <v>0</v>
+        <v>0.6872654601882373</v>
       </c>
       <c r="G47" t="n">
-        <v>0</v>
+        <v>0.001879121722165077</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>13.51612903225806</v>
       </c>
       <c r="I47" t="n">
-        <v>0</v>
+        <v>0.8114558472553699</v>
       </c>
       <c r="J47" t="n">
-        <v>0</v>
+        <v>5.731033951805374</v>
       </c>
       <c r="K47" t="n">
-        <v>0</v>
+        <v>5.619186046511628</v>
       </c>
       <c r="L47" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="M47" t="n">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="N47" t="n">
-        <v>0</v>
-      </c>
-      <c r="O47" t="n">
-        <v>0</v>
+        <v>2.021479713603819</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P47" t="n">
-        <v>0</v>
+        <v>5.619186046511628</v>
       </c>
     </row>
     <row r="48">
@@ -2915,43 +3003,45 @@
         </is>
       </c>
       <c r="D48" t="n">
-        <v>0</v>
+        <v>0.626722877797408</v>
       </c>
       <c r="E48" t="n">
-        <v>0</v>
+        <v>0.1414709904302771</v>
       </c>
       <c r="F48" t="n">
-        <v>0</v>
+        <v>0.6316799386599309</v>
       </c>
       <c r="G48" t="n">
-        <v>0</v>
+        <v>0.002386695242943122</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>10.0625</v>
       </c>
       <c r="I48" t="n">
-        <v>0</v>
+        <v>0.7732919254658385</v>
       </c>
       <c r="J48" t="n">
-        <v>0</v>
+        <v>4.334316770186335</v>
       </c>
       <c r="K48" t="n">
-        <v>0</v>
+        <v>5.046641791044777</v>
       </c>
       <c r="L48" t="n">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="M48" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="N48" t="n">
-        <v>0</v>
-      </c>
-      <c r="O48" t="n">
-        <v>0</v>
+        <v>1.978260869565217</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P48" t="n">
-        <v>0</v>
+        <v>5.046641791044777</v>
       </c>
     </row>
     <row r="49">
@@ -3019,43 +3109,45 @@
         </is>
       </c>
       <c r="D50" t="n">
-        <v>0</v>
+        <v>0.6614679528694404</v>
       </c>
       <c r="E50" t="n">
-        <v>0</v>
+        <v>0.1707846008878397</v>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>0.5895856756689011</v>
       </c>
       <c r="G50" t="n">
-        <v>0</v>
+        <v>0.0004187974667456226</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>7.661538461538462</v>
       </c>
       <c r="I50" t="n">
-        <v>0</v>
+        <v>0.7474899598393574</v>
       </c>
       <c r="J50" t="n">
-        <v>0</v>
+        <v>3.363611368551128</v>
       </c>
       <c r="K50" t="n">
-        <v>0</v>
+        <v>4.827465813209194</v>
       </c>
       <c r="L50" t="n">
-        <v>0</v>
+        <v>1489</v>
       </c>
       <c r="M50" t="n">
-        <v>0</v>
+        <v>1992</v>
       </c>
       <c r="N50" t="n">
-        <v>0</v>
-      </c>
-      <c r="O50" t="n">
-        <v>0</v>
+        <v>1.883032128514056</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P50" t="n">
-        <v>0</v>
+        <v>4.827465813209194</v>
       </c>
     </row>
     <row r="51">
@@ -3071,43 +3163,45 @@
         </is>
       </c>
       <c r="D51" t="n">
-        <v>0</v>
+        <v>0.6529031233752475</v>
       </c>
       <c r="E51" t="n">
-        <v>0</v>
+        <v>0.1672663050429786</v>
       </c>
       <c r="F51" t="n">
-        <v>0</v>
+        <v>0.592118678988432</v>
       </c>
       <c r="G51" t="n">
-        <v>0</v>
+        <v>0.0008187162795794876</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>12.38271604938272</v>
       </c>
       <c r="I51" t="n">
-        <v>0</v>
+        <v>0.8125623130608175</v>
       </c>
       <c r="J51" t="n">
-        <v>0</v>
+        <v>5.278111344977415</v>
       </c>
       <c r="K51" t="n">
-        <v>0</v>
+        <v>5.158544108574953</v>
       </c>
       <c r="L51" t="n">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>1003</v>
       </c>
       <c r="N51" t="n">
-        <v>0</v>
-      </c>
-      <c r="O51" t="n">
-        <v>0</v>
+        <v>2.014955134596212</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P51" t="n">
-        <v>0</v>
+        <v>5.158544108574953</v>
       </c>
     </row>
     <row r="52">
@@ -3123,43 +3217,45 @@
         </is>
       </c>
       <c r="D52" t="n">
-        <v>0</v>
+        <v>0.6292461842298508</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>0.1466249091674884</v>
       </c>
       <c r="F52" t="n">
-        <v>0</v>
+        <v>0.6220389637409721</v>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>0.001843924212345224</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>9.152173913043478</v>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>0.8076009501187649</v>
       </c>
       <c r="J52" t="n">
-        <v>0</v>
+        <v>3.983909945264898</v>
       </c>
       <c r="K52" t="n">
-        <v>0</v>
+        <v>4.991825613079019</v>
       </c>
       <c r="L52" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="M52" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="N52" t="n">
-        <v>0</v>
-      </c>
-      <c r="O52" t="n">
-        <v>0</v>
+        <v>2.02375296912114</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P52" t="n">
-        <v>0</v>
+        <v>4.991825613079019</v>
       </c>
     </row>
     <row r="53">
@@ -3175,43 +3271,45 @@
         </is>
       </c>
       <c r="D53" t="n">
-        <v>0</v>
+        <v>0.684624763972619</v>
       </c>
       <c r="E53" t="n">
-        <v>0</v>
+        <v>0.1592224857897735</v>
       </c>
       <c r="F53" t="n">
-        <v>0</v>
+        <v>0.6226282329865226</v>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>0.001011595508697476</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>8.697916666666666</v>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>0.7736526946107785</v>
       </c>
       <c r="J53" t="n">
-        <v>0</v>
+        <v>3.788627744510978</v>
       </c>
       <c r="K53" t="n">
-        <v>0</v>
+        <v>4.94455190199871</v>
       </c>
       <c r="L53" t="n">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="M53" t="n">
-        <v>0</v>
+        <v>835</v>
       </c>
       <c r="N53" t="n">
-        <v>0</v>
-      </c>
-      <c r="O53" t="n">
-        <v>0</v>
+        <v>1.958083832335329</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P53" t="n">
-        <v>0</v>
+        <v>4.94455190199871</v>
       </c>
     </row>
     <row r="54">
@@ -3227,43 +3325,45 @@
         </is>
       </c>
       <c r="D54" t="n">
-        <v>0</v>
+        <v>0.6640593472968888</v>
       </c>
       <c r="E54" t="n">
-        <v>0</v>
+        <v>0.1538009428154878</v>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>0.6238953382509619</v>
       </c>
       <c r="G54" t="n">
-        <v>0</v>
+        <v>0.0008511666217384372</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>11.59036144578313</v>
       </c>
       <c r="I54" t="n">
-        <v>0</v>
+        <v>0.7557172557172557</v>
       </c>
       <c r="J54" t="n">
-        <v>0</v>
+        <v>4.938431480600156</v>
       </c>
       <c r="K54" t="n">
-        <v>0</v>
+        <v>4.913019693654267</v>
       </c>
       <c r="L54" t="n">
-        <v>0</v>
+        <v>727</v>
       </c>
       <c r="M54" t="n">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="N54" t="n">
-        <v>0</v>
-      </c>
-      <c r="O54" t="n">
-        <v>0</v>
+        <v>1.878378378378378</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P54" t="n">
-        <v>0</v>
+        <v>4.913019693654267</v>
       </c>
     </row>
     <row r="55">
@@ -3331,43 +3431,45 @@
         </is>
       </c>
       <c r="D56" t="n">
-        <v>0</v>
+        <v>0.6655951565088227</v>
       </c>
       <c r="E56" t="n">
-        <v>0</v>
+        <v>0.1712771550059145</v>
       </c>
       <c r="F56" t="n">
-        <v>0</v>
+        <v>0.5906741465499122</v>
       </c>
       <c r="G56" t="n">
-        <v>0</v>
+        <v>0.0008682251932795206</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>10.84269662921348</v>
       </c>
       <c r="I56" t="n">
-        <v>0</v>
+        <v>0.7823834196891192</v>
       </c>
       <c r="J56" t="n">
-        <v>0</v>
+        <v>4.650032019561041</v>
       </c>
       <c r="K56" t="n">
-        <v>0</v>
+        <v>4.938653960690887</v>
       </c>
       <c r="L56" t="n">
-        <v>0</v>
+        <v>755</v>
       </c>
       <c r="M56" t="n">
-        <v>0</v>
+        <v>965</v>
       </c>
       <c r="N56" t="n">
-        <v>0</v>
-      </c>
-      <c r="O56" t="n">
-        <v>0</v>
+        <v>1.910880829015544</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P56" t="n">
-        <v>0</v>
+        <v>4.938653960690887</v>
       </c>
     </row>
     <row r="57">
@@ -3383,43 +3485,45 @@
         </is>
       </c>
       <c r="D57" t="n">
-        <v>0</v>
+        <v>0.6370092860825075</v>
       </c>
       <c r="E57" t="n">
-        <v>0</v>
+        <v>0.1409421289706084</v>
       </c>
       <c r="F57" t="n">
-        <v>0</v>
+        <v>0.6376592746854819</v>
       </c>
       <c r="G57" t="n">
-        <v>0</v>
+        <v>0.0006931275934636263</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>8.028571428571428</v>
       </c>
       <c r="I57" t="n">
-        <v>0</v>
+        <v>0.7909252669039146</v>
       </c>
       <c r="J57" t="n">
-        <v>0</v>
+        <v>3.527798678190138</v>
       </c>
       <c r="K57" t="n">
-        <v>0</v>
+        <v>5.27943661971831</v>
       </c>
       <c r="L57" t="n">
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="M57" t="n">
-        <v>0</v>
+        <v>1124</v>
       </c>
       <c r="N57" t="n">
-        <v>0</v>
-      </c>
-      <c r="O57" t="n">
-        <v>0</v>
+        <v>1.95017793594306</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P57" t="n">
-        <v>0</v>
+        <v>5.27943661971831</v>
       </c>
     </row>
     <row r="58">
@@ -3435,43 +3539,45 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0</v>
+        <v>0.6680365124264279</v>
       </c>
       <c r="E58" t="n">
-        <v>0</v>
+        <v>0.172813276156179</v>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>0.5889566529532232</v>
       </c>
       <c r="G58" t="n">
-        <v>0</v>
+        <v>0.0007129811927033082</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>9.448</v>
       </c>
       <c r="I58" t="n">
-        <v>0</v>
+        <v>0.7493649449618967</v>
       </c>
       <c r="J58" t="n">
-        <v>0</v>
+        <v>4.078945977984759</v>
       </c>
       <c r="K58" t="n">
-        <v>0</v>
+        <v>4.905633802816902</v>
       </c>
       <c r="L58" t="n">
-        <v>0</v>
+        <v>885</v>
       </c>
       <c r="M58" t="n">
-        <v>0</v>
+        <v>1181</v>
       </c>
       <c r="N58" t="n">
-        <v>0</v>
-      </c>
-      <c r="O58" t="n">
-        <v>0</v>
+        <v>1.89415749364945</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P58" t="n">
-        <v>0</v>
+        <v>4.905633802816902</v>
       </c>
     </row>
     <row r="59">
@@ -3487,43 +3593,45 @@
         </is>
       </c>
       <c r="D59" t="n">
-        <v>0</v>
+        <v>0.6511939530711219</v>
       </c>
       <c r="E59" t="n">
-        <v>0</v>
+        <v>0.1456596824196233</v>
       </c>
       <c r="F59" t="n">
-        <v>0</v>
+        <v>0.6344139563268713</v>
       </c>
       <c r="G59" t="n">
-        <v>0</v>
+        <v>0.00036271295301441</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>9.923423423423424</v>
       </c>
       <c r="I59" t="n">
-        <v>0</v>
+        <v>0.7489786654561961</v>
       </c>
       <c r="J59" t="n">
-        <v>0</v>
+        <v>4.268960835551848</v>
       </c>
       <c r="K59" t="n">
-        <v>0</v>
+        <v>4.839913854989232</v>
       </c>
       <c r="L59" t="n">
-        <v>0</v>
+        <v>1650</v>
       </c>
       <c r="M59" t="n">
-        <v>0</v>
+        <v>2203</v>
       </c>
       <c r="N59" t="n">
-        <v>0</v>
-      </c>
-      <c r="O59" t="n">
-        <v>0</v>
+        <v>1.899682251475261</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P59" t="n">
-        <v>0</v>
+        <v>4.839913854989232</v>
       </c>
     </row>
     <row r="60">
@@ -3539,43 +3647,45 @@
         </is>
       </c>
       <c r="D60" t="n">
-        <v>0</v>
+        <v>0.6867940336465835</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>0.1536360483785922</v>
       </c>
       <c r="F60" t="n">
-        <v>0</v>
+        <v>0.6343880795096315</v>
       </c>
       <c r="G60" t="n">
-        <v>0</v>
+        <v>0.001124569628375903</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>10.10810810810811</v>
       </c>
       <c r="I60" t="n">
-        <v>0</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="J60" t="n">
-        <v>0</v>
+        <v>4.337360890302067</v>
       </c>
       <c r="K60" t="n">
-        <v>0</v>
+        <v>4.701502732240437</v>
       </c>
       <c r="L60" t="n">
-        <v>0</v>
+        <v>550</v>
       </c>
       <c r="M60" t="n">
-        <v>0</v>
+        <v>748</v>
       </c>
       <c r="N60" t="n">
-        <v>0</v>
-      </c>
-      <c r="O60" t="n">
-        <v>0</v>
+        <v>1.834224598930481</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P60" t="n">
-        <v>0</v>
+        <v>4.701502732240437</v>
       </c>
     </row>
     <row r="61">
@@ -3591,43 +3701,45 @@
         </is>
       </c>
       <c r="D61" t="n">
-        <v>0</v>
+        <v>0.6611149685555383</v>
       </c>
       <c r="E61" t="n">
-        <v>0</v>
+        <v>0.1548969347781518</v>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>0.6203571880768053</v>
       </c>
       <c r="G61" t="n">
-        <v>0</v>
+        <v>0.0003003440584496295</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>6.781094527363184</v>
       </c>
       <c r="I61" t="n">
-        <v>0</v>
+        <v>0.7611885546588408</v>
       </c>
       <c r="J61" t="n">
-        <v>0</v>
+        <v>3.01691323280881</v>
       </c>
       <c r="K61" t="n">
-        <v>0</v>
+        <v>4.561661759895323</v>
       </c>
       <c r="L61" t="n">
-        <v>0</v>
+        <v>2075</v>
       </c>
       <c r="M61" t="n">
-        <v>0</v>
+        <v>2726</v>
       </c>
       <c r="N61" t="n">
-        <v>0</v>
-      </c>
-      <c r="O61" t="n">
-        <v>0</v>
+        <v>1.865003668378577</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P61" t="n">
-        <v>0</v>
+        <v>4.561661759895323</v>
       </c>
     </row>
     <row r="62">
@@ -3643,43 +3755,45 @@
         </is>
       </c>
       <c r="D62" t="n">
-        <v>0</v>
+        <v>0.668455020511064</v>
       </c>
       <c r="E62" t="n">
-        <v>0</v>
+        <v>0.1478105852535615</v>
       </c>
       <c r="F62" t="n">
-        <v>0</v>
+        <v>0.6378380368426783</v>
       </c>
       <c r="G62" t="n">
-        <v>0</v>
+        <v>0.003214644117183565</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>19.53846153846154</v>
       </c>
       <c r="I62" t="n">
-        <v>0</v>
+        <v>0.6692913385826772</v>
       </c>
       <c r="J62" t="n">
-        <v>0</v>
+        <v>8.083101150817688</v>
       </c>
       <c r="K62" t="n">
-        <v>0</v>
+        <v>4.702970297029703</v>
       </c>
       <c r="L62" t="n">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="M62" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="N62" t="n">
-        <v>0</v>
-      </c>
-      <c r="O62" t="n">
-        <v>0</v>
+        <v>1.708661417322835</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P62" t="n">
-        <v>0</v>
+        <v>4.702970297029703</v>
       </c>
     </row>
     <row r="63">
@@ -3747,43 +3861,45 @@
         </is>
       </c>
       <c r="D64" t="n">
-        <v>0</v>
+        <v>0.6127285378352376</v>
       </c>
       <c r="E64" t="n">
-        <v>0</v>
+        <v>0.1406194716505351</v>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>0.6266822419229183</v>
       </c>
       <c r="G64" t="n">
-        <v>0</v>
+        <v>0.001790425200678795</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>12.38235294117647</v>
       </c>
       <c r="I64" t="n">
-        <v>0</v>
+        <v>0.7577197149643705</v>
       </c>
       <c r="J64" t="n">
-        <v>0</v>
+        <v>5.256029062456337</v>
       </c>
       <c r="K64" t="n">
-        <v>0</v>
+        <v>5.048529411764706</v>
       </c>
       <c r="L64" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="M64" t="n">
-        <v>0</v>
+        <v>421</v>
       </c>
       <c r="N64" t="n">
-        <v>0</v>
-      </c>
-      <c r="O64" t="n">
-        <v>0</v>
+        <v>1.893111638954869</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P64" t="n">
-        <v>0</v>
+        <v>5.048529411764706</v>
       </c>
     </row>
     <row r="65">
@@ -3799,43 +3915,45 @@
         </is>
       </c>
       <c r="D65" t="n">
-        <v>0</v>
+        <v>0.6506992255647978</v>
       </c>
       <c r="E65" t="n">
-        <v>0</v>
+        <v>0.1440020053948198</v>
       </c>
       <c r="F65" t="n">
-        <v>0</v>
+        <v>0.6375956084267808</v>
       </c>
       <c r="G65" t="n">
-        <v>0</v>
+        <v>0.001185353548374989</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>10.16666666666667</v>
       </c>
       <c r="I65" t="n">
-        <v>0</v>
+        <v>0.736214605067064</v>
       </c>
       <c r="J65" t="n">
-        <v>0</v>
+        <v>4.361152508693492</v>
       </c>
       <c r="K65" t="n">
-        <v>0</v>
+        <v>4.902946273830156</v>
       </c>
       <c r="L65" t="n">
-        <v>0</v>
+        <v>494</v>
       </c>
       <c r="M65" t="n">
-        <v>0</v>
+        <v>671</v>
       </c>
       <c r="N65" t="n">
-        <v>0</v>
-      </c>
-      <c r="O65" t="n">
-        <v>0</v>
+        <v>1.906110283159463</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P65" t="n">
-        <v>0</v>
+        <v>4.902946273830156</v>
       </c>
     </row>
     <row r="66">
@@ -3903,43 +4021,45 @@
         </is>
       </c>
       <c r="D67" t="n">
-        <v>0</v>
+        <v>0.6233810724621299</v>
       </c>
       <c r="E67" t="n">
-        <v>0</v>
+        <v>0.1481979888448206</v>
       </c>
       <c r="F67" t="n">
-        <v>0</v>
+        <v>0.6158589301159541</v>
       </c>
       <c r="G67" t="n">
-        <v>0</v>
+        <v>0.0002384820133293169</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>7.699052132701421</v>
       </c>
       <c r="I67" t="n">
-        <v>0</v>
+        <v>0.6297322253000923</v>
       </c>
       <c r="J67" t="n">
-        <v>0</v>
+        <v>3.331513743200606</v>
       </c>
       <c r="K67" t="n">
-        <v>0</v>
+        <v>4.366772517321016</v>
       </c>
       <c r="L67" t="n">
-        <v>0</v>
+        <v>2046</v>
       </c>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>3249</v>
       </c>
       <c r="N67" t="n">
-        <v>0</v>
-      </c>
-      <c r="O67" t="n">
-        <v>0</v>
+        <v>1.664819944598338</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P67" t="n">
-        <v>0</v>
+        <v>4.366772517321016</v>
       </c>
     </row>
     <row r="68">
@@ -3955,43 +4075,45 @@
         </is>
       </c>
       <c r="D68" t="n">
-        <v>0</v>
+        <v>0.634538352671193</v>
       </c>
       <c r="E68" t="n">
-        <v>0</v>
+        <v>0.1571780782859258</v>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>0.6029444981009282</v>
       </c>
       <c r="G68" t="n">
-        <v>0</v>
+        <v>0.001251736857752162</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>10.04761904761905</v>
       </c>
       <c r="I68" t="n">
-        <v>0</v>
+        <v>0.7614533965244866</v>
       </c>
       <c r="J68" t="n">
-        <v>0</v>
+        <v>4.323628977657414</v>
       </c>
       <c r="K68" t="n">
-        <v>0</v>
+        <v>5.165808444902162</v>
       </c>
       <c r="L68" t="n">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="M68" t="n">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="N68" t="n">
-        <v>0</v>
-      </c>
-      <c r="O68" t="n">
-        <v>0</v>
+        <v>1.906793048973144</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P68" t="n">
-        <v>0</v>
+        <v>5.165808444902162</v>
       </c>
     </row>
     <row r="69">
@@ -4007,43 +4129,45 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0</v>
+        <v>0.6294549951747972</v>
       </c>
       <c r="E69" t="n">
-        <v>0</v>
+        <v>0.1540645875559397</v>
       </c>
       <c r="F69" t="n">
-        <v>0</v>
+        <v>0.6067381104650863</v>
       </c>
       <c r="G69" t="n">
-        <v>0</v>
+        <v>0.000490088378733294</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>9.828220858895705</v>
       </c>
       <c r="I69" t="n">
-        <v>0</v>
+        <v>0.7446941323345818</v>
       </c>
       <c r="J69" t="n">
-        <v>0</v>
+        <v>4.229165996492115</v>
       </c>
       <c r="K69" t="n">
-        <v>0</v>
+        <v>4.954450625869263</v>
       </c>
       <c r="L69" t="n">
-        <v>0</v>
+        <v>1193</v>
       </c>
       <c r="M69" t="n">
-        <v>0</v>
+        <v>1602</v>
       </c>
       <c r="N69" t="n">
-        <v>0</v>
-      </c>
-      <c r="O69" t="n">
-        <v>0</v>
+        <v>1.930711610486891</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P69" t="n">
-        <v>0</v>
+        <v>4.954450625869263</v>
       </c>
     </row>
     <row r="70">
@@ -4059,43 +4183,45 @@
         </is>
       </c>
       <c r="D70" t="n">
-        <v>0</v>
+        <v>0.6206671205850748</v>
       </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>0.1667313291571843</v>
       </c>
       <c r="F70" t="n">
-        <v>0</v>
+        <v>0.5765017431453265</v>
       </c>
       <c r="G70" t="n">
-        <v>0</v>
+        <v>0.0008246385457555013</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>10.98850574712644</v>
       </c>
       <c r="I70" t="n">
-        <v>0</v>
+        <v>0.9058577405857741</v>
       </c>
       <c r="J70" t="n">
-        <v>0</v>
+        <v>4.757745395084885</v>
       </c>
       <c r="K70" t="n">
-        <v>0</v>
+        <v>5.825140012445551</v>
       </c>
       <c r="L70" t="n">
-        <v>0</v>
+        <v>866</v>
       </c>
       <c r="M70" t="n">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="N70" t="n">
-        <v>0</v>
-      </c>
-      <c r="O70" t="n">
-        <v>0</v>
+        <v>2.178870292887029</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P70" t="n">
-        <v>0</v>
+        <v>5.825140012445551</v>
       </c>
     </row>
     <row r="71">
@@ -4111,43 +4237,45 @@
         </is>
       </c>
       <c r="D71" t="n">
-        <v>0</v>
+        <v>0.7236443310976028</v>
       </c>
       <c r="E71" t="n">
-        <v>0</v>
+        <v>0.1277814581990242</v>
       </c>
       <c r="F71" t="n">
-        <v>0</v>
+        <v>0.6998422314839888</v>
       </c>
       <c r="G71" t="n">
-        <v>0</v>
+        <v>0.1419052982161045</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I71" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J71" t="n">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="K71" t="n">
-        <v>0</v>
+        <v>5.222222222222222</v>
       </c>
       <c r="L71" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M71" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N71" t="n">
-        <v>0</v>
-      </c>
-      <c r="O71" t="n">
-        <v>0</v>
+        <v>1.666666666666667</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P71" t="n">
-        <v>0</v>
+        <v>5.222222222222222</v>
       </c>
     </row>
     <row r="72">
@@ -4163,43 +4291,45 @@
         </is>
       </c>
       <c r="D72" t="n">
-        <v>0</v>
+        <v>0.6343993421111788</v>
       </c>
       <c r="E72" t="n">
-        <v>0</v>
+        <v>0.1543160356536862</v>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>0.6086911815176944</v>
       </c>
       <c r="G72" t="n">
-        <v>0</v>
+        <v>0.001769420129517635</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>7.559322033898305</v>
       </c>
       <c r="I72" t="n">
-        <v>0</v>
+        <v>0.7017937219730942</v>
       </c>
       <c r="J72" t="n">
-        <v>0</v>
+        <v>3.30444630234856</v>
       </c>
       <c r="K72" t="n">
-        <v>0</v>
+        <v>4.698394495412844</v>
       </c>
       <c r="L72" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="N72" t="n">
-        <v>0</v>
-      </c>
-      <c r="O72" t="n">
-        <v>0</v>
+        <v>1.865470852017937</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P72" t="n">
-        <v>0</v>
+        <v>4.698394495412844</v>
       </c>
     </row>
     <row r="73">
@@ -4215,43 +4345,45 @@
         </is>
       </c>
       <c r="D73" t="n">
-        <v>0</v>
+        <v>0.6542925847228617</v>
       </c>
       <c r="E73" t="n">
-        <v>0</v>
+        <v>0.1742044188838918</v>
       </c>
       <c r="F73" t="n">
-        <v>0</v>
+        <v>0.579469801635937</v>
       </c>
       <c r="G73" t="n">
-        <v>0</v>
+        <v>0.0007303107426115787</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>10.32727272727273</v>
       </c>
       <c r="I73" t="n">
-        <v>0</v>
+        <v>0.7367957746478874</v>
       </c>
       <c r="J73" t="n">
-        <v>0</v>
+        <v>4.425627400768247</v>
       </c>
       <c r="K73" t="n">
-        <v>0</v>
+        <v>4.721789883268483</v>
       </c>
       <c r="L73" t="n">
-        <v>0</v>
+        <v>837</v>
       </c>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>1136</v>
       </c>
       <c r="N73" t="n">
-        <v>0</v>
-      </c>
-      <c r="O73" t="n">
-        <v>0</v>
+        <v>1.869718309859155</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P73" t="n">
-        <v>0</v>
+        <v>4.721789883268483</v>
       </c>
     </row>
     <row r="74">
@@ -4267,43 +4399,45 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0</v>
+        <v>0.627649469990592</v>
       </c>
       <c r="E74" t="n">
-        <v>0</v>
+        <v>0.1680815170444445</v>
       </c>
       <c r="F74" t="n">
-        <v>0</v>
+        <v>0.5775428582837122</v>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>0.0001744752533322513</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>5.813688212927756</v>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>0.6596904294746021</v>
       </c>
       <c r="J74" t="n">
-        <v>0</v>
+        <v>2.589351456960943</v>
       </c>
       <c r="K74" t="n">
-        <v>0</v>
+        <v>5.309634448574969</v>
       </c>
       <c r="L74" t="n">
-        <v>0</v>
+        <v>3026</v>
       </c>
       <c r="M74" t="n">
-        <v>0</v>
+        <v>4587</v>
       </c>
       <c r="N74" t="n">
-        <v>0</v>
-      </c>
-      <c r="O74" t="n">
-        <v>0</v>
+        <v>1.747547416612165</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P74" t="n">
-        <v>0</v>
+        <v>5.309634448574969</v>
       </c>
     </row>
     <row r="75">
@@ -4319,43 +4453,45 @@
         </is>
       </c>
       <c r="D75" t="n">
-        <v>0</v>
+        <v>0.6650879931886021</v>
       </c>
       <c r="E75" t="n">
-        <v>0</v>
+        <v>0.168789442713804</v>
       </c>
       <c r="F75" t="n">
-        <v>0</v>
+        <v>0.5951706605601438</v>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>0.0008282593610142918</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>10.95652173913044</v>
       </c>
       <c r="I75" t="n">
-        <v>0</v>
+        <v>0.7976190476190477</v>
       </c>
       <c r="J75" t="n">
-        <v>0</v>
+        <v>4.701656314699793</v>
       </c>
       <c r="K75" t="n">
-        <v>0</v>
+        <v>4.928649237472767</v>
       </c>
       <c r="L75" t="n">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>1008</v>
       </c>
       <c r="N75" t="n">
-        <v>0</v>
-      </c>
-      <c r="O75" t="n">
-        <v>0</v>
+        <v>1.949404761904762</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P75" t="n">
-        <v>0</v>
+        <v>4.928649237472767</v>
       </c>
     </row>
     <row r="76">
@@ -4371,43 +4507,45 @@
         </is>
       </c>
       <c r="D76" t="n">
-        <v>0</v>
+        <v>0.6059658117592335</v>
       </c>
       <c r="E76" t="n">
-        <v>0</v>
+        <v>0.2521668322650449</v>
       </c>
       <c r="F76" t="n">
-        <v>0</v>
+        <v>0.4122903843485795</v>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>0.001407774826269309</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>10.89285714285714</v>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>0.7934426229508197</v>
       </c>
       <c r="J76" t="n">
-        <v>0</v>
+        <v>4.674519906323185</v>
       </c>
       <c r="K76" t="n">
-        <v>0</v>
+        <v>5.011695906432749</v>
       </c>
       <c r="L76" t="n">
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="M76" t="n">
-        <v>0</v>
+        <v>610</v>
       </c>
       <c r="N76" t="n">
-        <v>0</v>
-      </c>
-      <c r="O76" t="n">
-        <v>0</v>
+        <v>2.052459016393442</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P76" t="n">
-        <v>0</v>
+        <v>5.011695906432749</v>
       </c>
     </row>
     <row r="77">
@@ -4423,43 +4561,45 @@
         </is>
       </c>
       <c r="D77" t="n">
-        <v>0</v>
+        <v>0.6637430232381676</v>
       </c>
       <c r="E77" t="n">
-        <v>0</v>
+        <v>0.157997264274078</v>
       </c>
       <c r="F77" t="n">
-        <v>0</v>
+        <v>0.615457935299102</v>
       </c>
       <c r="G77" t="n">
-        <v>0</v>
+        <v>0.002417883198565428</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>14.78260869565217</v>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>0.6735294117647059</v>
       </c>
       <c r="J77" t="n">
-        <v>0</v>
+        <v>6.182455242966753</v>
       </c>
       <c r="K77" t="n">
-        <v>0</v>
+        <v>4.747148288973384</v>
       </c>
       <c r="L77" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="M77" t="n">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="N77" t="n">
-        <v>0</v>
-      </c>
-      <c r="O77" t="n">
-        <v>0</v>
+        <v>1.744117647058824</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P77" t="n">
-        <v>0</v>
+        <v>4.747148288973384</v>
       </c>
     </row>
     <row r="78">
@@ -4475,43 +4615,45 @@
         </is>
       </c>
       <c r="D78" t="n">
-        <v>0</v>
+        <v>0.6705385493114591</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>0.1512330720433965</v>
       </c>
       <c r="F78" t="n">
-        <v>0</v>
+        <v>0.6319350602342573</v>
       </c>
       <c r="G78" t="n">
-        <v>0</v>
+        <v>0.001851836985033458</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>14.32258064516129</v>
       </c>
       <c r="I78" t="n">
-        <v>0</v>
+        <v>0.8063063063063063</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>6.051554780587039</v>
       </c>
       <c r="K78" t="n">
-        <v>0</v>
+        <v>5.304582210242588</v>
       </c>
       <c r="L78" t="n">
-        <v>0</v>
+        <v>358</v>
       </c>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>444</v>
       </c>
       <c r="N78" t="n">
-        <v>0</v>
-      </c>
-      <c r="O78" t="n">
-        <v>0</v>
+        <v>1.975225225225225</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P78" t="n">
-        <v>0</v>
+        <v>5.304582210242588</v>
       </c>
     </row>
     <row r="79">
@@ -4527,43 +4669,45 @@
         </is>
       </c>
       <c r="D79" t="n">
-        <v>0</v>
+        <v>0.6564774828200991</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>0.1739610457866961</v>
       </c>
       <c r="F79" t="n">
-        <v>0</v>
+        <v>0.581039114696952</v>
       </c>
       <c r="G79" t="n">
-        <v>0</v>
+        <v>0.004091830190181257</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>20.3</v>
       </c>
       <c r="I79" t="n">
-        <v>0</v>
+        <v>0.7586206896551724</v>
       </c>
       <c r="J79" t="n">
-        <v>0</v>
+        <v>8.42344827586207</v>
       </c>
       <c r="K79" t="n">
-        <v>0</v>
+        <v>4.900641025641026</v>
       </c>
       <c r="L79" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="M79" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="N79" t="n">
-        <v>0</v>
-      </c>
-      <c r="O79" t="n">
-        <v>0</v>
+        <v>1.950738916256158</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P79" t="n">
-        <v>0</v>
+        <v>4.900641025641026</v>
       </c>
     </row>
     <row r="80">
@@ -4579,43 +4723,45 @@
         </is>
       </c>
       <c r="D80" t="n">
-        <v>0</v>
+        <v>0.6835346865653992</v>
       </c>
       <c r="E80" t="n">
-        <v>0</v>
+        <v>0.1258572497684509</v>
       </c>
       <c r="F80" t="n">
-        <v>0</v>
+        <v>0.6890088981055269</v>
       </c>
       <c r="G80" t="n">
-        <v>0</v>
+        <v>0.004706767071708431</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>11.46666666666667</v>
       </c>
       <c r="I80" t="n">
-        <v>0</v>
+        <v>0.8488372093023255</v>
       </c>
       <c r="J80" t="n">
-        <v>0</v>
+        <v>4.926201550387598</v>
       </c>
       <c r="K80" t="n">
-        <v>0</v>
+        <v>5.770676691729324</v>
       </c>
       <c r="L80" t="n">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="M80" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="N80" t="n">
-        <v>0</v>
-      </c>
-      <c r="O80" t="n">
-        <v>0</v>
+        <v>2.034883720930233</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P80" t="n">
-        <v>0</v>
+        <v>5.770676691729324</v>
       </c>
     </row>
     <row r="81">
@@ -4631,43 +4777,45 @@
         </is>
       </c>
       <c r="D81" t="n">
-        <v>0</v>
+        <v>0.6907740533351898</v>
       </c>
       <c r="E81" t="n">
-        <v>0</v>
+        <v>0.1572839245200157</v>
       </c>
       <c r="F81" t="n">
-        <v>0</v>
+        <v>0.6290737081707383</v>
       </c>
       <c r="G81" t="n">
-        <v>0</v>
+        <v>0.1413439963092009</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="I81" t="n">
-        <v>0</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="J81" t="n">
-        <v>0</v>
+        <v>2.666666666666667</v>
       </c>
       <c r="K81" t="n">
-        <v>0</v>
+        <v>4.777777777777778</v>
       </c>
       <c r="L81" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="M81" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N81" t="n">
-        <v>0</v>
-      </c>
-      <c r="O81" t="n">
-        <v>0</v>
+        <v>1.5</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P81" t="n">
-        <v>0</v>
+        <v>4.777777777777778</v>
       </c>
     </row>
     <row r="82">
@@ -4683,43 +4831,45 @@
         </is>
       </c>
       <c r="D82" t="n">
-        <v>0</v>
+        <v>0.6560354226681052</v>
       </c>
       <c r="E82" t="n">
-        <v>0</v>
+        <v>0.1672571300696887</v>
       </c>
       <c r="F82" t="n">
-        <v>0</v>
+        <v>0.5936882512365419</v>
       </c>
       <c r="G82" t="n">
-        <v>0</v>
+        <v>0.001211724342261462</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>11.14754098360656</v>
       </c>
       <c r="I82" t="n">
-        <v>0</v>
+        <v>0.6985294117647058</v>
       </c>
       <c r="J82" t="n">
-        <v>0</v>
+        <v>4.738428158148506</v>
       </c>
       <c r="K82" t="n">
-        <v>0</v>
+        <v>4.876563803169308</v>
       </c>
       <c r="L82" t="n">
-        <v>0</v>
+        <v>475</v>
       </c>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>680</v>
       </c>
       <c r="N82" t="n">
-        <v>0</v>
-      </c>
-      <c r="O82" t="n">
-        <v>0</v>
+        <v>1.729411764705882</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P82" t="n">
-        <v>0</v>
+        <v>4.876563803169308</v>
       </c>
     </row>
     <row r="83">
@@ -4735,43 +4885,45 @@
         </is>
       </c>
       <c r="D83" t="n">
-        <v>0</v>
+        <v>0.6687682198755669</v>
       </c>
       <c r="E83" t="n">
-        <v>0</v>
+        <v>0.1659096939080028</v>
       </c>
       <c r="F83" t="n">
-        <v>0</v>
+        <v>0.6024591669929682</v>
       </c>
       <c r="G83" t="n">
-        <v>0</v>
+        <v>0.0005790317962490095</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>10.93939393939394</v>
       </c>
       <c r="I83" t="n">
-        <v>0</v>
+        <v>0.8102493074792244</v>
       </c>
       <c r="J83" t="n">
-        <v>0</v>
+        <v>4.699857298749266</v>
       </c>
       <c r="K83" t="n">
-        <v>0</v>
+        <v>5.090492957746479</v>
       </c>
       <c r="L83" t="n">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="M83" t="n">
-        <v>0</v>
+        <v>1444</v>
       </c>
       <c r="N83" t="n">
-        <v>0</v>
-      </c>
-      <c r="O83" t="n">
-        <v>0</v>
+        <v>2.023545706371191</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P83" t="n">
-        <v>0</v>
+        <v>5.090492957746479</v>
       </c>
     </row>
     <row r="84">
@@ -4787,43 +4939,45 @@
         </is>
       </c>
       <c r="D84" t="n">
-        <v>0</v>
+        <v>0.654726975162824</v>
       </c>
       <c r="E84" t="n">
-        <v>0</v>
+        <v>0.1733998702218135</v>
       </c>
       <c r="F84" t="n">
-        <v>0</v>
+        <v>0.5812248881320771</v>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>0.001762972011456675</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>9.215686274509803</v>
       </c>
       <c r="I84" t="n">
-        <v>0</v>
+        <v>0.8063829787234043</v>
       </c>
       <c r="J84" t="n">
-        <v>0</v>
+        <v>4.008827701293283</v>
       </c>
       <c r="K84" t="n">
-        <v>0</v>
+        <v>5.185140073081608</v>
       </c>
       <c r="L84" t="n">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="M84" t="n">
-        <v>0</v>
+        <v>470</v>
       </c>
       <c r="N84" t="n">
-        <v>0</v>
-      </c>
-      <c r="O84" t="n">
-        <v>0</v>
+        <v>1.963829787234042</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P84" t="n">
-        <v>0</v>
+        <v>5.185140073081608</v>
       </c>
     </row>
     <row r="85">
@@ -4839,43 +4993,45 @@
         </is>
       </c>
       <c r="D85" t="n">
-        <v>0</v>
+        <v>0.666259163738908</v>
       </c>
       <c r="E85" t="n">
-        <v>0</v>
+        <v>0.1621834753660133</v>
       </c>
       <c r="F85" t="n">
-        <v>0</v>
+        <v>0.6084627867056142</v>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>0.00110118942776218</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>7.926315789473684</v>
       </c>
       <c r="I85" t="n">
-        <v>0</v>
+        <v>0.7622841965471447</v>
       </c>
       <c r="J85" t="n">
-        <v>0</v>
+        <v>3.475439994408332</v>
       </c>
       <c r="K85" t="n">
-        <v>0</v>
+        <v>4.822268326417704</v>
       </c>
       <c r="L85" t="n">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="M85" t="n">
-        <v>0</v>
+        <v>753</v>
       </c>
       <c r="N85" t="n">
-        <v>0</v>
-      </c>
-      <c r="O85" t="n">
-        <v>0</v>
+        <v>1.867197875166003</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P85" t="n">
-        <v>0</v>
+        <v>4.822268326417704</v>
       </c>
     </row>
     <row r="86">
@@ -4891,43 +5047,45 @@
         </is>
       </c>
       <c r="D86" t="n">
-        <v>0</v>
+        <v>0.665925702223411</v>
       </c>
       <c r="E86" t="n">
-        <v>0</v>
+        <v>0.1762970794135561</v>
       </c>
       <c r="F86" t="n">
-        <v>0</v>
+        <v>0.5813538599383163</v>
       </c>
       <c r="G86" t="n">
-        <v>0</v>
+        <v>0.00103061220249018</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>9.738095238095237</v>
       </c>
       <c r="I86" t="n">
-        <v>0</v>
+        <v>0.7518337408312958</v>
       </c>
       <c r="J86" t="n">
-        <v>0</v>
+        <v>4.195971591570614</v>
       </c>
       <c r="K86" t="n">
-        <v>0</v>
+        <v>4.777635782747604</v>
       </c>
       <c r="L86" t="n">
-        <v>0</v>
+        <v>615</v>
       </c>
       <c r="M86" t="n">
-        <v>0</v>
+        <v>818</v>
       </c>
       <c r="N86" t="n">
-        <v>0</v>
-      </c>
-      <c r="O86" t="n">
-        <v>0</v>
+        <v>1.918092909535452</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P86" t="n">
-        <v>0</v>
+        <v>4.777635782747604</v>
       </c>
     </row>
     <row r="87">
@@ -4943,43 +5101,45 @@
         </is>
       </c>
       <c r="D87" t="n">
-        <v>0</v>
+        <v>0.649666244233096</v>
       </c>
       <c r="E87" t="n">
-        <v>0</v>
+        <v>0.1423729618574366</v>
       </c>
       <c r="F87" t="n">
-        <v>0</v>
+        <v>0.6404911152300713</v>
       </c>
       <c r="G87" t="n">
-        <v>0</v>
+        <v>0.0005712226105763375</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>10.13868613138686</v>
       </c>
       <c r="I87" t="n">
-        <v>0</v>
+        <v>0.7422606191504679</v>
       </c>
       <c r="J87" t="n">
-        <v>0</v>
+        <v>4.352378700214932</v>
       </c>
       <c r="K87" t="n">
-        <v>0</v>
+        <v>4.846946564885497</v>
       </c>
       <c r="L87" t="n">
-        <v>0</v>
+        <v>1031</v>
       </c>
       <c r="M87" t="n">
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="N87" t="n">
-        <v>0</v>
-      </c>
-      <c r="O87" t="n">
-        <v>0</v>
+        <v>1.888408927285817</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P87" t="n">
-        <v>0</v>
+        <v>4.846946564885497</v>
       </c>
     </row>
     <row r="88">
@@ -5047,43 +5207,45 @@
         </is>
       </c>
       <c r="D89" t="n">
-        <v>0</v>
+        <v>0.6354484832600543</v>
       </c>
       <c r="E89" t="n">
-        <v>0</v>
+        <v>0.1776322926958337</v>
       </c>
       <c r="F89" t="n">
-        <v>0</v>
+        <v>0.5630646021691632</v>
       </c>
       <c r="G89" t="n">
-        <v>0</v>
+        <v>0.0005735920957435831</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>0.7647887323943662</v>
       </c>
       <c r="J89" t="n">
-        <v>0</v>
+        <v>6.222582159624413</v>
       </c>
       <c r="K89" t="n">
-        <v>0</v>
+        <v>5.30252460419341</v>
       </c>
       <c r="L89" t="n">
-        <v>0</v>
+        <v>1086</v>
       </c>
       <c r="M89" t="n">
-        <v>0</v>
+        <v>1420</v>
       </c>
       <c r="N89" t="n">
-        <v>0</v>
-      </c>
-      <c r="O89" t="n">
-        <v>0</v>
+        <v>1.980985915492958</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P89" t="n">
-        <v>0</v>
+        <v>5.30252460419341</v>
       </c>
     </row>
     <row r="90">
@@ -5099,43 +5261,45 @@
         </is>
       </c>
       <c r="D90" t="n">
-        <v>0</v>
+        <v>0.6373854503035545</v>
       </c>
       <c r="E90" t="n">
-        <v>0</v>
+        <v>0.2230528267100453</v>
       </c>
       <c r="F90" t="n">
-        <v>0</v>
+        <v>0.4815377175802203</v>
       </c>
       <c r="G90" t="n">
-        <v>0</v>
+        <v>0.08604482770135999</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>3.333333333333333</v>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J90" t="n">
-        <v>0</v>
+        <v>1.573333333333333</v>
       </c>
       <c r="K90" t="n">
-        <v>0</v>
+        <v>4.222222222222222</v>
       </c>
       <c r="L90" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M90" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="N90" t="n">
-        <v>0</v>
-      </c>
-      <c r="O90" t="n">
-        <v>0</v>
+        <v>1.9</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P90" t="n">
-        <v>0</v>
+        <v>4.222222222222222</v>
       </c>
     </row>
     <row r="91">
@@ -5151,43 +5315,45 @@
         </is>
       </c>
       <c r="D91" t="n">
-        <v>0</v>
+        <v>0.6553366551312004</v>
       </c>
       <c r="E91" t="n">
-        <v>0</v>
+        <v>0.1553892667700605</v>
       </c>
       <c r="F91" t="n">
-        <v>0</v>
+        <v>0.6166673416764772</v>
       </c>
       <c r="G91" t="n">
-        <v>0</v>
+        <v>0.002271940957706613</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>6.050847457627119</v>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>0.8795518207282913</v>
       </c>
       <c r="J91" t="n">
-        <v>0</v>
+        <v>2.772159711342164</v>
       </c>
       <c r="K91" t="n">
-        <v>0</v>
+        <v>5.507563025210084</v>
       </c>
       <c r="L91" t="n">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="M91" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="N91" t="n">
-        <v>0</v>
-      </c>
-      <c r="O91" t="n">
-        <v>0</v>
+        <v>2.098039215686275</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P91" t="n">
-        <v>0</v>
+        <v>5.507563025210084</v>
       </c>
     </row>
     <row r="92">
@@ -5203,43 +5369,45 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0</v>
+        <v>0.6579091995954514</v>
       </c>
       <c r="E92" t="n">
-        <v>0</v>
+        <v>0.1578232062359651</v>
       </c>
       <c r="F92" t="n">
-        <v>0</v>
+        <v>0.6130525225146476</v>
       </c>
       <c r="G92" t="n">
-        <v>0</v>
+        <v>0.1359564009719028</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>0</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="K92" t="n">
-        <v>0</v>
+        <v>28.83333333333333</v>
       </c>
       <c r="L92" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="M92" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N92" t="n">
-        <v>0</v>
-      </c>
-      <c r="O92" t="n">
-        <v>0</v>
+        <v>4.666666666666667</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P92" t="n">
-        <v>0</v>
+        <v>28.83333333333333</v>
       </c>
     </row>
     <row r="93">
@@ -5255,43 +5423,45 @@
         </is>
       </c>
       <c r="D93" t="n">
-        <v>0</v>
+        <v>0.5780556835234165</v>
       </c>
       <c r="E93" t="n">
-        <v>0</v>
+        <v>0.1254566775169224</v>
       </c>
       <c r="F93" t="n">
-        <v>0</v>
+        <v>0.6433429383522993</v>
       </c>
       <c r="G93" t="n">
-        <v>0</v>
+        <v>0.05025188293145278</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="I93" t="n">
-        <v>0</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="J93" t="n">
-        <v>0</v>
+        <v>5.942857142857143</v>
       </c>
       <c r="K93" t="n">
-        <v>0</v>
+        <v>4.782608695652174</v>
       </c>
       <c r="L93" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M93" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="N93" t="n">
-        <v>0</v>
-      </c>
-      <c r="O93" t="n">
-        <v>0</v>
+        <v>2.071428571428572</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P93" t="n">
-        <v>0</v>
+        <v>4.782608695652174</v>
       </c>
     </row>
     <row r="94">
@@ -5307,43 +5477,45 @@
         </is>
       </c>
       <c r="D94" t="n">
-        <v>0</v>
+        <v>0.6982532976592173</v>
       </c>
       <c r="E94" t="n">
-        <v>0</v>
+        <v>0.1345090270118757</v>
       </c>
       <c r="F94" t="n">
-        <v>0</v>
+        <v>0.676957982738139</v>
       </c>
       <c r="G94" t="n">
-        <v>0</v>
+        <v>0.001864002963470007</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>37.25</v>
       </c>
       <c r="I94" t="n">
-        <v>0</v>
+        <v>0.7472035794183445</v>
       </c>
       <c r="J94" t="n">
-        <v>0</v>
+        <v>15.19888143176734</v>
       </c>
       <c r="K94" t="n">
-        <v>0</v>
+        <v>5.04791344667697</v>
       </c>
       <c r="L94" t="n">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="M94" t="n">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="N94" t="n">
-        <v>0</v>
-      </c>
-      <c r="O94" t="n">
-        <v>0</v>
+        <v>1.923937360178971</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P94" t="n">
-        <v>0</v>
+        <v>5.04791344667697</v>
       </c>
     </row>
     <row r="95">
@@ -5359,43 +5531,45 @@
         </is>
       </c>
       <c r="D95" t="n">
-        <v>0</v>
+        <v>0.6730120992422968</v>
       </c>
       <c r="E95" t="n">
-        <v>0</v>
+        <v>0.1452428297936053</v>
       </c>
       <c r="F95" t="n">
-        <v>0</v>
+        <v>0.6449946941663507</v>
       </c>
       <c r="G95" t="n">
-        <v>0</v>
+        <v>0.003148134342445777</v>
       </c>
       <c r="H95" t="n">
-        <v>0</v>
+        <v>16.25</v>
       </c>
       <c r="I95" t="n">
-        <v>0</v>
+        <v>0.6615384615384615</v>
       </c>
       <c r="J95" t="n">
-        <v>0</v>
+        <v>6.764615384615386</v>
       </c>
       <c r="K95" t="n">
-        <v>0</v>
+        <v>4.744019138755981</v>
       </c>
       <c r="L95" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>260</v>
       </c>
       <c r="N95" t="n">
-        <v>0</v>
-      </c>
-      <c r="O95" t="n">
-        <v>0</v>
+        <v>1.715384615384615</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P95" t="n">
-        <v>0</v>
+        <v>4.744019138755981</v>
       </c>
     </row>
     <row r="96">
@@ -5411,43 +5585,45 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0</v>
+        <v>0.6805388927459717</v>
       </c>
       <c r="E96" t="n">
-        <v>0</v>
+        <v>0.1289961586395899</v>
       </c>
       <c r="F96" t="n">
-        <v>0</v>
+        <v>0.6813090337440455</v>
       </c>
       <c r="G96" t="n">
-        <v>0</v>
+        <v>0.1349235085642603</v>
       </c>
       <c r="H96" t="n">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="I96" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="J96" t="n">
-        <v>0</v>
+        <v>0.517948717948718</v>
       </c>
       <c r="K96" t="n">
-        <v>0</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="L96" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M96" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N96" t="n">
-        <v>0</v>
-      </c>
-      <c r="O96" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P96" t="n">
-        <v>0</v>
+        <v>28.33333333333333</v>
       </c>
     </row>
     <row r="97">
@@ -5463,43 +5639,45 @@
         </is>
       </c>
       <c r="D97" t="n">
-        <v>0</v>
+        <v>0.6731881266594797</v>
       </c>
       <c r="E97" t="n">
-        <v>0</v>
+        <v>0.1423198239898066</v>
       </c>
       <c r="F97" t="n">
-        <v>0</v>
+        <v>0.6509674341678209</v>
       </c>
       <c r="G97" t="n">
-        <v>0</v>
+        <v>0.003224351583594017</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>19.46153846153846</v>
       </c>
       <c r="I97" t="n">
-        <v>0</v>
+        <v>0.6600790513833992</v>
       </c>
       <c r="J97" t="n">
-        <v>0</v>
+        <v>8.048647005168744</v>
       </c>
       <c r="K97" t="n">
-        <v>0</v>
+        <v>4.681592039800995</v>
       </c>
       <c r="L97" t="n">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="M97" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="N97" t="n">
-        <v>0</v>
-      </c>
-      <c r="O97" t="n">
-        <v>0</v>
+        <v>1.707509881422925</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P97" t="n">
-        <v>0</v>
+        <v>4.681592039800995</v>
       </c>
     </row>
     <row r="98">
@@ -5515,43 +5693,45 @@
         </is>
       </c>
       <c r="D98" t="n">
-        <v>0</v>
+        <v>0.6575765730218684</v>
       </c>
       <c r="E98" t="n">
-        <v>0</v>
+        <v>0.1397523676500993</v>
       </c>
       <c r="F98" t="n">
-        <v>0</v>
+        <v>0.6494496515632566</v>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>0.002492652939599899</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>11.85185185185185</v>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>0.790625</v>
       </c>
       <c r="J98" t="n">
-        <v>0</v>
+        <v>5.056990740740741</v>
       </c>
       <c r="K98" t="n">
-        <v>0</v>
+        <v>5.171929824561404</v>
       </c>
       <c r="L98" t="n">
-        <v>0</v>
+        <v>253</v>
       </c>
       <c r="M98" t="n">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="N98" t="n">
-        <v>0</v>
-      </c>
-      <c r="O98" t="n">
-        <v>0</v>
+        <v>2.040625</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P98" t="n">
-        <v>0</v>
+        <v>5.171929824561404</v>
       </c>
     </row>
     <row r="99">
@@ -5567,43 +5747,45 @@
         </is>
       </c>
       <c r="D99" t="n">
-        <v>0</v>
+        <v>0.5756599605083466</v>
       </c>
       <c r="E99" t="n">
-        <v>0</v>
+        <v>0.2853347882628441</v>
       </c>
       <c r="F99" t="n">
-        <v>0</v>
+        <v>0.3371983785668888</v>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>0.01247918476479986</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>0.7101449275362319</v>
       </c>
       <c r="J99" t="n">
-        <v>0</v>
+        <v>9.484057971014492</v>
       </c>
       <c r="K99" t="n">
-        <v>0</v>
+        <v>5.466019417475728</v>
       </c>
       <c r="L99" t="n">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="M99" t="n">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="N99" t="n">
-        <v>0</v>
-      </c>
-      <c r="O99" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P99" t="n">
-        <v>0</v>
+        <v>5.466019417475728</v>
       </c>
     </row>
     <row r="100">
@@ -5619,43 +5801,45 @@
         </is>
       </c>
       <c r="D100" t="n">
-        <v>0</v>
+        <v>0.6244382325885365</v>
       </c>
       <c r="E100" t="n">
-        <v>0</v>
+        <v>0.1427148937641019</v>
       </c>
       <c r="F100" t="n">
-        <v>0</v>
+        <v>0.6279373562197101</v>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>0.002451968454800761</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>16.47368421052632</v>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>0.7891373801916933</v>
       </c>
       <c r="J100" t="n">
-        <v>0</v>
+        <v>6.905128636287204</v>
       </c>
       <c r="K100" t="n">
-        <v>0</v>
+        <v>5.480885311871227</v>
       </c>
       <c r="L100" t="n">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="M100" t="n">
-        <v>0</v>
+        <v>313</v>
       </c>
       <c r="N100" t="n">
-        <v>0</v>
-      </c>
-      <c r="O100" t="n">
-        <v>0</v>
+        <v>2.083067092651757</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P100" t="n">
-        <v>0</v>
+        <v>5.480885311871227</v>
       </c>
     </row>
     <row r="101">
@@ -5671,43 +5855,45 @@
         </is>
       </c>
       <c r="D101" t="n">
-        <v>0</v>
+        <v>0.6476447065086925</v>
       </c>
       <c r="E101" t="n">
-        <v>0</v>
+        <v>0.1529643951969988</v>
       </c>
       <c r="F101" t="n">
-        <v>0</v>
+        <v>0.6178809494756946</v>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>0.004399951108273029</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>15.16666666666667</v>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>0.7582417582417582</v>
       </c>
       <c r="J101" t="n">
-        <v>0</v>
+        <v>6.36996336996337</v>
       </c>
       <c r="K101" t="n">
-        <v>0</v>
+        <v>5.147887323943662</v>
       </c>
       <c r="L101" t="n">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="N101" t="n">
-        <v>0</v>
-      </c>
-      <c r="O101" t="n">
-        <v>0</v>
+        <v>1.923076923076923</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P101" t="n">
-        <v>0</v>
+        <v>5.147887323943662</v>
       </c>
     </row>
     <row r="102">
@@ -5723,43 +5909,45 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0</v>
+        <v>0.6604721634870484</v>
       </c>
       <c r="E102" t="n">
-        <v>0</v>
+        <v>0.1689356537702094</v>
       </c>
       <c r="F102" t="n">
-        <v>0</v>
+        <v>0.5926364918407754</v>
       </c>
       <c r="G102" t="n">
-        <v>0</v>
+        <v>0.001453553095021467</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>12.14893617021277</v>
       </c>
       <c r="I102" t="n">
-        <v>0</v>
+        <v>0.8056042031523643</v>
       </c>
       <c r="J102" t="n">
-        <v>0</v>
+        <v>5.181816149346052</v>
       </c>
       <c r="K102" t="n">
-        <v>0</v>
+        <v>5.274244004171011</v>
       </c>
       <c r="L102" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="M102" t="n">
-        <v>0</v>
+        <v>571</v>
       </c>
       <c r="N102" t="n">
-        <v>0</v>
-      </c>
-      <c r="O102" t="n">
-        <v>0</v>
+        <v>2.236427320490368</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P102" t="n">
-        <v>0</v>
+        <v>5.274244004171011</v>
       </c>
     </row>
     <row r="103">
@@ -5775,43 +5963,45 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0</v>
+        <v>0.6603683742384115</v>
       </c>
       <c r="E103" t="n">
-        <v>0</v>
+        <v>0.1612932004758881</v>
       </c>
       <c r="F103" t="n">
-        <v>0</v>
+        <v>0.6073984847078094</v>
       </c>
       <c r="G103" t="n">
-        <v>0</v>
+        <v>0.004171870937636039</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>28.14285714285714</v>
       </c>
       <c r="I103" t="n">
-        <v>0</v>
+        <v>0.6903553299492385</v>
       </c>
       <c r="J103" t="n">
-        <v>0</v>
+        <v>11.53328498912255</v>
       </c>
       <c r="K103" t="n">
-        <v>0</v>
+        <v>5.176470588235294</v>
       </c>
       <c r="L103" t="n">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="M103" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="N103" t="n">
-        <v>0</v>
-      </c>
-      <c r="O103" t="n">
-        <v>0</v>
+        <v>1.776649746192893</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P103" t="n">
-        <v>0</v>
+        <v>5.176470588235294</v>
       </c>
     </row>
     <row r="104">
@@ -5827,43 +6017,45 @@
         </is>
       </c>
       <c r="D104" t="n">
-        <v>0</v>
+        <v>0.6132081352795163</v>
       </c>
       <c r="E104" t="n">
-        <v>0</v>
+        <v>0.2198550787288696</v>
       </c>
       <c r="F104" t="n">
-        <v>0</v>
+        <v>0.4721777207292472</v>
       </c>
       <c r="G104" t="n">
-        <v>0</v>
+        <v>0.001092825968556207</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>17.74418604651163</v>
       </c>
       <c r="I104" t="n">
-        <v>0</v>
+        <v>0.7929226736566186</v>
       </c>
       <c r="J104" t="n">
-        <v>0</v>
+        <v>7.4148434880673</v>
       </c>
       <c r="K104" t="n">
-        <v>0</v>
+        <v>5.3078125</v>
       </c>
       <c r="L104" t="n">
-        <v>0</v>
+        <v>605</v>
       </c>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>763</v>
       </c>
       <c r="N104" t="n">
-        <v>0</v>
-      </c>
-      <c r="O104" t="n">
-        <v>0</v>
+        <v>2.052424639580603</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P104" t="n">
-        <v>0</v>
+        <v>5.3078125</v>
       </c>
     </row>
     <row r="105">
@@ -5879,43 +6071,45 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0</v>
+        <v>0.6751993695894877</v>
       </c>
       <c r="E105" t="n">
-        <v>0</v>
+        <v>0.1273443580915531</v>
       </c>
       <c r="F105" t="n">
-        <v>0</v>
+        <v>0.6826491755467305</v>
       </c>
       <c r="G105" t="n">
-        <v>0</v>
+        <v>0.1337582879468401</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="I105" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="J105" t="n">
-        <v>0</v>
+        <v>0.517948717948718</v>
       </c>
       <c r="K105" t="n">
-        <v>0</v>
+        <v>28.33333333333333</v>
       </c>
       <c r="L105" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M105" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N105" t="n">
-        <v>0</v>
-      </c>
-      <c r="O105" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P105" t="n">
-        <v>0</v>
+        <v>28.33333333333333</v>
       </c>
     </row>
     <row r="106">
@@ -5931,43 +6125,45 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0</v>
+        <v>0.6444828481239787</v>
       </c>
       <c r="E106" t="n">
-        <v>0</v>
+        <v>0.1586863679842929</v>
       </c>
       <c r="F106" t="n">
-        <v>0</v>
+        <v>0.6048504767934406</v>
       </c>
       <c r="G106" t="n">
-        <v>0</v>
+        <v>0.003279241698401108</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>61.25</v>
       </c>
       <c r="I106" t="n">
-        <v>0</v>
+        <v>0.726530612244898</v>
       </c>
       <c r="J106" t="n">
-        <v>0</v>
+        <v>24.79061224489796</v>
       </c>
       <c r="K106" t="n">
-        <v>0</v>
+        <v>5.225626740947075</v>
       </c>
       <c r="L106" t="n">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="M106" t="n">
-        <v>0</v>
+        <v>245</v>
       </c>
       <c r="N106" t="n">
-        <v>0</v>
-      </c>
-      <c r="O106" t="n">
-        <v>0</v>
+        <v>1.906122448979592</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+        </is>
       </c>
       <c r="P106" t="n">
-        <v>0</v>
+        <v>5.225626740947075</v>
       </c>
     </row>
     <row r="107">

--- a/output.xlsx
+++ b/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P201"/>
+  <dimension ref="A1:Q201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -446,65 +446,70 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 2</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>POSITIVE SCORE</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>NEGATIVE SCORE</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>POLARITY SCORE</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>SUBJECTIVITY SCORE</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>AVG SENTENCE LENGTH</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>PERCENTAGE OF COMPLEX WORDS</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>FOG INDEX</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>AVG NUMBER OF WORDS PER SENTENCE</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>COMPLEX WORD COUNT</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>WORD COUNT</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>SYLLABLE PER WORD</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>PERSONAL PRONOUNS</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>AVG WORD LENGTH</t>
         </is>
@@ -523,45 +528,48 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>0.6565208812244236</v>
+        <v>0.6570503511305513</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1383481847879011</v>
+        <v>0.1392676698300859</v>
       </c>
       <c r="F2" t="n">
-        <v>0.651897920628797</v>
+        <v>0.6502219766342334</v>
       </c>
       <c r="G2" t="n">
-        <v>0.003472043956385698</v>
+        <v>0.003509008902910296</v>
       </c>
       <c r="H2" t="n">
-        <v>11.45</v>
+        <v>11.35</v>
       </c>
       <c r="I2" t="n">
-        <v>0.7379912663755459</v>
+        <v>0.73568281938326</v>
       </c>
       <c r="J2" t="n">
-        <v>4.875196506550219</v>
+        <v>4.834273127753304</v>
       </c>
       <c r="K2" t="n">
-        <v>5.078947368421052</v>
+        <v>5.068783068783069</v>
       </c>
       <c r="L2" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M2" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="N2" t="n">
-        <v>1.85589519650655</v>
+        <v>1.854625550660793</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P2" t="n">
-        <v>5.078947368421052</v>
+        <v>5.068783068783069</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -611,11 +619,14 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P3" t="n">
         <v>5.619186046511628</v>
+      </c>
+      <c r="Q3" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -665,11 +676,14 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P4" t="n">
         <v>5.085014409221902</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -719,11 +733,14 @@
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P5" t="n">
         <v>5.772727272727272</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -773,11 +790,14 @@
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P6" t="n">
         <v>5.051435406698564</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -827,11 +847,14 @@
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P7" t="n">
         <v>5.077530509691313</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -881,11 +904,14 @@
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P8" t="n">
         <v>4.666666666666667</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -935,11 +961,14 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P9" t="n">
         <v>5.357512953367876</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -989,11 +1018,14 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P10" t="n">
         <v>5.762881177707676</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1009,45 +1041,48 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>0.6615852619210879</v>
+        <v>0.658923897643884</v>
       </c>
       <c r="E11" t="n">
-        <v>0.14617517637865</v>
+        <v>0.1461510995790983</v>
       </c>
       <c r="F11" t="n">
-        <v>0.6380739497316422</v>
+        <v>0.636926503628282</v>
       </c>
       <c r="G11" t="n">
-        <v>0.001812122058968022</v>
+        <v>0.001806100890634489</v>
       </c>
       <c r="H11" t="n">
         <v>9.911111111111111</v>
       </c>
       <c r="I11" t="n">
-        <v>0.742152466367713</v>
+        <v>0.7399103139013453</v>
       </c>
       <c r="J11" t="n">
-        <v>4.26130543099153</v>
+        <v>4.260408570004983</v>
       </c>
       <c r="K11" t="n">
-        <v>4.902412280701754</v>
+        <v>4.893640350877193</v>
       </c>
       <c r="L11" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M11" t="n">
         <v>446</v>
       </c>
       <c r="N11" t="n">
-        <v>1.903587443946188</v>
+        <v>1.896860986547085</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.902412280701754</v>
+        <v>4.893640350877193</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1063,45 +1098,48 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>0.6615852619210879</v>
+        <v>0.658923897643884</v>
       </c>
       <c r="E12" t="n">
-        <v>0.14617517637865</v>
+        <v>0.1461510995790983</v>
       </c>
       <c r="F12" t="n">
-        <v>0.6380739497316422</v>
+        <v>0.636926503628282</v>
       </c>
       <c r="G12" t="n">
-        <v>0.001812122058968022</v>
+        <v>0.001806100890634489</v>
       </c>
       <c r="H12" t="n">
         <v>9.911111111111111</v>
       </c>
       <c r="I12" t="n">
-        <v>0.742152466367713</v>
+        <v>0.7399103139013453</v>
       </c>
       <c r="J12" t="n">
-        <v>4.26130543099153</v>
+        <v>4.260408570004983</v>
       </c>
       <c r="K12" t="n">
-        <v>4.902412280701754</v>
+        <v>4.893640350877193</v>
       </c>
       <c r="L12" t="n">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M12" t="n">
         <v>446</v>
       </c>
       <c r="N12" t="n">
-        <v>1.903587443946188</v>
+        <v>1.896860986547085</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.902412280701754</v>
+        <v>4.893640350877193</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -1151,11 +1189,14 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P13" t="n">
         <v>5.155308298562819</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1205,11 +1246,14 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P14" t="n">
         <v>4.966101694915254</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1259,11 +1303,14 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P15" t="n">
         <v>4.952380952380953</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1279,45 +1326,48 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>0.6594441426651818</v>
+        <v>0.6650449889046806</v>
       </c>
       <c r="E16" t="n">
-        <v>0.1434698920430882</v>
+        <v>0.135079567586737</v>
       </c>
       <c r="F16" t="n">
-        <v>0.6426280164894643</v>
+        <v>0.6623546510888579</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01544165451362058</v>
+        <v>0.01538801070175803</v>
       </c>
       <c r="H16" t="n">
         <v>6.5</v>
       </c>
       <c r="I16" t="n">
-        <v>0.75</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="J16" t="n">
-        <v>2.9</v>
+        <v>2.892307692307693</v>
       </c>
       <c r="K16" t="n">
         <v>5.04950495049505</v>
       </c>
       <c r="L16" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="M16" t="n">
         <v>52</v>
       </c>
       <c r="N16" t="n">
-        <v>1.884615384615385</v>
+        <v>1.826923076923077</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P16" t="n">
         <v>5.04950495049505</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1367,11 +1417,14 @@
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P17" t="n">
         <v>4.666666666666667</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1421,11 +1474,14 @@
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P18" t="n">
         <v>6.215864759427828</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1475,11 +1531,14 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P19" t="n">
         <v>5.588235294117647</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1529,11 +1588,14 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P20" t="n">
         <v>4.666666666666667</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1583,11 +1645,14 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P21" t="n">
         <v>5.297971918876755</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1637,11 +1702,14 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P22" t="n">
         <v>5.297971918876755</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1691,11 +1759,14 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P23" t="n">
         <v>5.422058823529412</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1745,11 +1816,14 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P24" t="n">
         <v>5.221692491060787</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1799,11 +1873,14 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P25" t="n">
         <v>5.800524934383202</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1818,8 +1895,10 @@
           <t>https://www.investopedia.com/netflix-looks-to-accelerate-revenue-and-subscriber-growth-for-q4-8546779</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>0</v>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -1855,6 +1934,9 @@
         <v>0</v>
       </c>
       <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1905,11 +1987,14 @@
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P27" t="n">
         <v>4.666666666666667</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1959,11 +2044,14 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P28" t="n">
         <v>5.119818285065304</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2013,11 +2101,14 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P29" t="n">
         <v>4.666666666666667</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2067,11 +2158,14 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P30" t="n">
         <v>5.525672371638142</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2121,11 +2215,14 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P31" t="n">
         <v>5.525672371638142</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -2141,16 +2238,16 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>0.6611136708940778</v>
+        <v>0.646038182079792</v>
       </c>
       <c r="E32" t="n">
-        <v>0.1416719189978072</v>
+        <v>0.1565034715458751</v>
       </c>
       <c r="F32" t="n">
-        <v>0.6470501728261171</v>
+        <v>0.6099814394230891</v>
       </c>
       <c r="G32" t="n">
-        <v>0.01543918442099779</v>
+        <v>0.01543449333895514</v>
       </c>
       <c r="H32" t="n">
         <v>6.5</v>
@@ -2171,15 +2268,18 @@
         <v>52</v>
       </c>
       <c r="N32" t="n">
-        <v>1.903846153846154</v>
+        <v>1.865384615384615</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P32" t="n">
         <v>5.04950495049505</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -2229,11 +2329,14 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P33" t="n">
         <v>4.91174426685198</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -2249,16 +2352,16 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>0.6601162467684064</v>
+        <v>0.663568160363606</v>
       </c>
       <c r="E34" t="n">
-        <v>0.1427701324490564</v>
+        <v>0.1378369726506727</v>
       </c>
       <c r="F34" t="n">
-        <v>0.6443588166360026</v>
+        <v>0.6560127549229202</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0154411226772589</v>
+        <v>0.01541263717335151</v>
       </c>
       <c r="H34" t="n">
         <v>6.5</v>
@@ -2279,15 +2382,18 @@
         <v>52</v>
       </c>
       <c r="N34" t="n">
-        <v>1.884615384615385</v>
+        <v>1.865384615384615</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P34" t="n">
         <v>5.04950495049505</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -2303,45 +2409,48 @@
         </is>
       </c>
       <c r="D35" t="n">
-        <v>0.6731386440806091</v>
+        <v>0.6728050676174462</v>
       </c>
       <c r="E35" t="n">
-        <v>0.1622991471667774</v>
+        <v>0.1615982494549826</v>
       </c>
       <c r="F35" t="n">
-        <v>0.6114642379163753</v>
+        <v>0.6126625363372163</v>
       </c>
       <c r="G35" t="n">
-        <v>0.001745129000516464</v>
+        <v>0.001750273201409704</v>
       </c>
       <c r="H35" t="n">
-        <v>12.28205128205128</v>
+        <v>12.23076923076923</v>
       </c>
       <c r="I35" t="n">
-        <v>0.7828810020876826</v>
+        <v>0.7882599580712788</v>
       </c>
       <c r="J35" t="n">
-        <v>5.225972913655586</v>
+        <v>5.207611675536204</v>
       </c>
       <c r="K35" t="n">
-        <v>4.94816414686825</v>
+        <v>4.935064935064935</v>
       </c>
       <c r="L35" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M35" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N35" t="n">
-        <v>1.977035490605428</v>
+        <v>1.985324947589099</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>4.94816414686825</v>
+        <v>4.935064935064935</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -2357,45 +2466,48 @@
         </is>
       </c>
       <c r="D36" t="n">
-        <v>0.6731386440806091</v>
+        <v>0.6728050676174462</v>
       </c>
       <c r="E36" t="n">
-        <v>0.1622991471667774</v>
+        <v>0.1615982494549826</v>
       </c>
       <c r="F36" t="n">
-        <v>0.6114642379163753</v>
+        <v>0.6126625363372163</v>
       </c>
       <c r="G36" t="n">
-        <v>0.001745129000516464</v>
+        <v>0.001750273201409704</v>
       </c>
       <c r="H36" t="n">
-        <v>12.28205128205128</v>
+        <v>12.23076923076923</v>
       </c>
       <c r="I36" t="n">
-        <v>0.7828810020876826</v>
+        <v>0.7882599580712788</v>
       </c>
       <c r="J36" t="n">
-        <v>5.225972913655586</v>
+        <v>5.207611675536204</v>
       </c>
       <c r="K36" t="n">
-        <v>4.94816414686825</v>
+        <v>4.935064935064935</v>
       </c>
       <c r="L36" t="n">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M36" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N36" t="n">
-        <v>1.977035490605428</v>
+        <v>1.985324947589099</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P36" t="n">
-        <v>4.94816414686825</v>
+        <v>4.935064935064935</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2411,16 +2523,16 @@
         </is>
       </c>
       <c r="D37" t="n">
-        <v>0.6328541561961174</v>
+        <v>0.633103359490633</v>
       </c>
       <c r="E37" t="n">
-        <v>0.1388048519293079</v>
+        <v>0.135179805001826</v>
       </c>
       <c r="F37" t="n">
-        <v>0.6402440335997669</v>
+        <v>0.6481000050299277</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01641927676862607</v>
+        <v>0.01634745030835019</v>
       </c>
       <c r="H37" t="n">
         <v>4.272727272727272</v>
@@ -2445,11 +2557,14 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P37" t="n">
         <v>5.868421052631579</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2499,11 +2614,14 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P38" t="n">
         <v>5.160869565217391</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2553,11 +2671,14 @@
       </c>
       <c r="O39" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P39" t="n">
         <v>5.336776859504132</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2572,8 +2693,10 @@
           <t>https://www.sciencedirect.com/science/article/pii/S0167268123000793</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>0</v>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -2609,6 +2732,9 @@
         <v>0</v>
       </c>
       <c r="P40" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q40" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2659,11 +2785,14 @@
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P41" t="n">
         <v>4.666666666666667</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2713,11 +2842,14 @@
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P42" t="n">
         <v>5.159677419354839</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -2767,11 +2899,14 @@
       </c>
       <c r="O43" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P43" t="n">
         <v>5.461148648648648</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -2821,11 +2956,14 @@
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P44" t="n">
         <v>5.762881177707676</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -2875,11 +3013,14 @@
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P45" t="n">
         <v>6.099846390168971</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -2895,16 +3036,16 @@
         </is>
       </c>
       <c r="D46" t="n">
-        <v>0.6655702186482293</v>
+        <v>0.6605834471327918</v>
       </c>
       <c r="E46" t="n">
-        <v>0.1370427742866533</v>
+        <v>0.1353218969223755</v>
       </c>
       <c r="F46" t="n">
-        <v>0.6585094580165229</v>
+        <v>0.6599557975569421</v>
       </c>
       <c r="G46" t="n">
-        <v>0.01543586524874774</v>
+        <v>0.01530687200106091</v>
       </c>
       <c r="H46" t="n">
         <v>6.5</v>
@@ -2925,15 +3066,18 @@
         <v>52</v>
       </c>
       <c r="N46" t="n">
-        <v>1.846153846153846</v>
+        <v>1.826923076923077</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P46" t="n">
         <v>5.04950495049505</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2983,11 +3127,14 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P47" t="n">
         <v>5.619186046511628</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -3037,11 +3184,14 @@
       </c>
       <c r="O48" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P48" t="n">
         <v>5.046641791044777</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -3056,8 +3206,10 @@
           <t>https://thenextweb.com/news/how-netflix-shapes-mainstream-culture-explained-by-data</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>0</v>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Netflix</t>
+        </is>
       </c>
       <c r="E49" t="n">
         <v>0</v>
@@ -3093,6 +3245,9 @@
         <v>0</v>
       </c>
       <c r="P49" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q49" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3143,11 +3298,14 @@
       </c>
       <c r="O50" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P50" t="n">
         <v>4.827465813209194</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -3197,11 +3355,14 @@
       </c>
       <c r="O51" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P51" t="n">
         <v>5.158544108574953</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="52">
@@ -3251,11 +3412,14 @@
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P52" t="n">
         <v>4.991825613079019</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -3305,11 +3469,14 @@
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P53" t="n">
         <v>4.94455190199871</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="54">
@@ -3359,11 +3526,14 @@
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P54" t="n">
         <v>4.913019693654267</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="55">
@@ -3378,8 +3548,10 @@
           <t>https://www.investopedia.com/is-amazon-prime-worth-it-5081871</t>
         </is>
       </c>
-      <c r="D55" t="n">
-        <v>0</v>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Amazon Prime</t>
+        </is>
       </c>
       <c r="E55" t="n">
         <v>0</v>
@@ -3415,6 +3587,9 @@
         <v>0</v>
       </c>
       <c r="P55" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q55" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3465,11 +3640,14 @@
       </c>
       <c r="O56" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P56" t="n">
         <v>4.938653960690887</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="57">
@@ -3519,11 +3697,14 @@
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P57" t="n">
         <v>5.27943661971831</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -3539,45 +3720,48 @@
         </is>
       </c>
       <c r="D58" t="n">
-        <v>0.6680365124264279</v>
+        <v>0.6697109909476461</v>
       </c>
       <c r="E58" t="n">
-        <v>0.172813276156179</v>
+        <v>0.1721476811563244</v>
       </c>
       <c r="F58" t="n">
-        <v>0.5889566529532232</v>
+        <v>0.5910304996995316</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0007129811927033082</v>
+        <v>0.0007144395526304835</v>
       </c>
       <c r="H58" t="n">
-        <v>9.448</v>
+        <v>9.44</v>
       </c>
       <c r="I58" t="n">
-        <v>0.7493649449618967</v>
+        <v>0.75</v>
       </c>
       <c r="J58" t="n">
-        <v>4.078945977984759</v>
+        <v>4.076</v>
       </c>
       <c r="K58" t="n">
-        <v>4.905633802816902</v>
+        <v>4.902816901408451</v>
       </c>
       <c r="L58" t="n">
         <v>885</v>
       </c>
       <c r="M58" t="n">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="N58" t="n">
-        <v>1.89415749364945</v>
+        <v>1.895762711864407</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P58" t="n">
-        <v>4.905633802816902</v>
+        <v>4.902816901408451</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -3627,11 +3811,14 @@
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P59" t="n">
         <v>4.839913854989232</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -3681,11 +3868,14 @@
       </c>
       <c r="O60" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P60" t="n">
         <v>4.701502732240437</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -3735,11 +3925,14 @@
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P61" t="n">
         <v>4.561661759895323</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -3789,11 +3982,14 @@
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P62" t="n">
         <v>4.702970297029703</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -3808,8 +4004,10 @@
           <t>https://www.wired.com/story/amazon-prime-perks/</t>
         </is>
       </c>
-      <c r="D63" t="n">
-        <v>0</v>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Amazon Prime</t>
+        </is>
       </c>
       <c r="E63" t="n">
         <v>0</v>
@@ -3845,6 +4043,9 @@
         <v>0</v>
       </c>
       <c r="P63" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -3895,11 +4096,14 @@
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P64" t="n">
         <v>5.048529411764706</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="65">
@@ -3949,11 +4153,14 @@
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P65" t="n">
         <v>4.902946273830156</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -3968,8 +4175,10 @@
           <t>https://www.vox.com/recode/2019/5/3/18511544/amazon-prime-oral-history-jeff-bezos-one-day-shipping</t>
         </is>
       </c>
-      <c r="D66" t="n">
-        <v>0</v>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Amazon Prime</t>
+        </is>
       </c>
       <c r="E66" t="n">
         <v>0</v>
@@ -4005,6 +4214,9 @@
         <v>0</v>
       </c>
       <c r="P66" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q66" t="n">
         <v>0</v>
       </c>
     </row>
@@ -4055,11 +4267,14 @@
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P67" t="n">
         <v>4.366772517321016</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="68">
@@ -4109,11 +4324,14 @@
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P68" t="n">
         <v>5.165808444902162</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="69">
@@ -4129,45 +4347,48 @@
         </is>
       </c>
       <c r="D69" t="n">
-        <v>0.6294549951747972</v>
+        <v>0.6282061208875812</v>
       </c>
       <c r="E69" t="n">
-        <v>0.1540645875559397</v>
+        <v>0.1526636420112407</v>
       </c>
       <c r="F69" t="n">
-        <v>0.6067381104650863</v>
+        <v>0.6089917708949886</v>
       </c>
       <c r="G69" t="n">
-        <v>0.000490088378733294</v>
+        <v>0.0004544667612652857</v>
       </c>
       <c r="H69" t="n">
-        <v>9.828220858895705</v>
+        <v>10.5</v>
       </c>
       <c r="I69" t="n">
-        <v>0.7446941323345818</v>
+        <v>0.7537746806039489</v>
       </c>
       <c r="J69" t="n">
-        <v>4.229165996492115</v>
+        <v>4.50150987224158</v>
       </c>
       <c r="K69" t="n">
-        <v>4.954450625869263</v>
+        <v>5.024695423114916</v>
       </c>
       <c r="L69" t="n">
-        <v>1193</v>
+        <v>1298</v>
       </c>
       <c r="M69" t="n">
-        <v>1602</v>
+        <v>1722</v>
       </c>
       <c r="N69" t="n">
-        <v>1.930711610486891</v>
+        <v>1.925667828106852</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P69" t="n">
-        <v>4.954450625869263</v>
+        <v>5.024695423114916</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -4217,11 +4438,14 @@
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P70" t="n">
         <v>5.825140012445551</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -4271,11 +4495,14 @@
       </c>
       <c r="O71" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P71" t="n">
         <v>5.222222222222222</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="72">
@@ -4325,11 +4552,14 @@
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P72" t="n">
         <v>4.698394495412844</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="73">
@@ -4379,11 +4609,14 @@
       </c>
       <c r="O73" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P73" t="n">
         <v>4.721789883268483</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -4399,45 +4632,48 @@
         </is>
       </c>
       <c r="D74" t="n">
-        <v>0.627649469990592</v>
+        <v>0.627602589002795</v>
       </c>
       <c r="E74" t="n">
-        <v>0.1680815170444445</v>
+        <v>0.1681290384940289</v>
       </c>
       <c r="F74" t="n">
-        <v>0.5775428582837122</v>
+        <v>0.5774237574115121</v>
       </c>
       <c r="G74" t="n">
-        <v>0.0001744752533322513</v>
+        <v>0.000173985136412353</v>
       </c>
       <c r="H74" t="n">
-        <v>5.813688212927756</v>
+        <v>5.830164765525982</v>
       </c>
       <c r="I74" t="n">
-        <v>0.6596904294746021</v>
+        <v>0.6597826086956522</v>
       </c>
       <c r="J74" t="n">
-        <v>2.589351456960943</v>
+        <v>2.595978949688654</v>
       </c>
       <c r="K74" t="n">
-        <v>5.309634448574969</v>
+        <v>5.31082959987641</v>
       </c>
       <c r="L74" t="n">
-        <v>3026</v>
+        <v>3035</v>
       </c>
       <c r="M74" t="n">
-        <v>4587</v>
+        <v>4600</v>
       </c>
       <c r="N74" t="n">
-        <v>1.747547416612165</v>
+        <v>1.74804347826087</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>5.309634448574969</v>
+        <v>5.31082959987641</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -4487,11 +4723,14 @@
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P75" t="n">
         <v>4.928649237472767</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="76">
@@ -4541,11 +4780,14 @@
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P76" t="n">
         <v>5.011695906432749</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="77">
@@ -4595,11 +4837,14 @@
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P77" t="n">
         <v>4.747148288973384</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -4649,11 +4894,14 @@
       </c>
       <c r="O78" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P78" t="n">
         <v>5.304582210242588</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -4703,11 +4951,14 @@
       </c>
       <c r="O79" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P79" t="n">
         <v>4.900641025641026</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -4757,11 +5008,14 @@
       </c>
       <c r="O80" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P80" t="n">
         <v>5.770676691729324</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="81">
@@ -4811,11 +5065,14 @@
       </c>
       <c r="O81" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P81" t="n">
         <v>4.777777777777778</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -4865,11 +5122,14 @@
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P82" t="n">
         <v>4.876563803169308</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -4919,11 +5179,14 @@
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P83" t="n">
         <v>5.090492957746479</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -4973,11 +5236,14 @@
       </c>
       <c r="O84" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P84" t="n">
         <v>5.185140073081608</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="85">
@@ -5027,11 +5293,14 @@
       </c>
       <c r="O85" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P85" t="n">
         <v>4.822268326417704</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -5081,11 +5350,14 @@
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P86" t="n">
         <v>4.777635782747604</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="87">
@@ -5135,11 +5407,14 @@
       </c>
       <c r="O87" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P87" t="n">
         <v>4.846946564885497</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -5154,8 +5429,10 @@
           <t>https://www.inc.com/jason-aten/amazon-may-have-just-quietly-added-its-single-most-important-feature.html</t>
         </is>
       </c>
-      <c r="D88" t="n">
-        <v>0</v>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Amazon Prime</t>
+        </is>
       </c>
       <c r="E88" t="n">
         <v>0</v>
@@ -5191,6 +5468,9 @@
         <v>0</v>
       </c>
       <c r="P88" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q88" t="n">
         <v>0</v>
       </c>
     </row>
@@ -5241,11 +5521,14 @@
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P89" t="n">
         <v>5.30252460419341</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -5295,11 +5578,14 @@
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P90" t="n">
         <v>4.222222222222222</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -5349,11 +5635,14 @@
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P91" t="n">
         <v>5.507563025210084</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="92">
@@ -5369,45 +5658,48 @@
         </is>
       </c>
       <c r="D92" t="n">
-        <v>0.6579091995954514</v>
+        <v>0.644015833735466</v>
       </c>
       <c r="E92" t="n">
-        <v>0.1578232062359651</v>
+        <v>0.1638275049626827</v>
       </c>
       <c r="F92" t="n">
-        <v>0.6130525225146476</v>
+        <v>0.5944087344830419</v>
       </c>
       <c r="G92" t="n">
-        <v>0.1359564009719028</v>
+        <v>0.1346415564496914</v>
       </c>
       <c r="H92" t="n">
         <v>0.4615384615384616</v>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="J92" t="n">
-        <v>0.5846153846153846</v>
+        <v>0.517948717948718</v>
       </c>
       <c r="K92" t="n">
-        <v>28.83333333333333</v>
+        <v>27.83333333333333</v>
       </c>
       <c r="L92" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M92" t="n">
         <v>6</v>
       </c>
       <c r="N92" t="n">
-        <v>4.666666666666667</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P92" t="n">
-        <v>28.83333333333333</v>
+        <v>27.83333333333333</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -5457,11 +5749,14 @@
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P93" t="n">
         <v>4.782608695652174</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -5511,11 +5806,14 @@
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P94" t="n">
         <v>5.04791344667697</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -5565,11 +5863,14 @@
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P95" t="n">
         <v>4.744019138755981</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="96">
@@ -5585,16 +5886,16 @@
         </is>
       </c>
       <c r="D96" t="n">
-        <v>0.6805388927459717</v>
+        <v>0.6587589482466379</v>
       </c>
       <c r="E96" t="n">
-        <v>0.1289961586395899</v>
+        <v>0.1180027726416786</v>
       </c>
       <c r="F96" t="n">
-        <v>0.6813090337440455</v>
+        <v>0.6961683844928175</v>
       </c>
       <c r="G96" t="n">
-        <v>0.1349235085642603</v>
+        <v>0.1294612868147194</v>
       </c>
       <c r="H96" t="n">
         <v>0.4615384615384616</v>
@@ -5619,11 +5920,14 @@
       </c>
       <c r="O96" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P96" t="n">
         <v>28.33333333333333</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -5673,11 +5977,14 @@
       </c>
       <c r="O97" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P97" t="n">
         <v>4.681592039800995</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -5727,11 +6034,14 @@
       </c>
       <c r="O98" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P98" t="n">
         <v>5.171929824561404</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="99">
@@ -5781,11 +6091,14 @@
       </c>
       <c r="O99" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P99" t="n">
         <v>5.466019417475728</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -5835,11 +6148,14 @@
       </c>
       <c r="O100" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P100" t="n">
         <v>5.480885311871227</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -5889,11 +6205,14 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P101" t="n">
         <v>5.147887323943662</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="102">
@@ -5909,45 +6228,48 @@
         </is>
       </c>
       <c r="D102" t="n">
-        <v>0.6604721634870484</v>
+        <v>0.6672351239692598</v>
       </c>
       <c r="E102" t="n">
-        <v>0.1689356537702094</v>
+        <v>0.1620462782725337</v>
       </c>
       <c r="F102" t="n">
-        <v>0.5926364918407754</v>
+        <v>0.6091896835168989</v>
       </c>
       <c r="G102" t="n">
-        <v>0.001453553095021467</v>
+        <v>0.001473968742880628</v>
       </c>
       <c r="H102" t="n">
-        <v>12.14893617021277</v>
+        <v>11.97872340425532</v>
       </c>
       <c r="I102" t="n">
-        <v>0.8056042031523643</v>
+        <v>0.8099467140319716</v>
       </c>
       <c r="J102" t="n">
-        <v>5.181816149346052</v>
+        <v>5.115468047314916</v>
       </c>
       <c r="K102" t="n">
-        <v>5.274244004171011</v>
+        <v>5.302423603793467</v>
       </c>
       <c r="L102" t="n">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M102" t="n">
-        <v>571</v>
+        <v>563</v>
       </c>
       <c r="N102" t="n">
-        <v>2.236427320490368</v>
+        <v>2.261101243339254</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P102" t="n">
-        <v>5.274244004171011</v>
+        <v>5.302423603793467</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="103">
@@ -5963,45 +6285,48 @@
         </is>
       </c>
       <c r="D103" t="n">
-        <v>0.6603683742384115</v>
+        <v>0.6745798476040363</v>
       </c>
       <c r="E103" t="n">
-        <v>0.1612932004758881</v>
+        <v>0.1371128882197404</v>
       </c>
       <c r="F103" t="n">
-        <v>0.6073984847078094</v>
+        <v>0.6621566848587876</v>
       </c>
       <c r="G103" t="n">
-        <v>0.004171870937636039</v>
+        <v>0.004184983174349365</v>
       </c>
       <c r="H103" t="n">
-        <v>28.14285714285714</v>
+        <v>194</v>
       </c>
       <c r="I103" t="n">
-        <v>0.6903553299492385</v>
+        <v>0.6907216494845361</v>
       </c>
       <c r="J103" t="n">
-        <v>11.53328498912255</v>
+        <v>77.87628865979383</v>
       </c>
       <c r="K103" t="n">
-        <v>5.176470588235294</v>
+        <v>4.833976833976834</v>
       </c>
       <c r="L103" t="n">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="M103" t="n">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="N103" t="n">
-        <v>1.776649746192893</v>
+        <v>1.752577319587629</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P103" t="n">
-        <v>5.176470588235294</v>
+        <v>4.833976833976834</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="104">
@@ -6051,11 +6376,14 @@
       </c>
       <c r="O104" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P104" t="n">
         <v>5.3078125</v>
+      </c>
+      <c r="Q104" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="105">
@@ -6071,16 +6399,16 @@
         </is>
       </c>
       <c r="D105" t="n">
-        <v>0.6751993695894877</v>
+        <v>0.6892857054869334</v>
       </c>
       <c r="E105" t="n">
-        <v>0.1273443580915531</v>
+        <v>0.1203473322093487</v>
       </c>
       <c r="F105" t="n">
-        <v>0.6826491755467305</v>
+        <v>0.7027124097226487</v>
       </c>
       <c r="G105" t="n">
-        <v>0.1337582879468401</v>
+        <v>0.134939839616047</v>
       </c>
       <c r="H105" t="n">
         <v>0.4615384615384616</v>
@@ -6101,15 +6429,18 @@
         <v>6</v>
       </c>
       <c r="N105" t="n">
-        <v>3.666666666666667</v>
+        <v>3.833333333333333</v>
       </c>
       <c r="O105" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P105" t="n">
         <v>28.33333333333333</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="106">
@@ -6125,45 +6456,48 @@
         </is>
       </c>
       <c r="D106" t="n">
-        <v>0.6444828481239787</v>
+        <v>0.6448243968820168</v>
       </c>
       <c r="E106" t="n">
-        <v>0.1586863679842929</v>
+        <v>0.1587081529768342</v>
       </c>
       <c r="F106" t="n">
-        <v>0.6048504767934406</v>
+        <v>0.6049749291713499</v>
       </c>
       <c r="G106" t="n">
-        <v>0.003279241698401108</v>
+        <v>0.003349052291078546</v>
       </c>
       <c r="H106" t="n">
-        <v>61.25</v>
+        <v>60</v>
       </c>
       <c r="I106" t="n">
-        <v>0.726530612244898</v>
+        <v>0.7291666666666666</v>
       </c>
       <c r="J106" t="n">
-        <v>24.79061224489796</v>
+        <v>24.29166666666667</v>
       </c>
       <c r="K106" t="n">
-        <v>5.225626740947075</v>
+        <v>5.217765042979942</v>
       </c>
       <c r="L106" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M106" t="n">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="N106" t="n">
-        <v>1.906122448979592</v>
+        <v>1.9</v>
       </c>
       <c r="O106" t="inlineStr">
         <is>
-          <t>&lt;function pronouns at 0x7bd7dd8d3380&gt;</t>
+          <t>Unknown</t>
         </is>
       </c>
       <c r="P106" t="n">
-        <v>5.225626740947075</v>
+        <v>5.217765042979942</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="107">
@@ -6179,42 +6513,47 @@
         </is>
       </c>
       <c r="D107" t="n">
-        <v>0</v>
+        <v>0.662873342890164</v>
       </c>
       <c r="E107" t="n">
-        <v>0</v>
+        <v>0.1587732546914626</v>
       </c>
       <c r="F107" t="n">
-        <v>0</v>
+        <v>0.6135252203672871</v>
       </c>
       <c r="G107" t="n">
-        <v>0</v>
+        <v>0.001038432572704074</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>12.98360655737705</v>
       </c>
       <c r="I107" t="n">
-        <v>0</v>
+        <v>0.8042929292929293</v>
       </c>
       <c r="J107" t="n">
-        <v>0</v>
+        <v>5.515159794667992</v>
       </c>
       <c r="K107" t="n">
-        <v>0</v>
+        <v>5.373522458628842</v>
       </c>
       <c r="L107" t="n">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="M107" t="n">
-        <v>0</v>
+        <v>792</v>
       </c>
       <c r="N107" t="n">
-        <v>0</v>
-      </c>
-      <c r="O107" t="n">
-        <v>0</v>
+        <v>2.095959595959596</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P107" t="n">
+        <v>5.373522458628842</v>
+      </c>
+      <c r="Q107" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6231,42 +6570,47 @@
         </is>
       </c>
       <c r="D108" t="n">
-        <v>0</v>
+        <v>0.6255421106815338</v>
       </c>
       <c r="E108" t="n">
-        <v>0</v>
+        <v>0.1510792979877442</v>
       </c>
       <c r="F108" t="n">
-        <v>0</v>
+        <v>0.6109329256428562</v>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>0.002055553991188566</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>15.12</v>
       </c>
       <c r="I108" t="n">
-        <v>0</v>
+        <v>0.7592592592592593</v>
       </c>
       <c r="J108" t="n">
-        <v>0</v>
+        <v>6.351703703703704</v>
       </c>
       <c r="K108" t="n">
-        <v>0</v>
+        <v>5.233613445378151</v>
       </c>
       <c r="L108" t="n">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="M108" t="n">
-        <v>0</v>
+        <v>378</v>
       </c>
       <c r="N108" t="n">
-        <v>0</v>
-      </c>
-      <c r="O108" t="n">
-        <v>0</v>
+        <v>1.94973544973545</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P108" t="n">
+        <v>5.233613445378151</v>
+      </c>
+      <c r="Q108" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6283,42 +6627,47 @@
         </is>
       </c>
       <c r="D109" t="n">
-        <v>0</v>
+        <v>0.6878312329451243</v>
       </c>
       <c r="E109" t="n">
-        <v>0</v>
+        <v>0.1181268996248643</v>
       </c>
       <c r="F109" t="n">
-        <v>0</v>
+        <v>0.7068669156073316</v>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>0.1343273554283314</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>0.4615384615384616</v>
       </c>
       <c r="I109" t="n">
-        <v>0</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="J109" t="n">
-        <v>0</v>
+        <v>0.517948717948718</v>
       </c>
       <c r="K109" t="n">
-        <v>0</v>
+        <v>27.83333333333333</v>
       </c>
       <c r="L109" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="M109" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N109" t="n">
-        <v>0</v>
-      </c>
-      <c r="O109" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P109" t="n">
+        <v>27.83333333333333</v>
+      </c>
+      <c r="Q109" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6335,42 +6684,47 @@
         </is>
       </c>
       <c r="D110" t="n">
-        <v>0</v>
+        <v>0.6624844621967625</v>
       </c>
       <c r="E110" t="n">
-        <v>0</v>
+        <v>0.1398039321742348</v>
       </c>
       <c r="F110" t="n">
-        <v>0</v>
+        <v>0.6514880882961168</v>
       </c>
       <c r="G110" t="n">
-        <v>0</v>
+        <v>0.00405296158773231</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>10.42105263157895</v>
       </c>
       <c r="I110" t="n">
-        <v>0</v>
+        <v>0.8686868686868687</v>
       </c>
       <c r="J110" t="n">
-        <v>0</v>
+        <v>4.515895800106327</v>
       </c>
       <c r="K110" t="n">
-        <v>0</v>
+        <v>5.344262295081967</v>
       </c>
       <c r="L110" t="n">
-        <v>0</v>
+        <v>172</v>
       </c>
       <c r="M110" t="n">
-        <v>0</v>
+        <v>198</v>
       </c>
       <c r="N110" t="n">
-        <v>0</v>
-      </c>
-      <c r="O110" t="n">
-        <v>0</v>
+        <v>2.287878787878788</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P110" t="n">
+        <v>5.344262295081967</v>
+      </c>
+      <c r="Q110" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6387,42 +6741,47 @@
         </is>
       </c>
       <c r="D111" t="n">
-        <v>0</v>
+        <v>0.6283339387426774</v>
       </c>
       <c r="E111" t="n">
-        <v>0</v>
+        <v>0.1529119500766198</v>
       </c>
       <c r="F111" t="n">
-        <v>0</v>
+        <v>0.6085443478370893</v>
       </c>
       <c r="G111" t="n">
-        <v>0</v>
+        <v>0.0006346138595452532</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>12.58163265306122</v>
       </c>
       <c r="I111" t="n">
-        <v>0</v>
+        <v>0.6707218167072182</v>
       </c>
       <c r="J111" t="n">
-        <v>0</v>
+        <v>5.300941787907377</v>
       </c>
       <c r="K111" t="n">
-        <v>0</v>
+        <v>4.994905756495161</v>
       </c>
       <c r="L111" t="n">
-        <v>0</v>
+        <v>827</v>
       </c>
       <c r="M111" t="n">
-        <v>0</v>
+        <v>1233</v>
       </c>
       <c r="N111" t="n">
-        <v>0</v>
-      </c>
-      <c r="O111" t="n">
-        <v>0</v>
+        <v>1.775344687753447</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P111" t="n">
+        <v>4.994905756495161</v>
+      </c>
+      <c r="Q111" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6439,42 +6798,47 @@
         </is>
       </c>
       <c r="D112" t="n">
-        <v>0</v>
+        <v>0.6756725222138422</v>
       </c>
       <c r="E112" t="n">
-        <v>0</v>
+        <v>0.1356484534875822</v>
       </c>
       <c r="F112" t="n">
-        <v>0</v>
+        <v>0.6656118801567521</v>
       </c>
       <c r="G112" t="n">
-        <v>0</v>
+        <v>0.002512829646134441</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>13.45833333333333</v>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>0.8018575851393189</v>
       </c>
       <c r="J112" t="n">
-        <v>0</v>
+        <v>5.704076367389061</v>
       </c>
       <c r="K112" t="n">
-        <v>0</v>
+        <v>5.450292397660819</v>
       </c>
       <c r="L112" t="n">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="M112" t="n">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="N112" t="n">
-        <v>0</v>
-      </c>
-      <c r="O112" t="n">
-        <v>0</v>
+        <v>2.123839009287926</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P112" t="n">
+        <v>5.450292397660819</v>
+      </c>
+      <c r="Q112" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6491,42 +6855,47 @@
         </is>
       </c>
       <c r="D113" t="n">
-        <v>0</v>
+        <v>0.6362642496824265</v>
       </c>
       <c r="E113" t="n">
-        <v>0</v>
+        <v>0.2199003845453262</v>
       </c>
       <c r="F113" t="n">
-        <v>0</v>
+        <v>0.4863138520984215</v>
       </c>
       <c r="G113" t="n">
-        <v>0</v>
+        <v>0.01172928266065414</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>24.33333333333333</v>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>0.7808219178082192</v>
       </c>
       <c r="J113" t="n">
-        <v>0</v>
+        <v>10.04566210045662</v>
       </c>
       <c r="K113" t="n">
-        <v>0</v>
+        <v>5.588785046728972</v>
       </c>
       <c r="L113" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="M113" t="n">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="N113" t="n">
-        <v>0</v>
-      </c>
-      <c r="O113" t="n">
-        <v>0</v>
+        <v>2.095890410958904</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P113" t="n">
+        <v>5.588785046728972</v>
+      </c>
+      <c r="Q113" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6543,42 +6912,47 @@
         </is>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>0.6069109659641981</v>
       </c>
       <c r="E114" t="n">
-        <v>0</v>
+        <v>0.2333686201833189</v>
       </c>
       <c r="F114" t="n">
-        <v>0</v>
+        <v>0.4445463060373423</v>
       </c>
       <c r="G114" t="n">
-        <v>0</v>
+        <v>0.001827694752494602</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>16.42857142857143</v>
       </c>
       <c r="I114" t="n">
-        <v>0</v>
+        <v>0.8195652173913044</v>
       </c>
       <c r="J114" t="n">
-        <v>0</v>
+        <v>6.899254658385093</v>
       </c>
       <c r="K114" t="n">
-        <v>0</v>
+        <v>5.245773732119636</v>
       </c>
       <c r="L114" t="n">
-        <v>0</v>
+        <v>377</v>
       </c>
       <c r="M114" t="n">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="N114" t="n">
-        <v>0</v>
-      </c>
-      <c r="O114" t="n">
-        <v>0</v>
+        <v>2.182608695652174</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P114" t="n">
+        <v>5.245773732119636</v>
+      </c>
+      <c r="Q114" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6591,46 +6965,51 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>https://www.icicidirect.com/research/equity/blog/with-merger-consummated-jio-cinema-viacom18-seeking-to-create-ott-behemoth</t>
+          <t>https://techcrunch.com/2024/04/24/jiocinema-launches-35-cent-premium-tier-stepping-up-rivalry-with-netflix-and-prime-video/</t>
         </is>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>0.6516776241362094</v>
       </c>
       <c r="E115" t="n">
-        <v>0</v>
+        <v>0.1826072082389146</v>
       </c>
       <c r="F115" t="n">
-        <v>0</v>
+        <v>0.5622435312011236</v>
       </c>
       <c r="G115" t="n">
-        <v>0</v>
+        <v>0.002583925177631963</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>11.96296296296296</v>
       </c>
       <c r="I115" t="n">
-        <v>0</v>
+        <v>0.7956656346749226</v>
       </c>
       <c r="J115" t="n">
-        <v>0</v>
+        <v>5.103451439055155</v>
       </c>
       <c r="K115" t="n">
-        <v>0</v>
+        <v>5.257042253521127</v>
       </c>
       <c r="L115" t="n">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="M115" t="n">
-        <v>0</v>
+        <v>323</v>
       </c>
       <c r="N115" t="n">
-        <v>0</v>
-      </c>
-      <c r="O115" t="n">
-        <v>0</v>
+        <v>2.08359133126935</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P115" t="n">
+        <v>5.257042253521127</v>
+      </c>
+      <c r="Q115" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6647,42 +7026,47 @@
         </is>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>0.6656148107278914</v>
       </c>
       <c r="E116" t="n">
-        <v>0</v>
+        <v>0.1656665851894234</v>
       </c>
       <c r="F116" t="n">
-        <v>0</v>
+        <v>0.6014197590313839</v>
       </c>
       <c r="G116" t="n">
-        <v>0</v>
+        <v>0.001272072470821582</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>9.083333333333334</v>
       </c>
       <c r="I116" t="n">
-        <v>0</v>
+        <v>0.7767584097859327</v>
       </c>
       <c r="J116" t="n">
-        <v>0</v>
+        <v>3.944036697247707</v>
       </c>
       <c r="K116" t="n">
-        <v>0</v>
+        <v>5.268698060941828</v>
       </c>
       <c r="L116" t="n">
-        <v>0</v>
+        <v>508</v>
       </c>
       <c r="M116" t="n">
-        <v>0</v>
+        <v>654</v>
       </c>
       <c r="N116" t="n">
-        <v>0</v>
-      </c>
-      <c r="O116" t="n">
-        <v>0</v>
+        <v>2.154434250764526</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P116" t="n">
+        <v>5.268698060941828</v>
+      </c>
+      <c r="Q116" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6699,42 +7083,47 @@
         </is>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>0.6225794827351805</v>
       </c>
       <c r="E117" t="n">
-        <v>0</v>
+        <v>0.1459316830227121</v>
       </c>
       <c r="F117" t="n">
-        <v>0</v>
+        <v>0.6202233480284851</v>
       </c>
       <c r="G117" t="n">
-        <v>0</v>
+        <v>0.003342352894599533</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>17.69230769230769</v>
       </c>
       <c r="I117" t="n">
-        <v>0</v>
+        <v>0.8043478260869565</v>
       </c>
       <c r="J117" t="n">
-        <v>0</v>
+        <v>7.398662207357861</v>
       </c>
       <c r="K117" t="n">
-        <v>0</v>
+        <v>5.409742120343839</v>
       </c>
       <c r="L117" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="M117" t="n">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="N117" t="n">
-        <v>0</v>
-      </c>
-      <c r="O117" t="n">
-        <v>0</v>
+        <v>2.178260869565217</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P117" t="n">
+        <v>5.409742120343839</v>
+      </c>
+      <c r="Q117" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6750,8 +7139,10 @@
           <t>https://www.thehindubusinessline.com/news/variety/viacom18-completes-merger-of-jiocinema-and-voot-ott-platforms-majority-subscribers-transitioned/article67197460.ece</t>
         </is>
       </c>
-      <c r="D118" t="n">
-        <v>0</v>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>JioCinema</t>
+        </is>
       </c>
       <c r="E118" t="n">
         <v>0</v>
@@ -6787,6 +7178,9 @@
         <v>0</v>
       </c>
       <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6803,42 +7197,47 @@
         </is>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>0.7032471895217896</v>
       </c>
       <c r="E119" t="n">
-        <v>0</v>
+        <v>0.1336500253528357</v>
       </c>
       <c r="F119" t="n">
-        <v>0</v>
+        <v>0.6806068785298799</v>
       </c>
       <c r="G119" t="n">
-        <v>0</v>
+        <v>0.07608256498860229</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>3.666666666666667</v>
       </c>
       <c r="I119" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="J119" t="n">
-        <v>0</v>
+        <v>1.793939393939394</v>
       </c>
       <c r="K119" t="n">
-        <v>0</v>
+        <v>4.782608695652174</v>
       </c>
       <c r="L119" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="M119" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N119" t="n">
-        <v>0</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0</v>
+        <v>2.181818181818182</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P119" t="n">
+        <v>4.782608695652174</v>
+      </c>
+      <c r="Q119" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6855,42 +7254,47 @@
         </is>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>0.6435349509119987</v>
       </c>
       <c r="E120" t="n">
-        <v>0</v>
+        <v>0.1424620032776147</v>
       </c>
       <c r="F120" t="n">
-        <v>0</v>
+        <v>0.6375008592087489</v>
       </c>
       <c r="G120" t="n">
-        <v>0</v>
+        <v>0.02381908952089738</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I120" t="n">
-        <v>0</v>
+        <v>0.8181818181818182</v>
       </c>
       <c r="J120" t="n">
-        <v>0</v>
+        <v>13.52727272727273</v>
       </c>
       <c r="K120" t="n">
-        <v>0</v>
+        <v>7.163265306122449</v>
       </c>
       <c r="L120" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="M120" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N120" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0</v>
+        <v>2.727272727272727</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P120" t="n">
+        <v>7.163265306122449</v>
+      </c>
+      <c r="Q120" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6907,42 +7311,47 @@
         </is>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>0.648948098772602</v>
       </c>
       <c r="E121" t="n">
-        <v>0</v>
+        <v>0.1512860686213958</v>
       </c>
       <c r="F121" t="n">
-        <v>0</v>
+        <v>0.6218965031273749</v>
       </c>
       <c r="G121" t="n">
-        <v>0</v>
+        <v>0.0003466735064336924</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>15.96551724137931</v>
       </c>
       <c r="I121" t="n">
-        <v>0</v>
+        <v>0.7412526997840173</v>
       </c>
       <c r="J121" t="n">
-        <v>0</v>
+        <v>6.682707976465331</v>
       </c>
       <c r="K121" t="n">
-        <v>0</v>
+        <v>5.163301362948006</v>
       </c>
       <c r="L121" t="n">
-        <v>0</v>
+        <v>1716</v>
       </c>
       <c r="M121" t="n">
-        <v>0</v>
+        <v>2315</v>
       </c>
       <c r="N121" t="n">
-        <v>0</v>
-      </c>
-      <c r="O121" t="n">
-        <v>0</v>
+        <v>1.960259179265659</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P121" t="n">
+        <v>5.163301362948006</v>
+      </c>
+      <c r="Q121" t="n">
         <v>0</v>
       </c>
     </row>
@@ -6959,42 +7368,47 @@
         </is>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>0.6592153842960086</v>
       </c>
       <c r="E122" t="n">
-        <v>0</v>
+        <v>0.1334500115231744</v>
       </c>
       <c r="F122" t="n">
-        <v>0</v>
+        <v>0.663288908802276</v>
       </c>
       <c r="G122" t="n">
-        <v>0</v>
+        <v>0.01524456530421506</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I122" t="n">
-        <v>0</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="J122" t="n">
-        <v>0</v>
+        <v>2.892307692307693</v>
       </c>
       <c r="K122" t="n">
-        <v>0</v>
+        <v>5.04950495049505</v>
       </c>
       <c r="L122" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M122" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N122" t="n">
-        <v>0</v>
-      </c>
-      <c r="O122" t="n">
-        <v>0</v>
+        <v>1.826923076923077</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P122" t="n">
+        <v>5.04950495049505</v>
+      </c>
+      <c r="Q122" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7010,8 +7424,10 @@
           <t>https://www.afaqs.com/news/ott-streaming/jiocinema-announces-commentators-for-ipl-2024</t>
         </is>
       </c>
-      <c r="D123" t="n">
-        <v>0</v>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>JioCinema</t>
+        </is>
       </c>
       <c r="E123" t="n">
         <v>0</v>
@@ -7047,6 +7463,9 @@
         <v>0</v>
       </c>
       <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7063,42 +7482,47 @@
         </is>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>0.6613637932709285</v>
       </c>
       <c r="E124" t="n">
-        <v>0</v>
+        <v>0.1337066171690822</v>
       </c>
       <c r="F124" t="n">
-        <v>0</v>
+        <v>0.6636619401799124</v>
       </c>
       <c r="G124" t="n">
-        <v>0</v>
+        <v>0.01529081558538482</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="I124" t="n">
-        <v>0</v>
+        <v>0.7307692307692307</v>
       </c>
       <c r="J124" t="n">
-        <v>0</v>
+        <v>2.892307692307693</v>
       </c>
       <c r="K124" t="n">
-        <v>0</v>
+        <v>5.04950495049505</v>
       </c>
       <c r="L124" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M124" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N124" t="n">
-        <v>0</v>
-      </c>
-      <c r="O124" t="n">
-        <v>0</v>
+        <v>1.846153846153846</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P124" t="n">
+        <v>5.04950495049505</v>
+      </c>
+      <c r="Q124" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7115,42 +7539,47 @@
         </is>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>0.6258709744446808</v>
       </c>
       <c r="E125" t="n">
-        <v>0</v>
+        <v>0.1546502635400328</v>
       </c>
       <c r="F125" t="n">
-        <v>0</v>
+        <v>0.6037266745522109</v>
       </c>
       <c r="G125" t="n">
-        <v>0</v>
+        <v>0.002175153866252684</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>11.21875</v>
       </c>
       <c r="I125" t="n">
-        <v>0</v>
+        <v>0.6239554317548747</v>
       </c>
       <c r="J125" t="n">
-        <v>0</v>
+        <v>4.73708217270195</v>
       </c>
       <c r="K125" t="n">
-        <v>0</v>
+        <v>5.291311754684838</v>
       </c>
       <c r="L125" t="n">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="M125" t="n">
-        <v>0</v>
+        <v>359</v>
       </c>
       <c r="N125" t="n">
-        <v>0</v>
-      </c>
-      <c r="O125" t="n">
-        <v>0</v>
+        <v>1.913649025069638</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P125" t="n">
+        <v>5.291311754684838</v>
+      </c>
+      <c r="Q125" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7167,42 +7596,47 @@
         </is>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>0.6476584248878854</v>
       </c>
       <c r="E126" t="n">
-        <v>0</v>
+        <v>0.1558444821696847</v>
       </c>
       <c r="F126" t="n">
-        <v>0</v>
+        <v>0.6120883221470035</v>
       </c>
       <c r="G126" t="n">
-        <v>0</v>
+        <v>0.001216586848801165</v>
       </c>
       <c r="H126" t="n">
-        <v>0</v>
+        <v>9.309859154929578</v>
       </c>
       <c r="I126" t="n">
-        <v>0</v>
+        <v>0.800302571860817</v>
       </c>
       <c r="J126" t="n">
-        <v>0</v>
+        <v>4.044064690716158</v>
       </c>
       <c r="K126" t="n">
-        <v>0</v>
+        <v>4.864534336782691</v>
       </c>
       <c r="L126" t="n">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="M126" t="n">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="N126" t="n">
-        <v>0</v>
-      </c>
-      <c r="O126" t="n">
-        <v>0</v>
+        <v>2.02874432677761</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P126" t="n">
+        <v>4.864534336782691</v>
+      </c>
+      <c r="Q126" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7219,42 +7653,47 @@
         </is>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>0.6322172982128043</v>
       </c>
       <c r="E127" t="n">
-        <v>0</v>
+        <v>0.1967955233259617</v>
       </c>
       <c r="F127" t="n">
-        <v>0</v>
+        <v>0.5252302408199884</v>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>0.002078726369771343</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>9.975</v>
       </c>
       <c r="I127" t="n">
-        <v>0</v>
+        <v>0.5889724310776943</v>
       </c>
       <c r="J127" t="n">
-        <v>0</v>
+        <v>4.225588972431078</v>
       </c>
       <c r="K127" t="n">
-        <v>0</v>
+        <v>4.840245775729647</v>
       </c>
       <c r="L127" t="n">
-        <v>0</v>
+        <v>235</v>
       </c>
       <c r="M127" t="n">
-        <v>0</v>
+        <v>399</v>
       </c>
       <c r="N127" t="n">
-        <v>0</v>
-      </c>
-      <c r="O127" t="n">
-        <v>0</v>
+        <v>1.616541353383459</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P127" t="n">
+        <v>4.840245775729647</v>
+      </c>
+      <c r="Q127" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7270,8 +7709,10 @@
           <t>https://www.amazon.in/Reliance-Industries-Limited-JioCinema-Originals/product-reviews/B071KD377K</t>
         </is>
       </c>
-      <c r="D128" t="n">
-        <v>0</v>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>JioCinema</t>
+        </is>
       </c>
       <c r="E128" t="n">
         <v>0</v>
@@ -7307,6 +7748,9 @@
         <v>0</v>
       </c>
       <c r="P128" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q128" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7323,42 +7767,47 @@
         </is>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>0.6659790887266186</v>
       </c>
       <c r="E129" t="n">
-        <v>0</v>
+        <v>0.1588194125615959</v>
       </c>
       <c r="F129" t="n">
-        <v>0</v>
+        <v>0.6148901824765851</v>
       </c>
       <c r="G129" t="n">
-        <v>0</v>
+        <v>0.0004131931540670737</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>16.13709677419355</v>
       </c>
       <c r="I129" t="n">
-        <v>0</v>
+        <v>0.7531234382808596</v>
       </c>
       <c r="J129" t="n">
-        <v>0</v>
+        <v>6.756088084989763</v>
       </c>
       <c r="K129" t="n">
-        <v>0</v>
+        <v>5.228053733208372</v>
       </c>
       <c r="L129" t="n">
-        <v>0</v>
+        <v>1507</v>
       </c>
       <c r="M129" t="n">
-        <v>0</v>
+        <v>2001</v>
       </c>
       <c r="N129" t="n">
-        <v>0</v>
-      </c>
-      <c r="O129" t="n">
-        <v>0</v>
+        <v>1.983008495752124</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P129" t="n">
+        <v>5.228053733208372</v>
+      </c>
+      <c r="Q129" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7375,42 +7824,47 @@
         </is>
       </c>
       <c r="D130" t="n">
-        <v>0</v>
+        <v>0.640794628907157</v>
       </c>
       <c r="E130" t="n">
-        <v>0</v>
+        <v>0.18425254889197</v>
       </c>
       <c r="F130" t="n">
-        <v>0</v>
+        <v>0.5533536958216452</v>
       </c>
       <c r="G130" t="n">
-        <v>0</v>
+        <v>0.001767696312203698</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>14.15151515151515</v>
       </c>
       <c r="I130" t="n">
-        <v>0</v>
+        <v>0.7644539614561028</v>
       </c>
       <c r="J130" t="n">
-        <v>0</v>
+        <v>5.966387645188502</v>
       </c>
       <c r="K130" t="n">
-        <v>0</v>
+        <v>4.93072625698324</v>
       </c>
       <c r="L130" t="n">
-        <v>0</v>
+        <v>357</v>
       </c>
       <c r="M130" t="n">
-        <v>0</v>
+        <v>467</v>
       </c>
       <c r="N130" t="n">
-        <v>0</v>
-      </c>
-      <c r="O130" t="n">
-        <v>0</v>
+        <v>1.922912205567452</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P130" t="n">
+        <v>4.93072625698324</v>
+      </c>
+      <c r="Q130" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7427,42 +7881,47 @@
         </is>
       </c>
       <c r="D131" t="n">
-        <v>0</v>
+        <v>0.6459672765008041</v>
       </c>
       <c r="E131" t="n">
-        <v>0</v>
+        <v>0.1905199885368347</v>
       </c>
       <c r="F131" t="n">
-        <v>0</v>
+        <v>0.5444770571979252</v>
       </c>
       <c r="G131" t="n">
-        <v>0</v>
+        <v>0.001120795535525621</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>10.52112676056338</v>
       </c>
       <c r="I131" t="n">
-        <v>0</v>
+        <v>0.7630522088353414</v>
       </c>
       <c r="J131" t="n">
-        <v>0</v>
+        <v>4.513671587759489</v>
       </c>
       <c r="K131" t="n">
-        <v>0</v>
+        <v>5.302552552552553</v>
       </c>
       <c r="L131" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="M131" t="n">
-        <v>0</v>
+        <v>747</v>
       </c>
       <c r="N131" t="n">
-        <v>0</v>
-      </c>
-      <c r="O131" t="n">
-        <v>0</v>
+        <v>2.103078982597055</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P131" t="n">
+        <v>5.302552552552553</v>
+      </c>
+      <c r="Q131" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7479,42 +7938,47 @@
         </is>
       </c>
       <c r="D132" t="n">
-        <v>0</v>
+        <v>0.6848820779683455</v>
       </c>
       <c r="E132" t="n">
-        <v>0</v>
+        <v>0.147621482540414</v>
       </c>
       <c r="F132" t="n">
-        <v>0</v>
+        <v>0.6453563124741002</v>
       </c>
       <c r="G132" t="n">
-        <v>0</v>
+        <v>0.001258558248502658</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>94.57142857142857</v>
       </c>
       <c r="I132" t="n">
-        <v>0</v>
+        <v>0.8232628398791541</v>
       </c>
       <c r="J132" t="n">
-        <v>0</v>
+        <v>38.15787656452309</v>
       </c>
       <c r="K132" t="n">
-        <v>0</v>
+        <v>6.235537190082645</v>
       </c>
       <c r="L132" t="n">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="M132" t="n">
-        <v>0</v>
+        <v>662</v>
       </c>
       <c r="N132" t="n">
-        <v>0</v>
-      </c>
-      <c r="O132" t="n">
-        <v>0</v>
+        <v>2.206948640483384</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P132" t="n">
+        <v>6.235537190082645</v>
+      </c>
+      <c r="Q132" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7531,42 +7995,47 @@
         </is>
       </c>
       <c r="D133" t="n">
-        <v>0</v>
+        <v>0.62861078846104</v>
       </c>
       <c r="E133" t="n">
-        <v>0</v>
+        <v>0.2013656476731686</v>
       </c>
       <c r="F133" t="n">
-        <v>0</v>
+        <v>0.5147687960326878</v>
       </c>
       <c r="G133" t="n">
-        <v>0</v>
+        <v>0.002843385055254139</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>13.90476190476191</v>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>0.6952054794520548</v>
       </c>
       <c r="J133" t="n">
-        <v>0</v>
+        <v>5.839986953685584</v>
       </c>
       <c r="K133" t="n">
-        <v>0</v>
+        <v>4.86784140969163</v>
       </c>
       <c r="L133" t="n">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="M133" t="n">
-        <v>0</v>
+        <v>292</v>
       </c>
       <c r="N133" t="n">
-        <v>0</v>
-      </c>
-      <c r="O133" t="n">
-        <v>0</v>
+        <v>1.904109589041096</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P133" t="n">
+        <v>4.86784140969163</v>
+      </c>
+      <c r="Q133" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7583,42 +8052,47 @@
         </is>
       </c>
       <c r="D134" t="n">
-        <v>0</v>
+        <v>0.6473090591884795</v>
       </c>
       <c r="E134" t="n">
-        <v>0</v>
+        <v>0.1514693274650545</v>
       </c>
       <c r="F134" t="n">
-        <v>0</v>
+        <v>0.6207485565290838</v>
       </c>
       <c r="G134" t="n">
-        <v>0</v>
+        <v>0.001867304641713865</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>9.106382978723405</v>
       </c>
       <c r="I134" t="n">
-        <v>0</v>
+        <v>0.7453271028037384</v>
       </c>
       <c r="J134" t="n">
-        <v>0</v>
+        <v>3.940684032610857</v>
       </c>
       <c r="K134" t="n">
-        <v>0</v>
+        <v>5.049267643142477</v>
       </c>
       <c r="L134" t="n">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="M134" t="n">
-        <v>0</v>
+        <v>428</v>
       </c>
       <c r="N134" t="n">
-        <v>0</v>
-      </c>
-      <c r="O134" t="n">
-        <v>0</v>
+        <v>1.957943925233645</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P134" t="n">
+        <v>5.049267643142477</v>
+      </c>
+      <c r="Q134" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7635,42 +8109,47 @@
         </is>
       </c>
       <c r="D135" t="n">
-        <v>0</v>
+        <v>0.624184625968337</v>
       </c>
       <c r="E135" t="n">
-        <v>0</v>
+        <v>0.1647838074248284</v>
       </c>
       <c r="F135" t="n">
-        <v>0</v>
+        <v>0.5822813538130608</v>
       </c>
       <c r="G135" t="n">
-        <v>0</v>
+        <v>0.002127599550924974</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>12.36666666666667</v>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>0.8490566037735849</v>
       </c>
       <c r="J135" t="n">
-        <v>0</v>
+        <v>5.286289308176102</v>
       </c>
       <c r="K135" t="n">
-        <v>0</v>
+        <v>5.135464231354642</v>
       </c>
       <c r="L135" t="n">
-        <v>0</v>
+        <v>315</v>
       </c>
       <c r="M135" t="n">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="N135" t="n">
-        <v>0</v>
-      </c>
-      <c r="O135" t="n">
-        <v>0</v>
+        <v>2.202156334231806</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P135" t="n">
+        <v>5.135464231354642</v>
+      </c>
+      <c r="Q135" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7687,42 +8166,47 @@
         </is>
       </c>
       <c r="D136" t="n">
-        <v>0</v>
+        <v>0.6375857541958491</v>
       </c>
       <c r="E136" t="n">
-        <v>0</v>
+        <v>0.1620526319731855</v>
       </c>
       <c r="F136" t="n">
-        <v>0</v>
+        <v>0.594686210774938</v>
       </c>
       <c r="G136" t="n">
-        <v>0</v>
+        <v>0.001342675144578917</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>15.68421052631579</v>
       </c>
       <c r="I136" t="n">
-        <v>0</v>
+        <v>0.7919463087248322</v>
       </c>
       <c r="J136" t="n">
-        <v>0</v>
+        <v>6.590462734016249</v>
       </c>
       <c r="K136" t="n">
-        <v>0</v>
+        <v>5.151603498542274</v>
       </c>
       <c r="L136" t="n">
-        <v>0</v>
+        <v>472</v>
       </c>
       <c r="M136" t="n">
-        <v>0</v>
+        <v>596</v>
       </c>
       <c r="N136" t="n">
-        <v>0</v>
-      </c>
-      <c r="O136" t="n">
-        <v>0</v>
+        <v>2.028523489932886</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P136" t="n">
+        <v>5.151603498542274</v>
+      </c>
+      <c r="Q136" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7739,42 +8223,47 @@
         </is>
       </c>
       <c r="D137" t="n">
-        <v>0</v>
+        <v>0.6355330684083573</v>
       </c>
       <c r="E137" t="n">
-        <v>0</v>
+        <v>0.1679777122360278</v>
       </c>
       <c r="F137" t="n">
-        <v>0</v>
+        <v>0.5818915824727927</v>
       </c>
       <c r="G137" t="n">
-        <v>0</v>
+        <v>0.001438407478791386</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>13.63414634146342</v>
       </c>
       <c r="I137" t="n">
-        <v>0</v>
+        <v>0.6726296958855098</v>
       </c>
       <c r="J137" t="n">
-        <v>0</v>
+        <v>5.72271041493957</v>
       </c>
       <c r="K137" t="n">
-        <v>0</v>
+        <v>4.794016110471807</v>
       </c>
       <c r="L137" t="n">
-        <v>0</v>
+        <v>376</v>
       </c>
       <c r="M137" t="n">
-        <v>0</v>
+        <v>559</v>
       </c>
       <c r="N137" t="n">
-        <v>0</v>
-      </c>
-      <c r="O137" t="n">
-        <v>0</v>
+        <v>1.806797853309481</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P137" t="n">
+        <v>4.794016110471807</v>
+      </c>
+      <c r="Q137" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7790,8 +8279,10 @@
           <t>https://www.exchange4media.com/marketing-initiative-news/jiocinema-to-revolutionize-ipl-2023-viewing-with-unmatched-coverage-innovative-features-125447.html</t>
         </is>
       </c>
-      <c r="D138" t="n">
-        <v>0</v>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>JioCinema</t>
+        </is>
       </c>
       <c r="E138" t="n">
         <v>0</v>
@@ -7827,6 +8318,9 @@
         <v>0</v>
       </c>
       <c r="P138" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q138" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7843,42 +8337,47 @@
         </is>
       </c>
       <c r="D139" t="n">
-        <v>0</v>
+        <v>0.6747036585193908</v>
       </c>
       <c r="E139" t="n">
-        <v>0</v>
+        <v>0.1686623963376808</v>
       </c>
       <c r="F139" t="n">
-        <v>0</v>
+        <v>0.6000266463576434</v>
       </c>
       <c r="G139" t="n">
-        <v>0</v>
+        <v>0.0006103685367464391</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>11.82905982905983</v>
       </c>
       <c r="I139" t="n">
-        <v>0</v>
+        <v>0.7579479768786127</v>
       </c>
       <c r="J139" t="n">
-        <v>0</v>
+        <v>5.034803122375378</v>
       </c>
       <c r="K139" t="n">
-        <v>0</v>
+        <v>5.140996856757971</v>
       </c>
       <c r="L139" t="n">
-        <v>0</v>
+        <v>1049</v>
       </c>
       <c r="M139" t="n">
-        <v>0</v>
+        <v>1384</v>
       </c>
       <c r="N139" t="n">
-        <v>0</v>
-      </c>
-      <c r="O139" t="n">
-        <v>0</v>
+        <v>1.850433526011561</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P139" t="n">
+        <v>5.140996856757971</v>
+      </c>
+      <c r="Q139" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7895,42 +8394,47 @@
         </is>
       </c>
       <c r="D140" t="n">
-        <v>0</v>
+        <v>0.6828849850584278</v>
       </c>
       <c r="E140" t="n">
-        <v>0</v>
+        <v>0.1561879399534074</v>
       </c>
       <c r="F140" t="n">
-        <v>0</v>
+        <v>0.627714074042511</v>
       </c>
       <c r="G140" t="n">
-        <v>0</v>
+        <v>0.001150414965769637</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>20.85714285714286</v>
       </c>
       <c r="I140" t="n">
-        <v>0</v>
+        <v>0.6972602739726027</v>
       </c>
       <c r="J140" t="n">
-        <v>0</v>
+        <v>8.621761252446184</v>
       </c>
       <c r="K140" t="n">
-        <v>0</v>
+        <v>5.133086876155268</v>
       </c>
       <c r="L140" t="n">
-        <v>0</v>
+        <v>509</v>
       </c>
       <c r="M140" t="n">
-        <v>0</v>
+        <v>730</v>
       </c>
       <c r="N140" t="n">
-        <v>0</v>
-      </c>
-      <c r="O140" t="n">
-        <v>0</v>
+        <v>1.772602739726027</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P140" t="n">
+        <v>5.133086876155268</v>
+      </c>
+      <c r="Q140" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7947,42 +8451,47 @@
         </is>
       </c>
       <c r="D141" t="n">
-        <v>0</v>
+        <v>0.6681670272036603</v>
       </c>
       <c r="E141" t="n">
-        <v>0</v>
+        <v>0.1738622574821899</v>
       </c>
       <c r="F141" t="n">
-        <v>0</v>
+        <v>0.5870408793860108</v>
       </c>
       <c r="G141" t="n">
-        <v>0</v>
+        <v>0.002779974536916997</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>13.17391304347826</v>
       </c>
       <c r="I141" t="n">
-        <v>0</v>
+        <v>0.8382838283828383</v>
       </c>
       <c r="J141" t="n">
-        <v>0</v>
+        <v>5.60487874874444</v>
       </c>
       <c r="K141" t="n">
-        <v>0</v>
+        <v>5.054474708171206</v>
       </c>
       <c r="L141" t="n">
-        <v>0</v>
+        <v>254</v>
       </c>
       <c r="M141" t="n">
-        <v>0</v>
+        <v>303</v>
       </c>
       <c r="N141" t="n">
-        <v>0</v>
-      </c>
-      <c r="O141" t="n">
-        <v>0</v>
+        <v>2.026402640264026</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P141" t="n">
+        <v>5.054474708171206</v>
+      </c>
+      <c r="Q141" t="n">
         <v>0</v>
       </c>
     </row>
@@ -7999,42 +8508,47 @@
         </is>
       </c>
       <c r="D142" t="n">
-        <v>0</v>
+        <v>0.66408729194491</v>
       </c>
       <c r="E142" t="n">
-        <v>0</v>
+        <v>0.1757343718092199</v>
       </c>
       <c r="F142" t="n">
-        <v>0</v>
+        <v>0.5814969785065304</v>
       </c>
       <c r="G142" t="n">
-        <v>0</v>
+        <v>0.002295594709710737</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>10.76470588235294</v>
       </c>
       <c r="I142" t="n">
-        <v>0</v>
+        <v>0.7896174863387978</v>
       </c>
       <c r="J142" t="n">
-        <v>0</v>
+        <v>4.621729347476697</v>
       </c>
       <c r="K142" t="n">
-        <v>0</v>
+        <v>5.388704318936878</v>
       </c>
       <c r="L142" t="n">
-        <v>0</v>
+        <v>289</v>
       </c>
       <c r="M142" t="n">
-        <v>0</v>
+        <v>366</v>
       </c>
       <c r="N142" t="n">
-        <v>0</v>
-      </c>
-      <c r="O142" t="n">
-        <v>0</v>
+        <v>1.961748633879781</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P142" t="n">
+        <v>5.388704318936878</v>
+      </c>
+      <c r="Q142" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8051,42 +8565,47 @@
         </is>
       </c>
       <c r="D143" t="n">
-        <v>0</v>
+        <v>0.6674833297729492</v>
       </c>
       <c r="E143" t="n">
-        <v>0</v>
+        <v>0.1591936356388032</v>
       </c>
       <c r="F143" t="n">
-        <v>0</v>
+        <v>0.6148599054746146</v>
       </c>
       <c r="G143" t="n">
-        <v>0</v>
+        <v>0.003503868497507426</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>10.26086956521739</v>
       </c>
       <c r="I143" t="n">
-        <v>0</v>
+        <v>0.7838983050847458</v>
       </c>
       <c r="J143" t="n">
-        <v>0</v>
+        <v>4.417907148120855</v>
       </c>
       <c r="K143" t="n">
-        <v>0</v>
+        <v>5.10594315245478</v>
       </c>
       <c r="L143" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="M143" t="n">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="N143" t="n">
-        <v>0</v>
-      </c>
-      <c r="O143" t="n">
-        <v>0</v>
+        <v>1.834745762711864</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P143" t="n">
+        <v>5.10594315245478</v>
+      </c>
+      <c r="Q143" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8103,42 +8622,47 @@
         </is>
       </c>
       <c r="D144" t="n">
-        <v>0</v>
+        <v>0.6228646057493546</v>
       </c>
       <c r="E144" t="n">
-        <v>0</v>
+        <v>0.1798315437181908</v>
       </c>
       <c r="F144" t="n">
-        <v>0</v>
+        <v>0.5519322162205366</v>
       </c>
       <c r="G144" t="n">
-        <v>0</v>
+        <v>0.003186302180426768</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>10.08</v>
       </c>
       <c r="I144" t="n">
-        <v>0</v>
+        <v>0.7817460317460317</v>
       </c>
       <c r="J144" t="n">
-        <v>0</v>
+        <v>4.344698412698413</v>
       </c>
       <c r="K144" t="n">
-        <v>0</v>
+        <v>5.36027713625866</v>
       </c>
       <c r="L144" t="n">
-        <v>0</v>
+        <v>197</v>
       </c>
       <c r="M144" t="n">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="N144" t="n">
-        <v>0</v>
-      </c>
-      <c r="O144" t="n">
-        <v>0</v>
+        <v>2.027777777777778</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P144" t="n">
+        <v>5.36027713625866</v>
+      </c>
+      <c r="Q144" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8155,42 +8679,47 @@
         </is>
       </c>
       <c r="D145" t="n">
-        <v>0</v>
+        <v>0.6185943534970284</v>
       </c>
       <c r="E145" t="n">
-        <v>0</v>
+        <v>0.1830124074593186</v>
       </c>
       <c r="F145" t="n">
-        <v>0</v>
+        <v>0.5433870681489813</v>
       </c>
       <c r="G145" t="n">
-        <v>0</v>
+        <v>0.01054845738100457</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="I145" t="n">
-        <v>0</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="J145" t="n">
-        <v>0</v>
+        <v>7.894736842105264</v>
       </c>
       <c r="K145" t="n">
-        <v>0</v>
+        <v>5.61864406779661</v>
       </c>
       <c r="L145" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="M145" t="n">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="N145" t="n">
-        <v>0</v>
-      </c>
-      <c r="O145" t="n">
-        <v>0</v>
+        <v>2.197368421052631</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P145" t="n">
+        <v>5.61864406779661</v>
+      </c>
+      <c r="Q145" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8207,42 +8736,47 @@
         </is>
       </c>
       <c r="D146" t="n">
-        <v>0</v>
+        <v>0.6689563568149294</v>
       </c>
       <c r="E146" t="n">
-        <v>0</v>
+        <v>0.1393204021134547</v>
       </c>
       <c r="F146" t="n">
-        <v>0</v>
+        <v>0.6552665991292733</v>
       </c>
       <c r="G146" t="n">
-        <v>0</v>
+        <v>0.003062654389880243</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>7.764705882352941</v>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>0.7234848484848485</v>
       </c>
       <c r="J146" t="n">
-        <v>0</v>
+        <v>3.395276292335116</v>
       </c>
       <c r="K146" t="n">
-        <v>0</v>
+        <v>5.212410501193317</v>
       </c>
       <c r="L146" t="n">
-        <v>0</v>
+        <v>191</v>
       </c>
       <c r="M146" t="n">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="N146" t="n">
-        <v>0</v>
-      </c>
-      <c r="O146" t="n">
-        <v>0</v>
+        <v>1.852272727272727</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P146" t="n">
+        <v>5.212410501193317</v>
+      </c>
+      <c r="Q146" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8259,42 +8793,47 @@
         </is>
       </c>
       <c r="D147" t="n">
-        <v>0</v>
+        <v>0.6679656898433511</v>
       </c>
       <c r="E147" t="n">
-        <v>0</v>
+        <v>0.1556934442064217</v>
       </c>
       <c r="F147" t="n">
-        <v>0</v>
+        <v>0.6219479006774511</v>
       </c>
       <c r="G147" t="n">
-        <v>0</v>
+        <v>0.003904597791705085</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>17.58333333333333</v>
       </c>
       <c r="I147" t="n">
-        <v>0</v>
+        <v>0.7061611374407583</v>
       </c>
       <c r="J147" t="n">
-        <v>0</v>
+        <v>7.315797788309637</v>
       </c>
       <c r="K147" t="n">
-        <v>0</v>
+        <v>4.99074074074074</v>
       </c>
       <c r="L147" t="n">
-        <v>0</v>
+        <v>149</v>
       </c>
       <c r="M147" t="n">
-        <v>0</v>
+        <v>211</v>
       </c>
       <c r="N147" t="n">
-        <v>0</v>
-      </c>
-      <c r="O147" t="n">
-        <v>0</v>
+        <v>1.853080568720379</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P147" t="n">
+        <v>4.99074074074074</v>
+      </c>
+      <c r="Q147" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8311,42 +8850,47 @@
         </is>
       </c>
       <c r="D148" t="n">
-        <v>0</v>
+        <v>0.6248528994619846</v>
       </c>
       <c r="E148" t="n">
-        <v>0</v>
+        <v>0.1493209151085466</v>
       </c>
       <c r="F148" t="n">
-        <v>0</v>
+        <v>0.6142454699156311</v>
       </c>
       <c r="G148" t="n">
-        <v>0</v>
+        <v>0.05161258763803542</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="I148" t="n">
-        <v>0</v>
+        <v>0.7333333333333333</v>
       </c>
       <c r="J148" t="n">
-        <v>0</v>
+        <v>6.293333333333333</v>
       </c>
       <c r="K148" t="n">
-        <v>0</v>
+        <v>5.3</v>
       </c>
       <c r="L148" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="M148" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N148" t="n">
-        <v>0</v>
-      </c>
-      <c r="O148" t="n">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P148" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="Q148" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8363,42 +8907,47 @@
         </is>
       </c>
       <c r="D149" t="n">
-        <v>0</v>
+        <v>0.6589001065327061</v>
       </c>
       <c r="E149" t="n">
-        <v>0</v>
+        <v>0.1387704239761526</v>
       </c>
       <c r="F149" t="n">
-        <v>0</v>
+        <v>0.6520617978644351</v>
       </c>
       <c r="G149" t="n">
-        <v>0</v>
+        <v>0.002089142750023191</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>9.794871794871796</v>
       </c>
       <c r="I149" t="n">
-        <v>0</v>
+        <v>0.7827225130890052</v>
       </c>
       <c r="J149" t="n">
-        <v>0</v>
+        <v>4.231037723184321</v>
       </c>
       <c r="K149" t="n">
-        <v>0</v>
+        <v>5.094117647058823</v>
       </c>
       <c r="L149" t="n">
-        <v>0</v>
+        <v>299</v>
       </c>
       <c r="M149" t="n">
-        <v>0</v>
+        <v>382</v>
       </c>
       <c r="N149" t="n">
-        <v>0</v>
-      </c>
-      <c r="O149" t="n">
-        <v>0</v>
+        <v>1.845549738219895</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P149" t="n">
+        <v>5.094117647058823</v>
+      </c>
+      <c r="Q149" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8411,46 +8960,51 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>https://m.imdb.com/title/tt27898516/news/?ref_=tt_nwr_sm</t>
+          <t>https://books.google.co.in/books?id=Zav4EAAAQBAJ&amp;pg=PA276&amp;lpg=PA276&amp;dq=articles+on+jiocinema&amp;source=bl&amp;ots=j9s1lBTl06&amp;sig=ACfU3U04RO2TPBRzIywgFTfHflvZt96BzA&amp;hl=en&amp;sa=X&amp;ved=2ahUKEwiR2eaZgIiGAxVKwjgGHa4jAzI4MhDoAXoECAIQAw</t>
         </is>
       </c>
       <c r="D150" t="n">
-        <v>0</v>
+        <v>0.6425661712884903</v>
       </c>
       <c r="E150" t="n">
-        <v>0</v>
+        <v>0.1959925985895097</v>
       </c>
       <c r="F150" t="n">
-        <v>0</v>
+        <v>0.5325499264919995</v>
       </c>
       <c r="G150" t="n">
-        <v>0</v>
+        <v>0.004091530584770731</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>13.66666666666667</v>
       </c>
       <c r="I150" t="n">
-        <v>0</v>
+        <v>0.8341463414634146</v>
       </c>
       <c r="J150" t="n">
-        <v>0</v>
+        <v>5.800325203252033</v>
       </c>
       <c r="K150" t="n">
-        <v>0</v>
+        <v>5.262857142857142</v>
       </c>
       <c r="L150" t="n">
-        <v>0</v>
+        <v>171</v>
       </c>
       <c r="M150" t="n">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="N150" t="n">
-        <v>0</v>
-      </c>
-      <c r="O150" t="n">
-        <v>0</v>
+        <v>2.034146341463415</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P150" t="n">
+        <v>5.262857142857142</v>
+      </c>
+      <c r="Q150" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8467,42 +9021,47 @@
         </is>
       </c>
       <c r="D151" t="n">
-        <v>0</v>
+        <v>0.6293906333545843</v>
       </c>
       <c r="E151" t="n">
-        <v>0</v>
+        <v>0.2037931160690884</v>
       </c>
       <c r="F151" t="n">
-        <v>0</v>
+        <v>0.5108097112595379</v>
       </c>
       <c r="G151" t="n">
-        <v>0</v>
+        <v>0.001975369074463679</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>12.05714285714286</v>
       </c>
       <c r="I151" t="n">
-        <v>0</v>
+        <v>0.7938388625592417</v>
       </c>
       <c r="J151" t="n">
-        <v>0</v>
+        <v>5.14039268788084</v>
       </c>
       <c r="K151" t="n">
-        <v>0</v>
+        <v>5.235910878112713</v>
       </c>
       <c r="L151" t="n">
-        <v>0</v>
+        <v>335</v>
       </c>
       <c r="M151" t="n">
-        <v>0</v>
+        <v>422</v>
       </c>
       <c r="N151" t="n">
-        <v>0</v>
-      </c>
-      <c r="O151" t="n">
-        <v>0</v>
+        <v>1.92654028436019</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P151" t="n">
+        <v>5.235910878112713</v>
+      </c>
+      <c r="Q151" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8519,42 +9078,47 @@
         </is>
       </c>
       <c r="D152" t="n">
-        <v>0</v>
+        <v>0.6542687501059845</v>
       </c>
       <c r="E152" t="n">
-        <v>0</v>
+        <v>0.1594757403072435</v>
       </c>
       <c r="F152" t="n">
-        <v>0</v>
+        <v>0.6080456818724141</v>
       </c>
       <c r="G152" t="n">
-        <v>0</v>
+        <v>0.0008468882436727942</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>10.34408602150538</v>
       </c>
       <c r="I152" t="n">
-        <v>0</v>
+        <v>0.7920997920997921</v>
       </c>
       <c r="J152" t="n">
-        <v>0</v>
+        <v>4.454474325442067</v>
       </c>
       <c r="K152" t="n">
-        <v>0</v>
+        <v>4.912224017232095</v>
       </c>
       <c r="L152" t="n">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="M152" t="n">
-        <v>0</v>
+        <v>962</v>
       </c>
       <c r="N152" t="n">
-        <v>0</v>
-      </c>
-      <c r="O152" t="n">
-        <v>0</v>
+        <v>1.977130977130977</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P152" t="n">
+        <v>4.912224017232095</v>
+      </c>
+      <c r="Q152" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8571,42 +9135,47 @@
         </is>
       </c>
       <c r="D153" t="n">
-        <v>0</v>
+        <v>0.5942666754126549</v>
       </c>
       <c r="E153" t="n">
-        <v>0</v>
+        <v>0.1577803015708923</v>
       </c>
       <c r="F153" t="n">
-        <v>0</v>
+        <v>0.5803987506731095</v>
       </c>
       <c r="G153" t="n">
-        <v>0</v>
+        <v>0.01474701915654014</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="I153" t="n">
-        <v>0</v>
+        <v>0.7450980392156863</v>
       </c>
       <c r="J153" t="n">
-        <v>0</v>
+        <v>5.398039215686275</v>
       </c>
       <c r="K153" t="n">
-        <v>0</v>
+        <v>5.25531914893617</v>
       </c>
       <c r="L153" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="M153" t="n">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="N153" t="n">
-        <v>0</v>
-      </c>
-      <c r="O153" t="n">
-        <v>0</v>
+        <v>2.019607843137255</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P153" t="n">
+        <v>5.25531914893617</v>
+      </c>
+      <c r="Q153" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8623,42 +9192,47 @@
         </is>
       </c>
       <c r="D154" t="n">
-        <v>0</v>
+        <v>0.6862493284322597</v>
       </c>
       <c r="E154" t="n">
-        <v>0</v>
+        <v>0.1421819159209176</v>
       </c>
       <c r="F154" t="n">
-        <v>0</v>
+        <v>0.6567451972038839</v>
       </c>
       <c r="G154" t="n">
-        <v>0</v>
+        <v>0.001194704963044924</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>13.6078431372549</v>
       </c>
       <c r="I154" t="n">
-        <v>0</v>
+        <v>0.840057636887608</v>
       </c>
       <c r="J154" t="n">
-        <v>0</v>
+        <v>5.779160309657004</v>
       </c>
       <c r="K154" t="n">
-        <v>0</v>
+        <v>5.563903281519861</v>
       </c>
       <c r="L154" t="n">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="M154" t="n">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="N154" t="n">
-        <v>0</v>
-      </c>
-      <c r="O154" t="n">
-        <v>0</v>
+        <v>2.099423631123919</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P154" t="n">
+        <v>5.563903281519861</v>
+      </c>
+      <c r="Q154" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8674,8 +9248,10 @@
           <t>https://apnews.com/article/disney-hulu-401cb68495d3c8d7edc1143a556e3f01</t>
         </is>
       </c>
-      <c r="D155" t="n">
-        <v>0</v>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Hulu</t>
+        </is>
       </c>
       <c r="E155" t="n">
         <v>0</v>
@@ -8711,6 +9287,9 @@
         <v>0</v>
       </c>
       <c r="P155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q155" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8727,42 +9306,47 @@
         </is>
       </c>
       <c r="D156" t="n">
-        <v>0</v>
+        <v>0.6545923705454226</v>
       </c>
       <c r="E156" t="n">
-        <v>0</v>
+        <v>0.1619039485748443</v>
       </c>
       <c r="F156" t="n">
-        <v>0</v>
+        <v>0.6034188114867987</v>
       </c>
       <c r="G156" t="n">
-        <v>0</v>
+        <v>0.001451259891865483</v>
       </c>
       <c r="H156" t="n">
-        <v>0</v>
+        <v>5.926315789473684</v>
       </c>
       <c r="I156" t="n">
-        <v>0</v>
+        <v>0.7140319715808171</v>
       </c>
       <c r="J156" t="n">
-        <v>0</v>
+        <v>2.656139104421801</v>
       </c>
       <c r="K156" t="n">
-        <v>0</v>
+        <v>5.07360157016683</v>
       </c>
       <c r="L156" t="n">
-        <v>0</v>
+        <v>402</v>
       </c>
       <c r="M156" t="n">
-        <v>0</v>
+        <v>563</v>
       </c>
       <c r="N156" t="n">
-        <v>0</v>
-      </c>
-      <c r="O156" t="n">
-        <v>0</v>
+        <v>1.893428063943162</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P156" t="n">
+        <v>5.07360157016683</v>
+      </c>
+      <c r="Q156" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8779,42 +9363,47 @@
         </is>
       </c>
       <c r="D157" t="n">
-        <v>0</v>
+        <v>0.6175712287471986</v>
       </c>
       <c r="E157" t="n">
-        <v>0</v>
+        <v>0.1426640527838852</v>
       </c>
       <c r="F157" t="n">
-        <v>0</v>
+        <v>0.6246854726896508</v>
       </c>
       <c r="G157" t="n">
-        <v>0</v>
+        <v>0.001077820512083688</v>
       </c>
       <c r="H157" t="n">
-        <v>0</v>
+        <v>11.03125</v>
       </c>
       <c r="I157" t="n">
-        <v>0</v>
+        <v>0.8073654390934845</v>
       </c>
       <c r="J157" t="n">
-        <v>0</v>
+        <v>4.735446175637394</v>
       </c>
       <c r="K157" t="n">
-        <v>0</v>
+        <v>4.972419227738377</v>
       </c>
       <c r="L157" t="n">
-        <v>0</v>
+        <v>570</v>
       </c>
       <c r="M157" t="n">
-        <v>0</v>
+        <v>706</v>
       </c>
       <c r="N157" t="n">
-        <v>0</v>
-      </c>
-      <c r="O157" t="n">
-        <v>0</v>
+        <v>1.973087818696884</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P157" t="n">
+        <v>4.972419227738377</v>
+      </c>
+      <c r="Q157" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8831,42 +9420,47 @@
         </is>
       </c>
       <c r="D158" t="n">
-        <v>0</v>
+        <v>0.691245923191309</v>
       </c>
       <c r="E158" t="n">
-        <v>0</v>
+        <v>0.1426443805918098</v>
       </c>
       <c r="F158" t="n">
-        <v>0</v>
+        <v>0.6578831460216685</v>
       </c>
       <c r="G158" t="n">
-        <v>0</v>
+        <v>0.003258383999152807</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>11.1304347826087</v>
       </c>
       <c r="I158" t="n">
-        <v>0</v>
+        <v>0.81640625</v>
       </c>
       <c r="J158" t="n">
-        <v>0</v>
+        <v>4.778736413043478</v>
       </c>
       <c r="K158" t="n">
-        <v>0</v>
+        <v>5.394919168591224</v>
       </c>
       <c r="L158" t="n">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="M158" t="n">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="N158" t="n">
-        <v>0</v>
-      </c>
-      <c r="O158" t="n">
-        <v>0</v>
+        <v>1.96875</v>
+      </c>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P158" t="n">
+        <v>5.394919168591224</v>
+      </c>
+      <c r="Q158" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8883,42 +9477,47 @@
         </is>
       </c>
       <c r="D159" t="n">
-        <v>0</v>
+        <v>0.6660727569606246</v>
       </c>
       <c r="E159" t="n">
-        <v>0</v>
+        <v>0.1563879192931714</v>
       </c>
       <c r="F159" t="n">
-        <v>0</v>
+        <v>0.6197082424045888</v>
       </c>
       <c r="G159" t="n">
-        <v>0</v>
+        <v>0.001467061811504093</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>12.75</v>
       </c>
       <c r="I159" t="n">
-        <v>0</v>
+        <v>0.8235294117647058</v>
       </c>
       <c r="J159" t="n">
-        <v>0</v>
+        <v>5.429411764705883</v>
       </c>
       <c r="K159" t="n">
-        <v>0</v>
+        <v>5.311594202898551</v>
       </c>
       <c r="L159" t="n">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="M159" t="n">
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="N159" t="n">
-        <v>0</v>
-      </c>
-      <c r="O159" t="n">
-        <v>0</v>
+        <v>2.016042780748663</v>
+      </c>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P159" t="n">
+        <v>5.311594202898551</v>
+      </c>
+      <c r="Q159" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8935,42 +9534,47 @@
         </is>
       </c>
       <c r="D160" t="n">
-        <v>0</v>
+        <v>0.656451688044601</v>
       </c>
       <c r="E160" t="n">
-        <v>0</v>
+        <v>0.1561060009407811</v>
       </c>
       <c r="F160" t="n">
-        <v>0</v>
+        <v>0.6157673558984809</v>
       </c>
       <c r="G160" t="n">
-        <v>0</v>
+        <v>0.0008168209728768896</v>
       </c>
       <c r="H160" t="n">
-        <v>0</v>
+        <v>9.485714285714286</v>
       </c>
       <c r="I160" t="n">
-        <v>0</v>
+        <v>0.7158634538152611</v>
       </c>
       <c r="J160" t="n">
-        <v>0</v>
+        <v>4.080631095811819</v>
       </c>
       <c r="K160" t="n">
-        <v>0</v>
+        <v>5.177910052910053</v>
       </c>
       <c r="L160" t="n">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="M160" t="n">
-        <v>0</v>
+        <v>996</v>
       </c>
       <c r="N160" t="n">
-        <v>0</v>
-      </c>
-      <c r="O160" t="n">
-        <v>0</v>
+        <v>1.732931726907631</v>
+      </c>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P160" t="n">
+        <v>5.177910052910053</v>
+      </c>
+      <c r="Q160" t="n">
         <v>0</v>
       </c>
     </row>
@@ -8987,42 +9591,47 @@
         </is>
       </c>
       <c r="D161" t="n">
-        <v>0</v>
+        <v>0.6579931392556145</v>
       </c>
       <c r="E161" t="n">
-        <v>0</v>
+        <v>0.162038410880736</v>
       </c>
       <c r="F161" t="n">
-        <v>0</v>
+        <v>0.6048005693487817</v>
       </c>
       <c r="G161" t="n">
-        <v>0</v>
+        <v>0.001169136111305342</v>
       </c>
       <c r="H161" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="I161" t="n">
-        <v>0</v>
+        <v>0.8233618233618234</v>
       </c>
       <c r="J161" t="n">
-        <v>0</v>
+        <v>3.929344729344729</v>
       </c>
       <c r="K161" t="n">
-        <v>0</v>
+        <v>4.721549636803874</v>
       </c>
       <c r="L161" t="n">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="M161" t="n">
-        <v>0</v>
+        <v>702</v>
       </c>
       <c r="N161" t="n">
-        <v>0</v>
-      </c>
-      <c r="O161" t="n">
-        <v>0</v>
+        <v>1.985754985754986</v>
+      </c>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P161" t="n">
+        <v>4.721549636803874</v>
+      </c>
+      <c r="Q161" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9039,42 +9648,47 @@
         </is>
       </c>
       <c r="D162" t="n">
-        <v>0</v>
+        <v>0.6113683361898768</v>
       </c>
       <c r="E162" t="n">
-        <v>0</v>
+        <v>0.1673420204526999</v>
       </c>
       <c r="F162" t="n">
-        <v>0</v>
+        <v>0.5702082817569862</v>
       </c>
       <c r="G162" t="n">
-        <v>0</v>
+        <v>0.001179079208233853</v>
       </c>
       <c r="H162" t="n">
-        <v>0</v>
+        <v>8.262499999999999</v>
       </c>
       <c r="I162" t="n">
-        <v>0</v>
+        <v>0.8411497730711044</v>
       </c>
       <c r="J162" t="n">
-        <v>0</v>
+        <v>3.641459909228441</v>
       </c>
       <c r="K162" t="n">
-        <v>0</v>
+        <v>5.346729708431836</v>
       </c>
       <c r="L162" t="n">
-        <v>0</v>
+        <v>556</v>
       </c>
       <c r="M162" t="n">
-        <v>0</v>
+        <v>661</v>
       </c>
       <c r="N162" t="n">
-        <v>0</v>
-      </c>
-      <c r="O162" t="n">
-        <v>0</v>
+        <v>2.116490166414523</v>
+      </c>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P162" t="n">
+        <v>5.346729708431836</v>
+      </c>
+      <c r="Q162" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9091,42 +9705,47 @@
         </is>
       </c>
       <c r="D163" t="n">
-        <v>0</v>
+        <v>0.6917213201522827</v>
       </c>
       <c r="E163" t="n">
-        <v>0</v>
+        <v>0.157635971903801</v>
       </c>
       <c r="F163" t="n">
-        <v>0</v>
+        <v>0.6288121649169378</v>
       </c>
       <c r="G163" t="n">
-        <v>0</v>
+        <v>0.1698724584112167</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I163" t="n">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="J163" t="n">
-        <v>0</v>
+        <v>2.24</v>
       </c>
       <c r="K163" t="n">
-        <v>0</v>
+        <v>5.8</v>
       </c>
       <c r="L163" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M163" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="N163" t="n">
-        <v>0</v>
-      </c>
-      <c r="O163" t="n">
-        <v>0</v>
+        <v>1.8</v>
+      </c>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P163" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Q163" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9143,42 +9762,47 @@
         </is>
       </c>
       <c r="D164" t="n">
-        <v>0</v>
+        <v>0.6454649619869332</v>
       </c>
       <c r="E164" t="n">
-        <v>0</v>
+        <v>0.1865579007443652</v>
       </c>
       <c r="F164" t="n">
-        <v>0</v>
+        <v>0.5515568307329493</v>
       </c>
       <c r="G164" t="n">
-        <v>0</v>
+        <v>0.0005312886314412354</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>6.592436974789916</v>
       </c>
       <c r="I164" t="n">
-        <v>0</v>
+        <v>0.8107074569789675</v>
       </c>
       <c r="J164" t="n">
-        <v>0</v>
+        <v>2.961257772707553</v>
       </c>
       <c r="K164" t="n">
-        <v>0</v>
+        <v>5.760543245175125</v>
       </c>
       <c r="L164" t="n">
-        <v>0</v>
+        <v>1272</v>
       </c>
       <c r="M164" t="n">
-        <v>0</v>
+        <v>1569</v>
       </c>
       <c r="N164" t="n">
-        <v>0</v>
-      </c>
-      <c r="O164" t="n">
-        <v>0</v>
+        <v>2.181644359464627</v>
+      </c>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P164" t="n">
+        <v>5.760543245175125</v>
+      </c>
+      <c r="Q164" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9195,42 +9819,47 @@
         </is>
       </c>
       <c r="D165" t="n">
-        <v>0</v>
+        <v>0.6393554753727383</v>
       </c>
       <c r="E165" t="n">
-        <v>0</v>
+        <v>0.1498810307847129</v>
       </c>
       <c r="F165" t="n">
-        <v>0</v>
+        <v>0.6201882832405147</v>
       </c>
       <c r="G165" t="n">
-        <v>0</v>
+        <v>0.001984006296878018</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>13.72413793103448</v>
       </c>
       <c r="I165" t="n">
-        <v>0</v>
+        <v>0.7889447236180904</v>
       </c>
       <c r="J165" t="n">
-        <v>0</v>
+        <v>5.805233061861029</v>
       </c>
       <c r="K165" t="n">
-        <v>0</v>
+        <v>5.303738317757009</v>
       </c>
       <c r="L165" t="n">
-        <v>0</v>
+        <v>314</v>
       </c>
       <c r="M165" t="n">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="N165" t="n">
-        <v>0</v>
-      </c>
-      <c r="O165" t="n">
-        <v>0</v>
+        <v>1.831658291457287</v>
+      </c>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P165" t="n">
+        <v>5.303738317757009</v>
+      </c>
+      <c r="Q165" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9246,8 +9875,10 @@
           <t>https://mngtnote.blogspot.com/2015/09/strategic-management-in-action-hulu.html</t>
         </is>
       </c>
-      <c r="D166" t="n">
-        <v>0</v>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Hulu</t>
+        </is>
       </c>
       <c r="E166" t="n">
         <v>0</v>
@@ -9283,6 +9914,9 @@
         <v>0</v>
       </c>
       <c r="P166" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q166" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9299,42 +9933,47 @@
         </is>
       </c>
       <c r="D167" t="n">
-        <v>0</v>
+        <v>0.6378195788711309</v>
       </c>
       <c r="E167" t="n">
-        <v>0</v>
+        <v>0.1485138397547416</v>
       </c>
       <c r="F167" t="n">
-        <v>0</v>
+        <v>0.6222634239619081</v>
       </c>
       <c r="G167" t="n">
-        <v>0</v>
+        <v>0.002860394249548628</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="I167" t="n">
-        <v>0</v>
+        <v>0.8690909090909091</v>
       </c>
       <c r="J167" t="n">
-        <v>0</v>
+        <v>5.347636363636364</v>
       </c>
       <c r="K167" t="n">
-        <v>0</v>
+        <v>6.119331742243436</v>
       </c>
       <c r="L167" t="n">
-        <v>0</v>
+        <v>239</v>
       </c>
       <c r="M167" t="n">
-        <v>0</v>
+        <v>275</v>
       </c>
       <c r="N167" t="n">
-        <v>0</v>
-      </c>
-      <c r="O167" t="n">
-        <v>0</v>
+        <v>2.167272727272727</v>
+      </c>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P167" t="n">
+        <v>6.119331742243436</v>
+      </c>
+      <c r="Q167" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9351,42 +9990,47 @@
         </is>
       </c>
       <c r="D168" t="n">
-        <v>0</v>
+        <v>0.6248565242715078</v>
       </c>
       <c r="E168" t="n">
-        <v>0</v>
+        <v>0.1537647505533205</v>
       </c>
       <c r="F168" t="n">
-        <v>0</v>
+        <v>0.6050342670709159</v>
       </c>
       <c r="G168" t="n">
-        <v>0</v>
+        <v>0.002457218532570437</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>15.85</v>
       </c>
       <c r="I168" t="n">
-        <v>0</v>
+        <v>0.7634069400630915</v>
       </c>
       <c r="J168" t="n">
-        <v>0</v>
+        <v>6.645362776025237</v>
       </c>
       <c r="K168" t="n">
-        <v>0</v>
+        <v>5.53781512605042</v>
       </c>
       <c r="L168" t="n">
-        <v>0</v>
+        <v>242</v>
       </c>
       <c r="M168" t="n">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="N168" t="n">
-        <v>0</v>
-      </c>
-      <c r="O168" t="n">
-        <v>0</v>
+        <v>1.914826498422713</v>
+      </c>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P168" t="n">
+        <v>5.53781512605042</v>
+      </c>
+      <c r="Q168" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9403,42 +10047,47 @@
         </is>
       </c>
       <c r="D169" t="n">
-        <v>0</v>
+        <v>0.6391710580564013</v>
       </c>
       <c r="E169" t="n">
-        <v>0</v>
+        <v>0.1468729458785817</v>
       </c>
       <c r="F169" t="n">
-        <v>0</v>
+        <v>0.6262994129556947</v>
       </c>
       <c r="G169" t="n">
-        <v>0</v>
+        <v>0.002160461549271932</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="I169" t="n">
-        <v>0</v>
+        <v>0.8186813186813187</v>
       </c>
       <c r="J169" t="n">
-        <v>0</v>
+        <v>5.527472527472528</v>
       </c>
       <c r="K169" t="n">
-        <v>0</v>
+        <v>5.863716814159292</v>
       </c>
       <c r="L169" t="n">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="M169" t="n">
-        <v>0</v>
+        <v>364</v>
       </c>
       <c r="N169" t="n">
-        <v>0</v>
-      </c>
-      <c r="O169" t="n">
-        <v>0</v>
+        <v>1.997252747252747</v>
+      </c>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P169" t="n">
+        <v>5.863716814159292</v>
+      </c>
+      <c r="Q169" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9455,42 +10104,47 @@
         </is>
       </c>
       <c r="D170" t="n">
-        <v>0</v>
+        <v>0.6198262564010091</v>
       </c>
       <c r="E170" t="n">
-        <v>0</v>
+        <v>0.2232928010117677</v>
       </c>
       <c r="F170" t="n">
-        <v>0</v>
+        <v>0.4703182723981086</v>
       </c>
       <c r="G170" t="n">
-        <v>0</v>
+        <v>0.001410898089319024</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>10.67857142857143</v>
       </c>
       <c r="I170" t="n">
-        <v>0</v>
+        <v>0.7558528428093646</v>
       </c>
       <c r="J170" t="n">
-        <v>0</v>
+        <v>4.573769708552318</v>
       </c>
       <c r="K170" t="n">
-        <v>0</v>
+        <v>4.795400475812847</v>
       </c>
       <c r="L170" t="n">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="M170" t="n">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="N170" t="n">
-        <v>0</v>
-      </c>
-      <c r="O170" t="n">
-        <v>0</v>
+        <v>1.866220735785953</v>
+      </c>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P170" t="n">
+        <v>4.795400475812847</v>
+      </c>
+      <c r="Q170" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9507,42 +10161,47 @@
         </is>
       </c>
       <c r="D171" t="n">
-        <v>0</v>
+        <v>0.6141571365665681</v>
       </c>
       <c r="E171" t="n">
-        <v>0</v>
+        <v>0.1590265529875708</v>
       </c>
       <c r="F171" t="n">
-        <v>0</v>
+        <v>0.5886458326935752</v>
       </c>
       <c r="G171" t="n">
-        <v>0</v>
+        <v>0.001485037791850555</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>11.32608695652174</v>
       </c>
       <c r="I171" t="n">
-        <v>0</v>
+        <v>0.7907869481765835</v>
       </c>
       <c r="J171" t="n">
-        <v>0</v>
+        <v>4.846749561879329</v>
       </c>
       <c r="K171" t="n">
-        <v>0</v>
+        <v>5.381625441696113</v>
       </c>
       <c r="L171" t="n">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="M171" t="n">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="N171" t="n">
-        <v>0</v>
-      </c>
-      <c r="O171" t="n">
-        <v>0</v>
+        <v>1.934740882917466</v>
+      </c>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P171" t="n">
+        <v>5.381625441696113</v>
+      </c>
+      <c r="Q171" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9559,42 +10218,47 @@
         </is>
       </c>
       <c r="D172" t="n">
-        <v>0</v>
+        <v>0.6462679485479991</v>
       </c>
       <c r="E172" t="n">
-        <v>0</v>
+        <v>0.1968460789571206</v>
       </c>
       <c r="F172" t="n">
-        <v>0</v>
+        <v>0.533050925548949</v>
       </c>
       <c r="G172" t="n">
-        <v>0</v>
+        <v>0.001874586727789155</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>11.53846153846154</v>
       </c>
       <c r="I172" t="n">
-        <v>0</v>
+        <v>0.7133333333333334</v>
       </c>
       <c r="J172" t="n">
-        <v>0</v>
+        <v>4.900717948717949</v>
       </c>
       <c r="K172" t="n">
-        <v>0</v>
+        <v>4.670011148272017</v>
       </c>
       <c r="L172" t="n">
-        <v>0</v>
+        <v>321</v>
       </c>
       <c r="M172" t="n">
-        <v>0</v>
+        <v>450</v>
       </c>
       <c r="N172" t="n">
-        <v>0</v>
-      </c>
-      <c r="O172" t="n">
-        <v>0</v>
+        <v>1.833333333333333</v>
+      </c>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P172" t="n">
+        <v>4.670011148272017</v>
+      </c>
+      <c r="Q172" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9611,42 +10275,47 @@
         </is>
       </c>
       <c r="D173" t="n">
-        <v>0</v>
+        <v>0.6518199717482696</v>
       </c>
       <c r="E173" t="n">
-        <v>0</v>
+        <v>0.1629973196317084</v>
       </c>
       <c r="F173" t="n">
-        <v>0</v>
+        <v>0.5999178860158688</v>
       </c>
       <c r="G173" t="n">
-        <v>0</v>
+        <v>0.0009429853079537318</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>13.10606060606061</v>
       </c>
       <c r="I173" t="n">
-        <v>0</v>
+        <v>0.7017341040462428</v>
       </c>
       <c r="J173" t="n">
-        <v>0</v>
+        <v>5.52311788404274</v>
       </c>
       <c r="K173" t="n">
-        <v>0</v>
+        <v>4.8025</v>
       </c>
       <c r="L173" t="n">
-        <v>0</v>
+        <v>607</v>
       </c>
       <c r="M173" t="n">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="N173" t="n">
-        <v>0</v>
-      </c>
-      <c r="O173" t="n">
-        <v>0</v>
+        <v>1.78728323699422</v>
+      </c>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P173" t="n">
+        <v>4.8025</v>
+      </c>
+      <c r="Q173" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9663,42 +10332,47 @@
         </is>
       </c>
       <c r="D174" t="n">
-        <v>0</v>
+        <v>0.6701939753864122</v>
       </c>
       <c r="E174" t="n">
-        <v>0</v>
+        <v>0.1689675668477202</v>
       </c>
       <c r="F174" t="n">
-        <v>0</v>
+        <v>0.5972953030781147</v>
       </c>
       <c r="G174" t="n">
-        <v>0</v>
+        <v>0.0012880575801137</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>11.24137931034483</v>
       </c>
       <c r="I174" t="n">
-        <v>0</v>
+        <v>0.6702453987730062</v>
       </c>
       <c r="J174" t="n">
-        <v>0</v>
+        <v>4.764649883647134</v>
       </c>
       <c r="K174" t="n">
-        <v>0</v>
+        <v>4.717089125102207</v>
       </c>
       <c r="L174" t="n">
-        <v>0</v>
+        <v>437</v>
       </c>
       <c r="M174" t="n">
-        <v>0</v>
+        <v>652</v>
       </c>
       <c r="N174" t="n">
-        <v>0</v>
-      </c>
-      <c r="O174" t="n">
-        <v>0</v>
+        <v>1.76840490797546</v>
+      </c>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P174" t="n">
+        <v>4.717089125102207</v>
+      </c>
+      <c r="Q174" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9715,42 +10389,47 @@
         </is>
       </c>
       <c r="D175" t="n">
-        <v>0</v>
+        <v>0.6486787352806482</v>
       </c>
       <c r="E175" t="n">
-        <v>0</v>
+        <v>0.169620115775615</v>
       </c>
       <c r="F175" t="n">
-        <v>0</v>
+        <v>0.5854333501574793</v>
       </c>
       <c r="G175" t="n">
-        <v>0</v>
+        <v>0.001502465781754611</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>7.569444444444445</v>
       </c>
       <c r="I175" t="n">
-        <v>0</v>
+        <v>0.7229357798165138</v>
       </c>
       <c r="J175" t="n">
-        <v>0</v>
+        <v>3.316952089704383</v>
       </c>
       <c r="K175" t="n">
-        <v>0</v>
+        <v>4.847761194029851</v>
       </c>
       <c r="L175" t="n">
-        <v>0</v>
+        <v>394</v>
       </c>
       <c r="M175" t="n">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="N175" t="n">
-        <v>0</v>
-      </c>
-      <c r="O175" t="n">
-        <v>0</v>
+        <v>1.744954128440367</v>
+      </c>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P175" t="n">
+        <v>4.847761194029851</v>
+      </c>
+      <c r="Q175" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9767,42 +10446,47 @@
         </is>
       </c>
       <c r="D176" t="n">
-        <v>0</v>
+        <v>0.6720136023230023</v>
       </c>
       <c r="E176" t="n">
-        <v>0</v>
+        <v>0.1629037510396706</v>
       </c>
       <c r="F176" t="n">
-        <v>0</v>
+        <v>0.6097737508391884</v>
       </c>
       <c r="G176" t="n">
-        <v>0</v>
+        <v>0.001902861852762353</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>9.543478260869565</v>
       </c>
       <c r="I176" t="n">
-        <v>0</v>
+        <v>0.6970387243735763</v>
       </c>
       <c r="J176" t="n">
-        <v>0</v>
+        <v>4.096206794097256</v>
       </c>
       <c r="K176" t="n">
-        <v>0</v>
+        <v>4.684146341463415</v>
       </c>
       <c r="L176" t="n">
-        <v>0</v>
+        <v>306</v>
       </c>
       <c r="M176" t="n">
-        <v>0</v>
+        <v>439</v>
       </c>
       <c r="N176" t="n">
-        <v>0</v>
-      </c>
-      <c r="O176" t="n">
-        <v>0</v>
+        <v>1.760820045558086</v>
+      </c>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P176" t="n">
+        <v>4.684146341463415</v>
+      </c>
+      <c r="Q176" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9819,42 +10503,47 @@
         </is>
       </c>
       <c r="D177" t="n">
-        <v>0</v>
+        <v>0.6701522957413427</v>
       </c>
       <c r="E177" t="n">
-        <v>0</v>
+        <v>0.1449367939344337</v>
       </c>
       <c r="F177" t="n">
-        <v>0</v>
+        <v>0.6443667613130702</v>
       </c>
       <c r="G177" t="n">
-        <v>0</v>
+        <v>0.001757657520852966</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>10.31111111111111</v>
       </c>
       <c r="I177" t="n">
-        <v>0</v>
+        <v>0.7262931034482759</v>
       </c>
       <c r="J177" t="n">
-        <v>0</v>
+        <v>4.414961685823755</v>
       </c>
       <c r="K177" t="n">
-        <v>0</v>
+        <v>4.974850299401197</v>
       </c>
       <c r="L177" t="n">
-        <v>0</v>
+        <v>337</v>
       </c>
       <c r="M177" t="n">
-        <v>0</v>
+        <v>464</v>
       </c>
       <c r="N177" t="n">
-        <v>0</v>
-      </c>
-      <c r="O177" t="n">
-        <v>0</v>
+        <v>1.825431034482759</v>
+      </c>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P177" t="n">
+        <v>4.974850299401197</v>
+      </c>
+      <c r="Q177" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9871,42 +10560,47 @@
         </is>
       </c>
       <c r="D178" t="n">
-        <v>0</v>
+        <v>0.6145537168276115</v>
       </c>
       <c r="E178" t="n">
-        <v>0</v>
+        <v>0.1500116674263855</v>
       </c>
       <c r="F178" t="n">
-        <v>0</v>
+        <v>0.6075906960133629</v>
       </c>
       <c r="G178" t="n">
-        <v>0</v>
+        <v>0.001406451073996318</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>10.88</v>
       </c>
       <c r="I178" t="n">
-        <v>0</v>
+        <v>0.8400735294117647</v>
       </c>
       <c r="J178" t="n">
-        <v>0</v>
+        <v>4.688029411764706</v>
       </c>
       <c r="K178" t="n">
-        <v>0</v>
+        <v>5.286902286902287</v>
       </c>
       <c r="L178" t="n">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="M178" t="n">
-        <v>0</v>
+        <v>544</v>
       </c>
       <c r="N178" t="n">
-        <v>0</v>
-      </c>
-      <c r="O178" t="n">
-        <v>0</v>
+        <v>1.998161764705882</v>
+      </c>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P178" t="n">
+        <v>5.286902286902287</v>
+      </c>
+      <c r="Q178" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9923,42 +10617,47 @@
         </is>
       </c>
       <c r="D179" t="n">
-        <v>0</v>
+        <v>0.6252820340019686</v>
       </c>
       <c r="E179" t="n">
-        <v>0</v>
+        <v>0.1872174965252203</v>
       </c>
       <c r="F179" t="n">
-        <v>0</v>
+        <v>0.5391576653490998</v>
       </c>
       <c r="G179" t="n">
-        <v>0</v>
+        <v>0.001814615023498189</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>14.93333333333333</v>
       </c>
       <c r="I179" t="n">
-        <v>0</v>
+        <v>0.71875</v>
       </c>
       <c r="J179" t="n">
-        <v>0</v>
+        <v>6.260833333333334</v>
       </c>
       <c r="K179" t="n">
-        <v>0</v>
+        <v>5.00383631713555</v>
       </c>
       <c r="L179" t="n">
-        <v>0</v>
+        <v>322</v>
       </c>
       <c r="M179" t="n">
-        <v>0</v>
+        <v>448</v>
       </c>
       <c r="N179" t="n">
-        <v>0</v>
-      </c>
-      <c r="O179" t="n">
-        <v>0</v>
+        <v>1.787946428571429</v>
+      </c>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P179" t="n">
+        <v>5.00383631713555</v>
+      </c>
+      <c r="Q179" t="n">
         <v>0</v>
       </c>
     </row>
@@ -9975,42 +10674,47 @@
         </is>
       </c>
       <c r="D180" t="n">
-        <v>0</v>
+        <v>0.6382638913829152</v>
       </c>
       <c r="E180" t="n">
-        <v>0</v>
+        <v>0.1396553755465259</v>
       </c>
       <c r="F180" t="n">
-        <v>0</v>
+        <v>0.6409524933400078</v>
       </c>
       <c r="G180" t="n">
-        <v>0</v>
+        <v>0.004095311931207584</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>13.57142857142857</v>
       </c>
       <c r="I180" t="n">
-        <v>0</v>
+        <v>0.7052631578947368</v>
       </c>
       <c r="J180" t="n">
-        <v>0</v>
+        <v>5.710676691729323</v>
       </c>
       <c r="K180" t="n">
-        <v>0</v>
+        <v>4.861878453038674</v>
       </c>
       <c r="L180" t="n">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="M180" t="n">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N180" t="n">
-        <v>0</v>
-      </c>
-      <c r="O180" t="n">
-        <v>0</v>
+        <v>1.815789473684211</v>
+      </c>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P180" t="n">
+        <v>4.861878453038674</v>
+      </c>
+      <c r="Q180" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10027,42 +10731,47 @@
         </is>
       </c>
       <c r="D181" t="n">
-        <v>0</v>
+        <v>0.667514955624938</v>
       </c>
       <c r="E181" t="n">
-        <v>0</v>
+        <v>0.1839010537369177</v>
       </c>
       <c r="F181" t="n">
-        <v>0</v>
+        <v>0.5680122854002987</v>
       </c>
       <c r="G181" t="n">
-        <v>0</v>
+        <v>0.002195371158149113</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="I181" t="n">
-        <v>0</v>
+        <v>0.6932989690721649</v>
       </c>
       <c r="J181" t="n">
-        <v>0</v>
+        <v>4.157319587628866</v>
       </c>
       <c r="K181" t="n">
-        <v>0</v>
+        <v>5.012048192771084</v>
       </c>
       <c r="L181" t="n">
-        <v>0</v>
+        <v>269</v>
       </c>
       <c r="M181" t="n">
-        <v>0</v>
+        <v>388</v>
       </c>
       <c r="N181" t="n">
-        <v>0</v>
-      </c>
-      <c r="O181" t="n">
-        <v>0</v>
+        <v>1.731958762886598</v>
+      </c>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P181" t="n">
+        <v>5.012048192771084</v>
+      </c>
+      <c r="Q181" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10079,42 +10788,47 @@
         </is>
       </c>
       <c r="D182" t="n">
-        <v>0</v>
+        <v>0.6467811390757561</v>
       </c>
       <c r="E182" t="n">
-        <v>0</v>
+        <v>0.1698197319265455</v>
       </c>
       <c r="F182" t="n">
-        <v>0</v>
+        <v>0.5840824332757015</v>
       </c>
       <c r="G182" t="n">
-        <v>0</v>
+        <v>0.0007360142853306045</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>11.81914893617021</v>
       </c>
       <c r="I182" t="n">
-        <v>0</v>
+        <v>0.6948694869486949</v>
       </c>
       <c r="J182" t="n">
-        <v>0</v>
+        <v>5.005607369247564</v>
       </c>
       <c r="K182" t="n">
-        <v>0</v>
+        <v>4.7317429406037</v>
       </c>
       <c r="L182" t="n">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="M182" t="n">
-        <v>0</v>
+        <v>1111</v>
       </c>
       <c r="N182" t="n">
-        <v>0</v>
-      </c>
-      <c r="O182" t="n">
-        <v>0</v>
+        <v>1.774077407740774</v>
+      </c>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P182" t="n">
+        <v>4.7317429406037</v>
+      </c>
+      <c r="Q182" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10131,42 +10845,47 @@
         </is>
       </c>
       <c r="D183" t="n">
-        <v>0</v>
+        <v>0.6595861550886184</v>
       </c>
       <c r="E183" t="n">
-        <v>0</v>
+        <v>0.1902512591041159</v>
       </c>
       <c r="F183" t="n">
-        <v>0</v>
+        <v>0.5522653368559227</v>
       </c>
       <c r="G183" t="n">
-        <v>0</v>
+        <v>0.001343555156702582</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>10.55</v>
       </c>
       <c r="I183" t="n">
-        <v>0</v>
+        <v>0.6998420221169036</v>
       </c>
       <c r="J183" t="n">
-        <v>0</v>
+        <v>4.499936808846762</v>
       </c>
       <c r="K183" t="n">
-        <v>0</v>
+        <v>4.951642335766423</v>
       </c>
       <c r="L183" t="n">
-        <v>0</v>
+        <v>443</v>
       </c>
       <c r="M183" t="n">
-        <v>0</v>
+        <v>633</v>
       </c>
       <c r="N183" t="n">
-        <v>0</v>
-      </c>
-      <c r="O183" t="n">
-        <v>0</v>
+        <v>1.751974723538705</v>
+      </c>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P183" t="n">
+        <v>4.951642335766423</v>
+      </c>
+      <c r="Q183" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10183,42 +10902,47 @@
         </is>
       </c>
       <c r="D184" t="n">
-        <v>0</v>
+        <v>0.641328003241593</v>
       </c>
       <c r="E184" t="n">
-        <v>0</v>
+        <v>0.1709024918576082</v>
       </c>
       <c r="F184" t="n">
-        <v>0</v>
+        <v>0.5791783569478326</v>
       </c>
       <c r="G184" t="n">
-        <v>0</v>
+        <v>0.0005670142822990949</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>11.2992125984252</v>
       </c>
       <c r="I184" t="n">
-        <v>0</v>
+        <v>0.7519163763066202</v>
       </c>
       <c r="J184" t="n">
-        <v>0</v>
+        <v>4.820451589892727</v>
       </c>
       <c r="K184" t="n">
-        <v>0</v>
+        <v>5.21169686985173</v>
       </c>
       <c r="L184" t="n">
-        <v>0</v>
+        <v>1079</v>
       </c>
       <c r="M184" t="n">
-        <v>0</v>
+        <v>1435</v>
       </c>
       <c r="N184" t="n">
-        <v>0</v>
-      </c>
-      <c r="O184" t="n">
-        <v>0</v>
+        <v>1.851567944250871</v>
+      </c>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P184" t="n">
+        <v>5.21169686985173</v>
+      </c>
+      <c r="Q184" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10235,42 +10959,47 @@
         </is>
       </c>
       <c r="D185" t="n">
-        <v>0</v>
+        <v>0.6514214078585306</v>
       </c>
       <c r="E185" t="n">
-        <v>0</v>
+        <v>0.1631440673954785</v>
       </c>
       <c r="F185" t="n">
-        <v>0</v>
+        <v>0.5994338943425828</v>
       </c>
       <c r="G185" t="n">
-        <v>0</v>
+        <v>0.002052802204670048</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>12.40625</v>
       </c>
       <c r="I185" t="n">
-        <v>0</v>
+        <v>0.7304785894206549</v>
       </c>
       <c r="J185" t="n">
-        <v>0</v>
+        <v>5.254691435768262</v>
       </c>
       <c r="K185" t="n">
-        <v>0</v>
+        <v>4.579012345679012</v>
       </c>
       <c r="L185" t="n">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="M185" t="n">
-        <v>0</v>
+        <v>397</v>
       </c>
       <c r="N185" t="n">
-        <v>0</v>
-      </c>
-      <c r="O185" t="n">
-        <v>0</v>
+        <v>1.743073047858942</v>
+      </c>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P185" t="n">
+        <v>4.579012345679012</v>
+      </c>
+      <c r="Q185" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10287,42 +11016,47 @@
         </is>
       </c>
       <c r="D186" t="n">
-        <v>0</v>
+        <v>0.7023700521542475</v>
       </c>
       <c r="E186" t="n">
-        <v>0</v>
+        <v>0.1238294703921733</v>
       </c>
       <c r="F186" t="n">
-        <v>0</v>
+        <v>0.7002441809437029</v>
       </c>
       <c r="G186" t="n">
-        <v>0</v>
+        <v>0.02503734916807336</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I186" t="n">
-        <v>0</v>
+        <v>0.7575757575757576</v>
       </c>
       <c r="J186" t="n">
-        <v>0</v>
+        <v>4.703030303030303</v>
       </c>
       <c r="K186" t="n">
-        <v>0</v>
+        <v>4.810344827586207</v>
       </c>
       <c r="L186" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="M186" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N186" t="n">
-        <v>0</v>
-      </c>
-      <c r="O186" t="n">
-        <v>0</v>
+        <v>1.696969696969697</v>
+      </c>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>Unknown</t>
+        </is>
       </c>
       <c r="P186" t="n">
+        <v>4.810344827586207</v>
+      </c>
+      <c r="Q186" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10338,9 +11072,7 @@
           <t>https://www.techadvisor.com/article/735708/disney-plus-vs-hulu.html</t>
         </is>
       </c>
-      <c r="D187" t="n">
-        <v>0</v>
-      </c>
+      <c r="D187" t="inlineStr"/>
       <c r="E187" t="n">
         <v>0</v>
       </c>
@@ -10375,6 +11107,9 @@
         <v>0</v>
       </c>
       <c r="P187" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q187" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10390,9 +11125,7 @@
           <t>https://cordcutting.com/compare/disney-plus-vs-hulu/</t>
         </is>
       </c>
-      <c r="D188" t="n">
-        <v>0</v>
-      </c>
+      <c r="D188" t="inlineStr"/>
       <c r="E188" t="n">
         <v>0</v>
       </c>
@@ -10427,6 +11160,9 @@
         <v>0</v>
       </c>
       <c r="P188" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q188" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10442,9 +11178,7 @@
           <t>https://www.dailydot.com/upstream/disney-plus-vs-hulu/</t>
         </is>
       </c>
-      <c r="D189" t="n">
-        <v>0</v>
-      </c>
+      <c r="D189" t="inlineStr"/>
       <c r="E189" t="n">
         <v>0</v>
       </c>
@@ -10479,6 +11213,9 @@
         <v>0</v>
       </c>
       <c r="P189" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q189" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10494,9 +11231,7 @@
           <t>https://www.techradar.com/streaming/hulu-is-now-officially-part-of-disney-plus-heres-what-you-need-to-know</t>
         </is>
       </c>
-      <c r="D190" t="n">
-        <v>0</v>
-      </c>
+      <c r="D190" t="inlineStr"/>
       <c r="E190" t="n">
         <v>0</v>
       </c>
@@ -10531,6 +11266,9 @@
         <v>0</v>
       </c>
       <c r="P190" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q190" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10546,9 +11284,7 @@
           <t>https://www.makeuseof.com/is-hulu-on-disney-worth-the-money/</t>
         </is>
       </c>
-      <c r="D191" t="n">
-        <v>0</v>
-      </c>
+      <c r="D191" t="inlineStr"/>
       <c r="E191" t="n">
         <v>0</v>
       </c>
@@ -10583,6 +11319,9 @@
         <v>0</v>
       </c>
       <c r="P191" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q191" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10598,9 +11337,7 @@
           <t>https://deadline.com/2024/03/hulu-disney-plus-streaming-bundle-launch-1235869143/</t>
         </is>
       </c>
-      <c r="D192" t="n">
-        <v>0</v>
-      </c>
+      <c r="D192" t="inlineStr"/>
       <c r="E192" t="n">
         <v>0</v>
       </c>
@@ -10635,6 +11372,9 @@
         <v>0</v>
       </c>
       <c r="P192" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q192" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10650,9 +11390,7 @@
           <t>https://www.tomsguide.com/entertainment/hulu-officially-launches-on-disney-plus-heres-what-you-need-to-know</t>
         </is>
       </c>
-      <c r="D193" t="n">
-        <v>0</v>
-      </c>
+      <c r="D193" t="inlineStr"/>
       <c r="E193" t="n">
         <v>0</v>
       </c>
@@ -10687,6 +11425,9 @@
         <v>0</v>
       </c>
       <c r="P193" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q193" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10702,9 +11443,7 @@
           <t>https://www.polygon.com/23720382/disney-plus-hulu-one-app-subscriptions-content</t>
         </is>
       </c>
-      <c r="D194" t="n">
-        <v>0</v>
-      </c>
+      <c r="D194" t="inlineStr"/>
       <c r="E194" t="n">
         <v>0</v>
       </c>
@@ -10739,6 +11478,9 @@
         <v>0</v>
       </c>
       <c r="P194" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q194" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10754,9 +11496,7 @@
           <t>https://www.usatoday.com/story/tech/reviewedcom/2019/12/09/disney-plus-vs-hulu-streaming/2618915001/</t>
         </is>
       </c>
-      <c r="D195" t="n">
-        <v>0</v>
-      </c>
+      <c r="D195" t="inlineStr"/>
       <c r="E195" t="n">
         <v>0</v>
       </c>
@@ -10791,6 +11531,9 @@
         <v>0</v>
       </c>
       <c r="P195" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q195" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10806,9 +11549,7 @@
           <t>https://www.digitaltrends.com/movies/hulu-vs-amazon-prime-video/</t>
         </is>
       </c>
-      <c r="D196" t="n">
-        <v>0</v>
-      </c>
+      <c r="D196" t="inlineStr"/>
       <c r="E196" t="n">
         <v>0</v>
       </c>
@@ -10843,6 +11584,9 @@
         <v>0</v>
       </c>
       <c r="P196" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q196" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10858,9 +11602,7 @@
           <t>https://www.lifewire.com/netflix-vs-hulu-plus-1994444</t>
         </is>
       </c>
-      <c r="D197" t="n">
-        <v>0</v>
-      </c>
+      <c r="D197" t="inlineStr"/>
       <c r="E197" t="n">
         <v>0</v>
       </c>
@@ -10895,6 +11637,9 @@
         <v>0</v>
       </c>
       <c r="P197" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q197" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10910,9 +11655,7 @@
           <t>https://www.cnbc.com/2019/02/26/cost-of-popular-streaming-sites-like-netflix-amazon-prime-and-hulu.html</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>0</v>
-      </c>
+      <c r="D198" t="inlineStr"/>
       <c r="E198" t="n">
         <v>0</v>
       </c>
@@ -10947,6 +11690,9 @@
         <v>0</v>
       </c>
       <c r="P198" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q198" t="n">
         <v>0</v>
       </c>
     </row>
@@ -10962,9 +11708,7 @@
           <t>https://www.aranca.com/knowledge-library/special-reports/investment-research/supremacy-of-netflix-amazon-and-hulu-set-to-weaken-in-2020</t>
         </is>
       </c>
-      <c r="D199" t="n">
-        <v>0</v>
-      </c>
+      <c r="D199" t="inlineStr"/>
       <c r="E199" t="n">
         <v>0</v>
       </c>
@@ -10999,6 +11743,9 @@
         <v>0</v>
       </c>
       <c r="P199" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q199" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11014,9 +11761,7 @@
           <t>https://www.forbes.com/sites/forbes-personal-shopper/2018/05/22/hulu-vs-amazon-prime-video-which-netflix-alternative-is-right-for-you/?sh=5b60ec50a395</t>
         </is>
       </c>
-      <c r="D200" t="n">
-        <v>0</v>
-      </c>
+      <c r="D200" t="inlineStr"/>
       <c r="E200" t="n">
         <v>0</v>
       </c>
@@ -11051,6 +11796,9 @@
         <v>0</v>
       </c>
       <c r="P200" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q200" t="n">
         <v>0</v>
       </c>
     </row>
@@ -11066,9 +11814,7 @@
           <t>https://smashinghub.com/netflix-vs-hulu-vs-amazon-prime-which-one-is-better.htm</t>
         </is>
       </c>
-      <c r="D201" t="n">
-        <v>0</v>
-      </c>
+      <c r="D201" t="inlineStr"/>
       <c r="E201" t="n">
         <v>0</v>
       </c>
@@ -11103,6 +11849,9 @@
         <v>0</v>
       </c>
       <c r="P201" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q201" t="n">
         <v>0</v>
       </c>
     </row>
